--- a/meta/paper1/Foundation Model Leaderboards.xlsx
+++ b/meta/paper1/Foundation Model Leaderboards.xlsx
@@ -17,7 +17,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="I356">
+    <comment authorId="0" ref="I355">
       <text>
         <t xml:space="preserve">IEEE Transactions on Image Processing
 	-Jimmy Chou</t>
@@ -133,13 +133,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D353">
+    <comment authorId="0" ref="D352">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/anli/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D343">
+    <comment authorId="0" ref="D342">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/winogrande/submissions/public
 	-Jimmy Chou</t>
@@ -217,7 +217,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D321">
+    <comment authorId="0" ref="D320">
       <text>
         <t xml:space="preserve">https://github.com/PKU-YuanGroup/Video-Bench
 	-Jimmy Chou</t>
@@ -375,7 +375,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I336">
+    <comment authorId="0" ref="I335">
       <text>
         <t xml:space="preserve">IEEE International Conference on Acoustics, Speech and Signal Processing
 	-Jimmy Chou</t>
@@ -455,7 +455,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D326">
+    <comment authorId="0" ref="D325">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard
 	-Jimmy Chou</t>
@@ -802,7 +802,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D351">
+    <comment authorId="0" ref="D350">
       <text>
         <t xml:space="preserve">https://gist.github.com/mlabonne/90294929a2dbcb8877f9696f28105fdf
 	-Jimmy Chou</t>
@@ -872,7 +872,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I345">
+    <comment authorId="0" ref="I344">
       <text>
         <t xml:space="preserve">Workshop on Machine Translation
 	-Jimmy Chou</t>
@@ -1073,7 +1073,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D337">
+    <comment authorId="0" ref="D336">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard
 	-Jimmy Chou
@@ -1793,7 +1793,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="1481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="1480">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -3741,9 +3741,6 @@
   </si>
   <si>
     <t>Text,Audio,Video</t>
-  </si>
-  <si>
-    <t>VGGSound</t>
   </si>
   <si>
     <t>Video-Bench</t>
@@ -15310,44 +15307,43 @@
       <c r="A320" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="C320" s="2"/>
       <c r="D320" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E320" s="2"/>
       <c r="G320" s="2"/>
+      <c r="H320" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="I320" s="2" t="s">
-        <v>158</v>
+        <v>39</v>
+      </c>
+      <c r="J320" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="K320" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="L320" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M320" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N320" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="8" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E321" s="2"/>
-      <c r="G321" s="2"/>
-      <c r="H321" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="I321" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="J321" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="K321" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="L321" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="M321" s="3" t="s">
         <v>17</v>
@@ -15360,10 +15356,12 @@
       <c r="A322" s="8" t="s">
         <v>650</v>
       </c>
+      <c r="C322" s="2"/>
       <c r="D322" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E322" s="2"/>
+      <c r="G322" s="2"/>
       <c r="I322" s="2" t="s">
         <v>39</v>
       </c>
@@ -15371,22 +15369,28 @@
         <v>17</v>
       </c>
       <c r="N322" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" s="2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E323" s="2"/>
       <c r="G323" s="2"/>
+      <c r="H323" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="I323" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="J323" s="2" t="s">
+        <v>651</v>
+      </c>
       <c r="M323" s="3" t="s">
         <v>17</v>
       </c>
@@ -15396,23 +15400,17 @@
     </row>
     <row r="324">
       <c r="A324" s="8" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E324" s="2"/>
+        <v>15</v>
+      </c>
       <c r="G324" s="2"/>
-      <c r="H324" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="I324" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J324" s="2" t="s">
-        <v>652</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J324" s="2"/>
       <c r="M324" s="3" t="s">
         <v>17</v>
       </c>
@@ -15424,15 +15422,28 @@
       <c r="A325" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="C325" s="2"/>
       <c r="D325" s="2" t="s">
-        <v>15</v>
+        <v>282</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="G325" s="2"/>
+      <c r="H325" s="2" t="s">
+        <v>639</v>
+      </c>
       <c r="I325" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J325" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="J325" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="K325" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L325" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="M325" s="3" t="s">
         <v>17</v>
       </c>
@@ -15442,29 +15453,24 @@
     </row>
     <row r="326">
       <c r="A326" s="8" t="s">
-        <v>654</v>
+        <v>655</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E326" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E326" s="2"/>
       <c r="G326" s="2"/>
       <c r="H326" s="2" t="s">
-        <v>639</v>
+        <v>134</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="J326" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="K326" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L326" s="2" t="s">
-        <v>104</v>
+        <v>656</v>
       </c>
       <c r="M326" s="3" t="s">
         <v>17</v>
@@ -15475,25 +15481,17 @@
     </row>
     <row r="327">
       <c r="A327" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="C327" s="2"/>
       <c r="D327" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E327" s="2"/>
+        <v>15</v>
+      </c>
       <c r="G327" s="2"/>
-      <c r="H327" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="I327" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J327" s="2" t="s">
-        <v>657</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J327" s="2"/>
       <c r="M327" s="3" t="s">
         <v>17</v>
       </c>
@@ -15505,59 +15503,59 @@
       <c r="A328" s="8" t="s">
         <v>658</v>
       </c>
-      <c r="C328" s="2"/>
       <c r="D328" s="2" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="E328" s="2"/>
+      <c r="F328" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="G328" s="2"/>
+      <c r="H328" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="I328" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J328" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="J328" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="K328" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L328" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="M328" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N328" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="8" t="s">
-        <v>659</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="C329" s="2"/>
       <c r="D329" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E329" s="2"/>
-      <c r="F329" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="G329" s="2"/>
-      <c r="H329" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="I329" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J329" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="K329" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L329" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="J329" s="2"/>
       <c r="M329" s="3" t="s">
-        <v>17</v>
+        <v>661</v>
       </c>
       <c r="N329" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="8" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" s="2" t="s">
@@ -15565,19 +15563,18 @@
       </c>
       <c r="G330" s="2"/>
       <c r="I330" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J330" s="2"/>
+        <v>65</v>
+      </c>
       <c r="M330" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N330" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="8" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" s="2" t="s">
@@ -15585,13 +15582,14 @@
       </c>
       <c r="G331" s="2"/>
       <c r="I331" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J331" s="2"/>
       <c r="M331" s="3" t="s">
-        <v>664</v>
+        <v>17</v>
       </c>
       <c r="N331" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="332">
@@ -15604,14 +15602,13 @@
       </c>
       <c r="G332" s="2"/>
       <c r="I332" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J332" s="2"/>
+        <v>139</v>
+      </c>
       <c r="M332" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N332" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="333">
@@ -15624,13 +15621,13 @@
       </c>
       <c r="G333" s="2"/>
       <c r="I333" s="2" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="M333" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N333" s="2" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="334">
@@ -15643,13 +15640,14 @@
       </c>
       <c r="G334" s="2"/>
       <c r="I334" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J334" s="2"/>
       <c r="M334" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N334" s="2" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="335">
@@ -15662,14 +15660,13 @@
       </c>
       <c r="G335" s="2"/>
       <c r="I335" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J335" s="2"/>
+        <v>158</v>
+      </c>
       <c r="M335" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N335" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="336">
@@ -15682,13 +15679,14 @@
       </c>
       <c r="G336" s="2"/>
       <c r="I336" s="2" t="s">
-        <v>158</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J336" s="2"/>
       <c r="M336" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="N336" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="337">
@@ -15701,14 +15699,14 @@
       </c>
       <c r="G337" s="2"/>
       <c r="I337" s="2" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="J337" s="2"/>
       <c r="M337" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N337" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="338">
@@ -15721,7 +15719,7 @@
       </c>
       <c r="G338" s="2"/>
       <c r="I338" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="J338" s="2"/>
       <c r="M338" s="3" t="s">
@@ -15741,7 +15739,7 @@
       </c>
       <c r="G339" s="2"/>
       <c r="I339" s="2" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="J339" s="2"/>
       <c r="M339" s="3" t="s">
@@ -15772,105 +15770,105 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="8" t="s">
+      <c r="A341" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="C341" s="2"/>
-      <c r="D341" s="2" t="s">
+      <c r="B341" s="5"/>
+      <c r="C341" s="6"/>
+      <c r="D341" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G341" s="2"/>
-      <c r="I341" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J341" s="2"/>
-      <c r="M341" s="3" t="s">
+      <c r="E341" s="6"/>
+      <c r="F341" s="6"/>
+      <c r="G341" s="6"/>
+      <c r="H341" s="6"/>
+      <c r="I341" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J341" s="6"/>
+      <c r="K341" s="6"/>
+      <c r="L341" s="6"/>
+      <c r="M341" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N341" s="2" t="s">
+      <c r="N341" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="O341" s="5"/>
+      <c r="P341" s="5"/>
+      <c r="Q341" s="5"/>
+      <c r="R341" s="5"/>
+      <c r="S341" s="5"/>
+      <c r="T341" s="5"/>
+      <c r="U341" s="5"/>
+      <c r="V341" s="5"/>
+      <c r="W341" s="5"/>
+      <c r="X341" s="5"/>
+      <c r="Y341" s="5"/>
+      <c r="Z341" s="5"/>
+      <c r="AA341" s="5"/>
+      <c r="AB341" s="5"/>
+      <c r="AC341" s="5"/>
+      <c r="AD341" s="5"/>
+      <c r="AE341" s="5"/>
     </row>
     <row r="342">
-      <c r="A342" s="11" t="s">
-        <v>675</v>
-      </c>
-      <c r="B342" s="5"/>
-      <c r="C342" s="6"/>
-      <c r="D342" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E342" s="6"/>
-      <c r="F342" s="6"/>
-      <c r="G342" s="6"/>
-      <c r="H342" s="6"/>
-      <c r="I342" s="6" t="s">
+      <c r="A342" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G342" s="2"/>
+      <c r="H342" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I342" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J342" s="6"/>
-      <c r="K342" s="6"/>
-      <c r="L342" s="6"/>
-      <c r="M342" s="6" t="s">
+      <c r="J342" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K342" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L342" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M342" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N342" s="6" t="s">
+      <c r="N342" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O342" s="5"/>
-      <c r="P342" s="5"/>
-      <c r="Q342" s="5"/>
-      <c r="R342" s="5"/>
-      <c r="S342" s="5"/>
-      <c r="T342" s="5"/>
-      <c r="U342" s="5"/>
-      <c r="V342" s="5"/>
-      <c r="W342" s="5"/>
-      <c r="X342" s="5"/>
-      <c r="Y342" s="5"/>
-      <c r="Z342" s="5"/>
-      <c r="AA342" s="5"/>
-      <c r="AB342" s="5"/>
-      <c r="AC342" s="5"/>
-      <c r="AD342" s="5"/>
-      <c r="AE342" s="5"/>
     </row>
     <row r="343">
       <c r="A343" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="C343" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C343" s="2"/>
       <c r="D343" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E343" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F343" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G343" s="2"/>
-      <c r="H343" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="I343" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J343" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K343" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L343" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J343" s="2"/>
       <c r="M343" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N343" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="344">
@@ -15883,19 +15881,19 @@
       </c>
       <c r="G344" s="2"/>
       <c r="I344" s="2" t="s">
-        <v>29</v>
+        <v>677</v>
       </c>
       <c r="J344" s="2"/>
       <c r="M344" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N344" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="8" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="2" t="s">
@@ -15903,7 +15901,7 @@
       </c>
       <c r="G345" s="2"/>
       <c r="I345" s="2" t="s">
-        <v>678</v>
+        <v>139</v>
       </c>
       <c r="J345" s="2"/>
       <c r="M345" s="3" t="s">
@@ -15923,7 +15921,7 @@
       </c>
       <c r="G346" s="2"/>
       <c r="I346" s="2" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="J346" s="2"/>
       <c r="M346" s="3" t="s">
@@ -15943,7 +15941,7 @@
       </c>
       <c r="G347" s="2"/>
       <c r="I347" s="2" t="s">
-        <v>65</v>
+        <v>681</v>
       </c>
       <c r="J347" s="2"/>
       <c r="M347" s="3" t="s">
@@ -15955,19 +15953,24 @@
     </row>
     <row r="348">
       <c r="A348" s="8" t="s">
-        <v>681</v>
-      </c>
-      <c r="C348" s="2"/>
+        <v>682</v>
+      </c>
       <c r="D348" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E348" s="2"/>
       <c r="G348" s="2"/>
+      <c r="H348" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="I348" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="J348" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="J348" s="2" t="s">
+        <v>683</v>
+      </c>
       <c r="M348" s="3" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="N348" s="2" t="s">
         <v>27</v>
@@ -15975,24 +15978,19 @@
     </row>
     <row r="349">
       <c r="A349" s="8" t="s">
-        <v>683</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="C349" s="2"/>
       <c r="D349" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E349" s="2"/>
+        <v>15</v>
+      </c>
       <c r="G349" s="2"/>
-      <c r="H349" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="I349" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J349" s="2" t="s">
-        <v>684</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="J349" s="2"/>
       <c r="M349" s="3" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="N349" s="2" t="s">
         <v>27</v>
@@ -16002,15 +16000,25 @@
       <c r="A350" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="C350" s="2"/>
       <c r="D350" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G350" s="2"/>
-      <c r="I350" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J350" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G350" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H350" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="I350" s="2"/>
+      <c r="J350" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="M350" s="3" t="s">
         <v>17</v>
       </c>
@@ -16020,91 +16028,82 @@
     </row>
     <row r="351">
       <c r="A351" s="8" t="s">
-        <v>686</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="C351" s="2"/>
       <c r="D351" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E351" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F351" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G351" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H351" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="I351" s="2"/>
-      <c r="J351" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G351" s="2"/>
+      <c r="I351" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J351" s="2"/>
       <c r="M351" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N351" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="C352" s="2"/>
+      <c r="C352" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D352" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G352" s="2"/>
+      <c r="H352" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I352" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J352" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="J352" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K352" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L352" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="M352" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N352" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="C353" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C353" s="2"/>
       <c r="D353" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E353" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F353" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E353" s="2"/>
       <c r="G353" s="2"/>
-      <c r="H353" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H353" s="2"/>
       <c r="I353" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J353" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K353" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L353" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M353" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N353" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="354">
@@ -16119,10 +16118,10 @@
       <c r="G354" s="2"/>
       <c r="H354" s="2"/>
       <c r="I354" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M354" s="3" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="N354" s="2" t="s">
         <v>30</v>
@@ -16140,35 +16139,22 @@
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
       <c r="I355" s="2" t="s">
-        <v>32</v>
+        <v>692</v>
       </c>
       <c r="M355" s="3" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="N355" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="8" t="s">
-        <v>692</v>
-      </c>
       <c r="C356" s="2"/>
-      <c r="D356" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E356" s="2"/>
       <c r="G356" s="2"/>
       <c r="H356" s="2"/>
-      <c r="I356" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="M356" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N356" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="I356" s="2"/>
+      <c r="M356" s="18"/>
     </row>
     <row r="357">
       <c r="C357" s="2"/>
@@ -21241,14 +21227,6 @@
       <c r="H990" s="2"/>
       <c r="I990" s="2"/>
       <c r="M990" s="18"/>
-    </row>
-    <row r="991">
-      <c r="C991" s="2"/>
-      <c r="E991" s="2"/>
-      <c r="G991" s="2"/>
-      <c r="H991" s="2"/>
-      <c r="I991" s="2"/>
-      <c r="M991" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -21617,10 +21595,9 @@
     <hyperlink r:id="rId364" ref="A353"/>
     <hyperlink r:id="rId365" ref="A354"/>
     <hyperlink r:id="rId366" ref="A355"/>
-    <hyperlink r:id="rId367" ref="A356"/>
   </hyperlinks>
-  <drawing r:id="rId368"/>
-  <legacyDrawing r:id="rId369"/>
+  <drawing r:id="rId367"/>
+  <legacyDrawing r:id="rId368"/>
 </worksheet>
 </file>
 
@@ -21650,7 +21627,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="2">
@@ -21658,13 +21635,13 @@
         <v>36</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>695</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>696</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>697</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -21888,19 +21865,19 @@
         <v>50</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>699</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>701</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>702</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -22122,73 +22099,73 @@
         <v>83</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>707</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>718</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="S4" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="T4" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="U4" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="X4" s="8" t="s">
         <v>724</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>725</v>
       </c>
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
@@ -22392,13 +22369,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>622</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>99</v>
@@ -22407,46 +22384,46 @@
         <v>464</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>733</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>734</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>506</v>
       </c>
       <c r="O5" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="Q5" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="R5" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="S5" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="T5" s="8" t="s">
         <v>739</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>740</v>
       </c>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
@@ -22654,7 +22631,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>289</v>
@@ -22882,91 +22859,91 @@
         <v>96</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>744</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>746</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="O7" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="P7" s="8" t="s">
         <v>754</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="Q7" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="Q7" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="R7" s="8" t="s">
+      <c r="S7" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="T7" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="U7" s="8" t="s">
         <v>758</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>759</v>
       </c>
       <c r="V7" s="8" t="s">
         <v>146</v>
       </c>
       <c r="W7" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="X7" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="X7" s="8" t="s">
+      <c r="Y7" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="Y7" s="8" t="s">
+      <c r="Z7" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="Z7" s="8" t="s">
+      <c r="AA7" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="AA7" s="8" t="s">
+      <c r="AB7" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="AB7" s="8" t="s">
+      <c r="AC7" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="AC7" s="8" t="s">
+      <c r="AD7" s="8" t="s">
         <v>766</v>
-      </c>
-      <c r="AD7" s="8" t="s">
-        <v>767</v>
       </c>
       <c r="AE7" s="8" t="s">
         <v>464</v>
@@ -22978,552 +22955,552 @@
         <v>190</v>
       </c>
       <c r="AH7" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="AI7" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="AI7" s="8" t="s">
+      <c r="AJ7" s="8" t="s">
         <v>769</v>
       </c>
-      <c r="AJ7" s="8" t="s">
+      <c r="AK7" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="AK7" s="8" t="s">
+      <c r="AL7" s="8" t="s">
         <v>771</v>
       </c>
-      <c r="AL7" s="8" t="s">
+      <c r="AM7" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="AM7" s="8" t="s">
+      <c r="AN7" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="AN7" s="8" t="s">
+      <c r="AO7" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="AP7" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="AQ7" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="AO7" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="AP7" s="8" t="s">
+      <c r="AR7" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="AS7" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="AT7" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="AQ7" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="AR7" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="AS7" s="8" t="s">
+      <c r="AU7" s="8" t="s">
         <v>777</v>
-      </c>
-      <c r="AT7" s="8" t="s">
-        <v>707</v>
-      </c>
-      <c r="AU7" s="8" t="s">
-        <v>778</v>
       </c>
       <c r="AV7" s="8" t="s">
         <v>379</v>
       </c>
       <c r="AW7" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="AX7" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="AX7" s="8" t="s">
+      <c r="AY7" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="AY7" s="8" t="s">
+      <c r="AZ7" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="AZ7" s="8" t="s">
+      <c r="BA7" s="8" t="s">
         <v>782</v>
       </c>
-      <c r="BA7" s="8" t="s">
+      <c r="BB7" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="BB7" s="8" t="s">
+      <c r="BC7" s="8" t="s">
         <v>784</v>
       </c>
-      <c r="BC7" s="8" t="s">
+      <c r="BD7" s="8" t="s">
         <v>785</v>
       </c>
-      <c r="BD7" s="8" t="s">
+      <c r="BE7" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="BE7" s="8" t="s">
+      <c r="BF7" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="BF7" s="8" t="s">
+      <c r="BG7" s="8" t="s">
         <v>788</v>
       </c>
-      <c r="BG7" s="8" t="s">
+      <c r="BH7" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="BH7" s="8" t="s">
+      <c r="BI7" s="8" t="s">
         <v>790</v>
       </c>
-      <c r="BI7" s="8" t="s">
+      <c r="BJ7" s="8" t="s">
         <v>791</v>
       </c>
-      <c r="BJ7" s="8" t="s">
+      <c r="BK7" s="8" t="s">
         <v>792</v>
       </c>
-      <c r="BK7" s="8" t="s">
+      <c r="BL7" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="BM7" s="8" t="s">
         <v>793</v>
       </c>
-      <c r="BL7" s="8" t="s">
+      <c r="BN7" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="BO7" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="BP7" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="BQ7" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="BR7" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="BM7" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="BN7" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="BO7" s="8" t="s">
-        <v>796</v>
-      </c>
-      <c r="BP7" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="BQ7" s="8" t="s">
+      <c r="BS7" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="BR7" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="BS7" s="8" t="s">
+      <c r="BT7" s="8" t="s">
         <v>799</v>
-      </c>
-      <c r="BT7" s="8" t="s">
-        <v>800</v>
       </c>
       <c r="BU7" s="14"/>
       <c r="BV7" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="BW7" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="BW7" s="8" t="s">
+      <c r="BX7" s="8" t="s">
         <v>802</v>
       </c>
-      <c r="BX7" s="8" t="s">
+      <c r="BY7" s="8" t="s">
         <v>803</v>
       </c>
-      <c r="BY7" s="8" t="s">
+      <c r="BZ7" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="BZ7" s="8" t="s">
+      <c r="CA7" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="CA7" s="8" t="s">
+      <c r="CB7" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="CC7" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="CB7" s="8" t="s">
+      <c r="CD7" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="CE7" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="CF7" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="CG7" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="CH7" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="CI7" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="CJ7" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="CK7" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="CL7" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="CM7" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="CN7" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="CO7" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="CP7" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="CQ7" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="CR7" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="CS7" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="CT7" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="CU7" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="CV7" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="CW7" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="CX7" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="CC7" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="CD7" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="CE7" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="CF7" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="CG7" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="CH7" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="CI7" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="CJ7" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="CK7" s="8" t="s">
-        <v>815</v>
-      </c>
-      <c r="CL7" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="CM7" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="CN7" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="CO7" s="8" t="s">
-        <v>819</v>
-      </c>
-      <c r="CP7" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="CQ7" s="8" t="s">
-        <v>821</v>
-      </c>
-      <c r="CR7" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="CS7" s="8" t="s">
-        <v>823</v>
-      </c>
-      <c r="CT7" s="8" t="s">
-        <v>824</v>
-      </c>
-      <c r="CU7" s="8" t="s">
-        <v>825</v>
-      </c>
-      <c r="CV7" s="8" t="s">
-        <v>826</v>
-      </c>
-      <c r="CW7" s="8" t="s">
+      <c r="CY7" s="8" t="s">
         <v>827</v>
       </c>
-      <c r="CX7" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="CY7" s="8" t="s">
+      <c r="CZ7" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="CZ7" s="8" t="s">
+      <c r="DA7" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="DA7" s="8" t="s">
+      <c r="DB7" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="DB7" s="8" t="s">
+      <c r="DC7" s="8" t="s">
         <v>831</v>
       </c>
-      <c r="DC7" s="8" t="s">
+      <c r="DD7" s="8" t="s">
         <v>832</v>
-      </c>
-      <c r="DD7" s="8" t="s">
-        <v>833</v>
       </c>
       <c r="DE7" s="14"/>
       <c r="DF7" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="DG7" s="8" t="s">
         <v>834</v>
       </c>
-      <c r="DG7" s="8" t="s">
+      <c r="DH7" s="8" t="s">
         <v>835</v>
       </c>
-      <c r="DH7" s="8" t="s">
+      <c r="DI7" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="DI7" s="8" t="s">
+      <c r="DJ7" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="DJ7" s="8" t="s">
+      <c r="DK7" s="8" t="s">
         <v>838</v>
       </c>
-      <c r="DK7" s="8" t="s">
+      <c r="DL7" s="8" t="s">
         <v>839</v>
       </c>
-      <c r="DL7" s="8" t="s">
+      <c r="DM7" s="8" t="s">
         <v>840</v>
       </c>
-      <c r="DM7" s="8" t="s">
+      <c r="DN7" s="8" t="s">
         <v>841</v>
       </c>
-      <c r="DN7" s="8" t="s">
+      <c r="DO7" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="DP7" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="DO7" s="8" t="s">
+      <c r="DQ7" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="DR7" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="DP7" s="8" t="s">
-        <v>843</v>
-      </c>
-      <c r="DQ7" s="8" t="s">
+      <c r="DS7" s="8" t="s">
         <v>844</v>
       </c>
-      <c r="DR7" s="8" t="s">
+      <c r="DT7" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="DU7" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="DS7" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="DT7" s="8" t="s">
+      <c r="DV7" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="DU7" s="8" t="s">
+      <c r="DW7" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="DX7" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="DV7" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="DW7" s="8" t="s">
+      <c r="DY7" s="8" t="s">
         <v>848</v>
       </c>
-      <c r="DX7" s="8" t="s">
+      <c r="DZ7" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="EA7" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="EB7" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="EC7" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="ED7" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="DY7" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="DZ7" s="8" t="s">
-        <v>850</v>
-      </c>
-      <c r="EA7" s="8" t="s">
-        <v>851</v>
-      </c>
-      <c r="EB7" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="EC7" s="8" t="s">
+      <c r="EE7" s="8" t="s">
         <v>853</v>
       </c>
-      <c r="ED7" s="8" t="s">
+      <c r="EF7" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="EG7" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="EH7" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="EI7" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="EJ7" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="EK7" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="EL7" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="EM7" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="EN7" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="EO7" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="EP7" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="EQ7" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="ER7" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="ES7" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="ET7" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="EU7" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="EE7" s="8" t="s">
-        <v>854</v>
-      </c>
-      <c r="EF7" s="8" t="s">
-        <v>855</v>
-      </c>
-      <c r="EG7" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="EH7" s="8" t="s">
-        <v>857</v>
-      </c>
-      <c r="EI7" s="8" t="s">
-        <v>858</v>
-      </c>
-      <c r="EJ7" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="EK7" s="8" t="s">
-        <v>860</v>
-      </c>
-      <c r="EL7" s="8" t="s">
-        <v>861</v>
-      </c>
-      <c r="EM7" s="8" t="s">
-        <v>862</v>
-      </c>
-      <c r="EN7" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="EO7" s="8" t="s">
-        <v>864</v>
-      </c>
-      <c r="EP7" s="8" t="s">
-        <v>865</v>
-      </c>
-      <c r="EQ7" s="8" t="s">
-        <v>866</v>
-      </c>
-      <c r="ER7" s="8" t="s">
-        <v>867</v>
-      </c>
-      <c r="ES7" s="8" t="s">
-        <v>868</v>
-      </c>
-      <c r="ET7" s="8" t="s">
+      <c r="EV7" s="8" t="s">
         <v>869</v>
       </c>
-      <c r="EU7" s="8" t="s">
+      <c r="EW7" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="EX7" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="EY7" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="EZ7" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="FA7" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="EV7" s="8" t="s">
-        <v>870</v>
-      </c>
-      <c r="EW7" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="EX7" s="8" t="s">
-        <v>872</v>
-      </c>
-      <c r="EY7" s="8" t="s">
-        <v>873</v>
-      </c>
-      <c r="EZ7" s="8" t="s">
+      <c r="FB7" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="FC7" s="8" t="s">
         <v>874</v>
       </c>
-      <c r="FA7" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="FB7" s="8" t="s">
-        <v>719</v>
-      </c>
-      <c r="FC7" s="8" t="s">
+      <c r="FD7" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="FD7" s="8" t="s">
+      <c r="FE7" s="8" t="s">
         <v>876</v>
       </c>
-      <c r="FE7" s="8" t="s">
+      <c r="FF7" s="8" t="s">
         <v>877</v>
       </c>
-      <c r="FF7" s="8" t="s">
+      <c r="FG7" s="8" t="s">
         <v>878</v>
-      </c>
-      <c r="FG7" s="8" t="s">
-        <v>879</v>
       </c>
       <c r="FH7" s="8" t="s">
         <v>553</v>
       </c>
       <c r="FI7" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="FJ7" s="8" t="s">
         <v>880</v>
       </c>
-      <c r="FJ7" s="8" t="s">
+      <c r="FK7" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="FK7" s="8" t="s">
+      <c r="FL7" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="FL7" s="8" t="s">
+      <c r="FM7" s="8" t="s">
         <v>883</v>
       </c>
-      <c r="FM7" s="8" t="s">
+      <c r="FN7" s="8" t="s">
         <v>884</v>
       </c>
-      <c r="FN7" s="8" t="s">
+      <c r="FO7" s="8" t="s">
         <v>885</v>
       </c>
-      <c r="FO7" s="8" t="s">
+      <c r="FP7" s="8" t="s">
         <v>886</v>
       </c>
-      <c r="FP7" s="8" t="s">
+      <c r="FQ7" s="8" t="s">
         <v>887</v>
       </c>
-      <c r="FQ7" s="8" t="s">
+      <c r="FR7" s="8" t="s">
         <v>888</v>
       </c>
-      <c r="FR7" s="8" t="s">
-        <v>889</v>
-      </c>
       <c r="FS7" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="FT7" s="8" t="s">
         <v>550</v>
       </c>
       <c r="FU7" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="FV7" s="8" t="s">
         <v>890</v>
       </c>
-      <c r="FV7" s="8" t="s">
+      <c r="FW7" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="FX7" s="8" t="s">
         <v>891</v>
       </c>
-      <c r="FW7" s="8" t="s">
-        <v>721</v>
-      </c>
-      <c r="FX7" s="8" t="s">
+      <c r="FY7" s="8" t="s">
         <v>892</v>
-      </c>
-      <c r="FY7" s="8" t="s">
-        <v>893</v>
       </c>
       <c r="FZ7" s="8" t="s">
         <v>561</v>
       </c>
       <c r="GA7" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="GB7" s="8" t="s">
         <v>894</v>
       </c>
-      <c r="GB7" s="8" t="s">
+      <c r="GC7" s="8" t="s">
         <v>895</v>
       </c>
-      <c r="GC7" s="8" t="s">
+      <c r="GD7" s="8" t="s">
         <v>896</v>
       </c>
-      <c r="GD7" s="8" t="s">
+      <c r="GE7" s="8" t="s">
         <v>897</v>
       </c>
-      <c r="GE7" s="8" t="s">
+      <c r="GF7" s="8" t="s">
         <v>898</v>
       </c>
-      <c r="GF7" s="8" t="s">
+      <c r="GG7" s="8" t="s">
         <v>899</v>
       </c>
-      <c r="GG7" s="8" t="s">
+      <c r="GH7" s="8" t="s">
         <v>900</v>
       </c>
-      <c r="GH7" s="8" t="s">
+      <c r="GI7" s="8" t="s">
         <v>901</v>
       </c>
-      <c r="GI7" s="8" t="s">
+      <c r="GJ7" s="8" t="s">
         <v>902</v>
       </c>
-      <c r="GJ7" s="8" t="s">
+      <c r="GK7" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="GL7" s="8" t="s">
         <v>903</v>
       </c>
-      <c r="GK7" s="8" t="s">
+      <c r="GM7" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="GN7" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="GO7" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="GP7" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="GL7" s="8" t="s">
-        <v>904</v>
-      </c>
-      <c r="GM7" s="8" t="s">
-        <v>905</v>
-      </c>
-      <c r="GN7" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="GO7" s="8" t="s">
+      <c r="GQ7" s="8" t="s">
         <v>907</v>
       </c>
-      <c r="GP7" s="8" t="s">
+      <c r="GR7" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="GS7" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="GT7" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="GU7" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="GV7" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="GW7" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="GX7" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="GY7" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="GZ7" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="HA7" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="GQ7" s="8" t="s">
-        <v>908</v>
-      </c>
-      <c r="GR7" s="8" t="s">
-        <v>909</v>
-      </c>
-      <c r="GS7" s="8" t="s">
-        <v>910</v>
-      </c>
-      <c r="GT7" s="8" t="s">
-        <v>911</v>
-      </c>
-      <c r="GU7" s="8" t="s">
-        <v>912</v>
-      </c>
-      <c r="GV7" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="GW7" s="8" t="s">
-        <v>914</v>
-      </c>
-      <c r="GX7" s="8" t="s">
-        <v>915</v>
-      </c>
-      <c r="GY7" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="GZ7" s="8" t="s">
+      <c r="HB7" s="8" t="s">
         <v>917</v>
       </c>
-      <c r="HA7" s="8" t="s">
+      <c r="HC7" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="HD7" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="HE7" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="HF7" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="HG7" s="8" t="s">
         <v>724</v>
       </c>
-      <c r="HB7" s="8" t="s">
-        <v>918</v>
-      </c>
-      <c r="HC7" s="8" t="s">
-        <v>919</v>
-      </c>
-      <c r="HD7" s="8" t="s">
-        <v>920</v>
-      </c>
-      <c r="HE7" s="8" t="s">
-        <v>921</v>
-      </c>
-      <c r="HF7" s="8" t="s">
+      <c r="HH7" s="8" t="s">
         <v>922</v>
       </c>
-      <c r="HG7" s="8" t="s">
-        <v>725</v>
-      </c>
-      <c r="HH7" s="8" t="s">
+      <c r="HI7" s="8" t="s">
         <v>923</v>
-      </c>
-      <c r="HI7" s="8" t="s">
-        <v>924</v>
       </c>
       <c r="HJ7" s="14"/>
       <c r="HK7" s="14"/>
@@ -23540,13 +23517,13 @@
         <v>243</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>925</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>926</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>927</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>536</v>
@@ -23778,40 +23755,40 @@
         <v>159</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>928</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>929</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>930</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>931</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>933</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>934</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="8" t="s">
         <v>935</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="K9" s="8" t="s">
         <v>936</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="8" t="s">
         <v>937</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>938</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>939</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
@@ -24026,10 +24003,10 @@
         <v>161</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>940</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>941</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -24251,97 +24228,97 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>942</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>943</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>944</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>945</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>946</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>947</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>949</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="K11" s="8" t="s">
         <v>951</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="L11" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="M11" s="8" t="s">
         <v>953</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="N11" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="P11" s="8" t="s">
         <v>954</v>
       </c>
-      <c r="N11" s="8" t="s">
-        <v>931</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>932</v>
-      </c>
-      <c r="P11" s="8" t="s">
+      <c r="Q11" s="8" t="s">
         <v>955</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="R11" s="8" t="s">
         <v>956</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="S11" s="8" t="s">
         <v>957</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="T11" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="U11" s="8" t="s">
         <v>959</v>
       </c>
-      <c r="U11" s="8" t="s">
+      <c r="V11" s="8" t="s">
         <v>960</v>
       </c>
-      <c r="V11" s="8" t="s">
+      <c r="W11" s="8" t="s">
         <v>961</v>
       </c>
-      <c r="W11" s="8" t="s">
+      <c r="X11" s="8" t="s">
         <v>962</v>
       </c>
-      <c r="X11" s="8" t="s">
+      <c r="Y11" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="Z11" s="8" t="s">
         <v>963</v>
       </c>
-      <c r="Y11" s="8" t="s">
+      <c r="AA11" s="8" t="s">
         <v>928</v>
       </c>
-      <c r="Z11" s="8" t="s">
+      <c r="AB11" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="AC11" s="8" t="s">
         <v>964</v>
       </c>
-      <c r="AA11" s="8" t="s">
-        <v>929</v>
-      </c>
-      <c r="AB11" s="8" t="s">
-        <v>930</v>
-      </c>
-      <c r="AC11" s="8" t="s">
+      <c r="AD11" s="8" t="s">
         <v>965</v>
       </c>
-      <c r="AD11" s="8" t="s">
+      <c r="AE11" s="8" t="s">
         <v>966</v>
-      </c>
-      <c r="AE11" s="8" t="s">
-        <v>967</v>
       </c>
       <c r="AF11" s="14"/>
       <c r="AG11" s="14"/>
@@ -24543,7 +24520,7 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>414</v>
@@ -24552,7 +24529,7 @@
         <v>163</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>251</v>
@@ -24780,10 +24757,10 @@
         <v>190</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>970</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>971</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>510</v>
@@ -24792,10 +24769,10 @@
         <v>171</v>
       </c>
       <c r="F14" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>972</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>973</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>539</v>
@@ -24806,13 +24783,13 @@
         <v>218</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>414</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="16">
@@ -25048,19 +25025,19 @@
         <v>226</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>289</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>262</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -25282,31 +25259,31 @@
         <v>230</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>976</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>977</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>978</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>929</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>930</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>931</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>979</v>
-      </c>
       <c r="H18" s="8" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -25533,7 +25510,7 @@
         <v>627</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>511</v>
@@ -25542,55 +25519,55 @@
         <v>163</v>
       </c>
       <c r="H19" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="L19" s="8" t="s">
         <v>981</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>934</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>937</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>933</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>982</v>
-      </c>
       <c r="M19" s="8" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="Q19" s="8" t="s">
         <v>243</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="S19" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="T19" s="8" t="s">
         <v>983</v>
-      </c>
-      <c r="T19" s="8" t="s">
-        <v>984</v>
       </c>
       <c r="U19" s="8" t="s">
         <v>438</v>
       </c>
       <c r="V19" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="W19" s="8" t="s">
         <v>985</v>
       </c>
-      <c r="W19" s="8" t="s">
+      <c r="X19" s="8" t="s">
         <v>986</v>
-      </c>
-      <c r="X19" s="8" t="s">
-        <v>987</v>
       </c>
       <c r="Y19" s="8" t="s">
         <v>439</v>
@@ -25599,46 +25576,46 @@
         <v>634</v>
       </c>
       <c r="AA19" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="AB19" s="8" t="s">
         <v>988</v>
       </c>
-      <c r="AB19" s="8" t="s">
+      <c r="AC19" s="8" t="s">
         <v>989</v>
       </c>
-      <c r="AC19" s="8" t="s">
+      <c r="AD19" s="8" t="s">
         <v>990</v>
-      </c>
-      <c r="AD19" s="8" t="s">
-        <v>991</v>
       </c>
       <c r="AE19" s="8" t="s">
         <v>245</v>
       </c>
       <c r="AF19" s="8" t="s">
+        <v>991</v>
+      </c>
+      <c r="AG19" s="8" t="s">
         <v>992</v>
       </c>
-      <c r="AG19" s="8" t="s">
+      <c r="AH19" s="8" t="s">
         <v>993</v>
       </c>
-      <c r="AH19" s="8" t="s">
+      <c r="AI19" s="8" t="s">
         <v>994</v>
       </c>
-      <c r="AI19" s="8" t="s">
+      <c r="AJ19" s="8" t="s">
         <v>995</v>
-      </c>
-      <c r="AJ19" s="8" t="s">
-        <v>996</v>
       </c>
       <c r="AK19" s="8" t="s">
         <v>34</v>
       </c>
       <c r="AL19" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="AM19" s="8" t="s">
         <v>997</v>
       </c>
-      <c r="AM19" s="8" t="s">
+      <c r="AN19" s="8" t="s">
         <v>998</v>
-      </c>
-      <c r="AN19" s="8" t="s">
-        <v>999</v>
       </c>
       <c r="AO19" s="8" t="s">
         <v>289</v>
@@ -25647,13 +25624,13 @@
         <v>42</v>
       </c>
       <c r="AQ19" s="8" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AR19" s="8" t="s">
         <v>331</v>
       </c>
       <c r="AS19" s="8" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AT19" s="14"/>
       <c r="AU19" s="14"/>
@@ -25836,19 +25813,19 @@
         <v>256</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>1002</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>1003</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>1004</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>1005</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
@@ -26067,7 +26044,7 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>271</v>
@@ -26076,7 +26053,7 @@
         <v>479</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>487</v>
@@ -26096,94 +26073,94 @@
         <v>438</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>1007</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>1008</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>1009</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="H22" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>1010</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="I22" s="8" t="s">
+      <c r="J22" s="8" t="s">
         <v>1011</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="K22" s="8" t="s">
         <v>1012</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="L22" s="8" t="s">
         <v>1013</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="M22" s="8" t="s">
         <v>1014</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="N22" s="8" t="s">
         <v>1015</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="O22" s="8" t="s">
         <v>1016</v>
       </c>
-      <c r="O22" s="8" t="s">
+      <c r="P22" s="8" t="s">
         <v>1017</v>
       </c>
-      <c r="P22" s="8" t="s">
+      <c r="Q22" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="R22" s="8" t="s">
         <v>1019</v>
       </c>
-      <c r="R22" s="8" t="s">
+      <c r="S22" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="S22" s="8" t="s">
+      <c r="T22" s="8" t="s">
         <v>1021</v>
       </c>
-      <c r="T22" s="8" t="s">
+      <c r="U22" s="8" t="s">
         <v>1022</v>
       </c>
-      <c r="U22" s="8" t="s">
+      <c r="V22" s="8" t="s">
         <v>1023</v>
       </c>
-      <c r="V22" s="8" t="s">
+      <c r="W22" s="8" t="s">
         <v>1024</v>
       </c>
-      <c r="W22" s="8" t="s">
+      <c r="X22" s="8" t="s">
         <v>1025</v>
       </c>
-      <c r="X22" s="8" t="s">
+      <c r="Y22" s="8" t="s">
         <v>1026</v>
       </c>
-      <c r="Y22" s="8" t="s">
+      <c r="Z22" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AA22" s="8" t="s">
         <v>1027</v>
       </c>
-      <c r="Z22" s="8" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AA22" s="8" t="s">
+      <c r="AB22" s="8" t="s">
         <v>1028</v>
       </c>
-      <c r="AB22" s="8" t="s">
+      <c r="AC22" s="8" t="s">
         <v>1029</v>
       </c>
-      <c r="AC22" s="8" t="s">
+      <c r="AD22" s="8" t="s">
         <v>1030</v>
       </c>
-      <c r="AD22" s="8" t="s">
+      <c r="AE22" s="8" t="s">
         <v>1031</v>
       </c>
-      <c r="AE22" s="8" t="s">
+      <c r="AF22" s="8" t="s">
         <v>1032</v>
-      </c>
-      <c r="AF22" s="8" t="s">
-        <v>1033</v>
       </c>
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
@@ -26382,7 +26359,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>271</v>
@@ -26612,16 +26589,16 @@
         <v>105</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>1035</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>1036</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="F24" s="8" t="s">
         <v>1037</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>1038</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>271</v>
@@ -26636,16 +26613,16 @@
         <v>414</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>171</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O24" s="8" t="s">
         <v>147</v>
@@ -26657,28 +26634,28 @@
         <v>606</v>
       </c>
       <c r="R24" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S24" s="8" t="s">
         <v>1039</v>
       </c>
-      <c r="S24" s="8" t="s">
+      <c r="T24" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="T24" s="8" t="s">
+      <c r="U24" s="8" t="s">
         <v>1041</v>
       </c>
-      <c r="U24" s="8" t="s">
+      <c r="V24" s="8" t="s">
         <v>1042</v>
       </c>
-      <c r="V24" s="8" t="s">
+      <c r="W24" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="W24" s="8" t="s">
+      <c r="X24" s="8" t="s">
         <v>1044</v>
       </c>
-      <c r="X24" s="8" t="s">
-        <v>1045</v>
-      </c>
       <c r="Y24" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Z24" s="8" t="s">
         <v>262</v>
@@ -26693,73 +26670,73 @@
         <v>69</v>
       </c>
       <c r="AD24" s="8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AE24" s="8" t="s">
         <v>1046</v>
       </c>
-      <c r="AE24" s="8" t="s">
+      <c r="AF24" s="8" t="s">
         <v>1047</v>
       </c>
-      <c r="AF24" s="8" t="s">
+      <c r="AG24" s="8" t="s">
         <v>1048</v>
       </c>
-      <c r="AG24" s="8" t="s">
+      <c r="AH24" s="8" t="s">
         <v>1049</v>
       </c>
-      <c r="AH24" s="8" t="s">
+      <c r="AI24" s="8" t="s">
         <v>1050</v>
       </c>
-      <c r="AI24" s="8" t="s">
+      <c r="AJ24" s="8" t="s">
         <v>1051</v>
       </c>
-      <c r="AJ24" s="8" t="s">
+      <c r="AK24" s="8" t="s">
         <v>1052</v>
       </c>
-      <c r="AK24" s="8" t="s">
+      <c r="AL24" s="8" t="s">
         <v>1053</v>
       </c>
-      <c r="AL24" s="8" t="s">
+      <c r="AM24" s="8" t="s">
         <v>1054</v>
       </c>
-      <c r="AM24" s="8" t="s">
+      <c r="AN24" s="8" t="s">
         <v>1055</v>
       </c>
-      <c r="AN24" s="8" t="s">
+      <c r="AO24" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="AP24" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="AO24" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="AP24" s="8" t="s">
+      <c r="AQ24" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="AQ24" s="8" t="s">
+      <c r="AR24" s="8" t="s">
         <v>1058</v>
       </c>
-      <c r="AR24" s="8" t="s">
+      <c r="AS24" s="8" t="s">
         <v>1059</v>
       </c>
-      <c r="AS24" s="8" t="s">
+      <c r="AT24" s="8" t="s">
         <v>1060</v>
       </c>
-      <c r="AT24" s="8" t="s">
+      <c r="AU24" s="8" t="s">
         <v>1061</v>
-      </c>
-      <c r="AU24" s="8" t="s">
-        <v>1062</v>
       </c>
       <c r="AV24" s="8" t="s">
         <v>389</v>
       </c>
       <c r="AW24" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AX24" s="8" t="s">
         <v>1063</v>
       </c>
-      <c r="AX24" s="8" t="s">
+      <c r="AY24" s="8" t="s">
         <v>1064</v>
       </c>
-      <c r="AY24" s="8" t="s">
+      <c r="AZ24" s="8" t="s">
         <v>1065</v>
-      </c>
-      <c r="AZ24" s="8" t="s">
-        <v>1066</v>
       </c>
       <c r="BC24" s="14"/>
       <c r="BD24" s="14"/>
@@ -26933,25 +26910,25 @@
         <v>276</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>1067</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>1068</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="F25" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>1069</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="G25" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>1070</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="26">
@@ -26959,10 +26936,10 @@
         <v>278</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>1036</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>1037</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>479</v>
@@ -26977,16 +26954,16 @@
         <v>262</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>389</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
@@ -27449,16 +27426,16 @@
         <v>211</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>289</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -27684,13 +27661,13 @@
         <v>553</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>589</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -27912,61 +27889,61 @@
         <v>314</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>1075</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="D31" s="8" t="s">
         <v>1076</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="E31" s="8" t="s">
         <v>1077</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="F31" s="8" t="s">
         <v>1078</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="G31" s="8" t="s">
         <v>1079</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>1080</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="I31" s="8" t="s">
         <v>1081</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="J31" s="8" t="s">
         <v>1082</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="K31" s="8" t="s">
         <v>1083</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="L31" s="8" t="s">
         <v>1084</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="M31" s="8" t="s">
         <v>1085</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="N31" s="8" t="s">
         <v>1086</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>1087</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>318</v>
       </c>
       <c r="P31" s="8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="Q31" s="8" t="s">
         <v>1088</v>
       </c>
-      <c r="Q31" s="8" t="s">
+      <c r="R31" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="R31" s="8" t="s">
+      <c r="S31" s="8" t="s">
         <v>1090</v>
       </c>
-      <c r="S31" s="8" t="s">
-        <v>1091</v>
-      </c>
       <c r="T31" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
@@ -28174,7 +28151,7 @@
         <v>319</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>262</v>
@@ -28183,55 +28160,55 @@
         <v>507</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>1093</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="G32" s="8" t="s">
         <v>1094</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>1095</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="I32" s="8" t="s">
         <v>1096</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="J32" s="8" t="s">
         <v>1097</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="K32" s="8" t="s">
         <v>1098</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>1099</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>464</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="N32" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="O32" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="O32" s="8" t="s">
+      <c r="P32" s="8" t="s">
         <v>1101</v>
       </c>
-      <c r="P32" s="8" t="s">
+      <c r="Q32" s="8" t="s">
         <v>1102</v>
       </c>
-      <c r="Q32" s="8" t="s">
+      <c r="R32" s="8" t="s">
         <v>1103</v>
       </c>
-      <c r="R32" s="8" t="s">
+      <c r="S32" s="8" t="s">
         <v>1104</v>
       </c>
-      <c r="S32" s="8" t="s">
+      <c r="T32" s="8" t="s">
         <v>1105</v>
       </c>
-      <c r="T32" s="8" t="s">
+      <c r="U32" s="8" t="s">
         <v>1106</v>
-      </c>
-      <c r="U32" s="8" t="s">
-        <v>1107</v>
       </c>
       <c r="V32" s="14"/>
       <c r="W32" s="14"/>
@@ -28438,40 +28415,40 @@
         <v>323</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>1108</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>1109</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>1110</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>1112</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>1113</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="I33" s="8" t="s">
         <v>1114</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="J33" s="8" t="s">
         <v>1115</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="K33" s="8" t="s">
         <v>1116</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="L33" s="8" t="s">
         <v>1117</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="M33" s="8" t="s">
         <v>1118</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>1119</v>
       </c>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
@@ -28701,7 +28678,7 @@
         <v>289</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>105</v>
@@ -28713,10 +28690,10 @@
         <v>479</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
@@ -28940,7 +28917,7 @@
         <v>340</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>271</v>
@@ -28958,7 +28935,7 @@
         <v>624</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
@@ -29181,10 +29158,10 @@
         <v>414</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -29408,67 +29385,67 @@
         <v>363</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>1086</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>1087</v>
-      </c>
       <c r="E38" s="8" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>1122</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="G38" s="8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="L38" s="8" t="s">
         <v>1123</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>1100</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>1102</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>1103</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>1105</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>1124</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>624</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="O38" s="8" t="s">
         <v>521</v>
       </c>
       <c r="P38" s="8" t="s">
+        <v>1125</v>
+      </c>
+      <c r="Q38" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="Q38" s="8" t="s">
+      <c r="R38" s="8" t="s">
         <v>1127</v>
       </c>
-      <c r="R38" s="8" t="s">
+      <c r="S38" s="8" t="s">
         <v>1128</v>
       </c>
-      <c r="S38" s="8" t="s">
+      <c r="T38" s="8" t="s">
         <v>1129</v>
       </c>
-      <c r="T38" s="8" t="s">
+      <c r="U38" s="8" t="s">
         <v>1130</v>
       </c>
-      <c r="U38" s="8" t="s">
+      <c r="V38" s="8" t="s">
         <v>1131</v>
-      </c>
-      <c r="V38" s="8" t="s">
-        <v>1132</v>
       </c>
       <c r="W38" s="14"/>
       <c r="X38" s="14"/>
@@ -29674,7 +29651,7 @@
         <v>366</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>146</v>
@@ -29683,61 +29660,61 @@
         <v>486</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F39" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>1133</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="H39" s="8" t="s">
         <v>1134</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="I39" s="8" t="s">
         <v>1135</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="J39" s="8" t="s">
         <v>1136</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="K39" s="8" t="s">
         <v>1137</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="L39" s="8" t="s">
         <v>1138</v>
       </c>
-      <c r="L39" s="8" t="s">
+      <c r="M39" s="8" t="s">
         <v>1139</v>
       </c>
-      <c r="M39" s="8" t="s">
+      <c r="N39" s="8" t="s">
         <v>1140</v>
       </c>
-      <c r="N39" s="8" t="s">
+      <c r="O39" s="8" t="s">
         <v>1141</v>
       </c>
-      <c r="O39" s="8" t="s">
+      <c r="P39" s="8" t="s">
         <v>1142</v>
       </c>
-      <c r="P39" s="8" t="s">
+      <c r="Q39" s="8" t="s">
         <v>1143</v>
       </c>
-      <c r="Q39" s="8" t="s">
+      <c r="R39" s="8" t="s">
         <v>1144</v>
       </c>
-      <c r="R39" s="8" t="s">
+      <c r="S39" s="8" t="s">
         <v>1145</v>
       </c>
-      <c r="S39" s="8" t="s">
+      <c r="T39" s="8" t="s">
         <v>1146</v>
       </c>
-      <c r="T39" s="8" t="s">
+      <c r="U39" s="8" t="s">
         <v>1147</v>
       </c>
-      <c r="U39" s="8" t="s">
+      <c r="V39" s="8" t="s">
         <v>1148</v>
       </c>
-      <c r="V39" s="8" t="s">
+      <c r="W39" s="8" t="s">
         <v>1149</v>
-      </c>
-      <c r="W39" s="8" t="s">
-        <v>1150</v>
       </c>
       <c r="X39" s="8" t="s">
         <v>463</v>
@@ -29746,19 +29723,19 @@
         <v>243</v>
       </c>
       <c r="Z39" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AA39" s="8" t="s">
         <v>208</v>
       </c>
       <c r="AB39" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AC39" s="8" t="s">
         <v>1151</v>
       </c>
-      <c r="AC39" s="8" t="s">
+      <c r="AD39" s="8" t="s">
         <v>1152</v>
-      </c>
-      <c r="AD39" s="8" t="s">
-        <v>1153</v>
       </c>
       <c r="AE39" s="8" t="s">
         <v>470</v>
@@ -29767,49 +29744,49 @@
         <v>261</v>
       </c>
       <c r="AG39" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AH39" s="8" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AI39" s="8" t="s">
         <v>1154</v>
       </c>
-      <c r="AI39" s="8" t="s">
+      <c r="AJ39" s="8" t="s">
         <v>1155</v>
       </c>
-      <c r="AJ39" s="8" t="s">
+      <c r="AK39" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="AL39" s="8" t="s">
         <v>1156</v>
-      </c>
-      <c r="AK39" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="AL39" s="8" t="s">
-        <v>1157</v>
       </c>
       <c r="AM39" s="8" t="s">
         <v>641</v>
       </c>
       <c r="AN39" s="8" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AO39" s="8" t="s">
         <v>1158</v>
       </c>
-      <c r="AO39" s="8" t="s">
+      <c r="AP39" s="8" t="s">
         <v>1159</v>
       </c>
-      <c r="AP39" s="8" t="s">
+      <c r="AQ39" s="8" t="s">
         <v>1160</v>
       </c>
-      <c r="AQ39" s="8" t="s">
+      <c r="AR39" s="8" t="s">
         <v>1161</v>
       </c>
-      <c r="AR39" s="8" t="s">
+      <c r="AS39" s="8" t="s">
         <v>1162</v>
       </c>
-      <c r="AS39" s="8" t="s">
+      <c r="AT39" s="8" t="s">
         <v>1163</v>
       </c>
-      <c r="AT39" s="8" t="s">
+      <c r="AU39" s="8" t="s">
         <v>1164</v>
-      </c>
-      <c r="AU39" s="8" t="s">
-        <v>1165</v>
       </c>
       <c r="AV39" s="14"/>
       <c r="AW39" s="14"/>
@@ -29990,64 +29967,64 @@
         <v>386</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>1166</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="D40" s="8" t="s">
         <v>1167</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="E40" s="8" t="s">
         <v>1168</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="F40" s="8" t="s">
         <v>1169</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="G40" s="8" t="s">
         <v>1170</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="H40" s="8" t="s">
         <v>1171</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="I40" s="8" t="s">
         <v>1172</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="J40" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="K40" s="8" t="s">
         <v>1173</v>
       </c>
-      <c r="J40" s="8" t="s">
-        <v>941</v>
-      </c>
-      <c r="K40" s="8" t="s">
+      <c r="L40" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="M40" s="8" t="s">
         <v>1175</v>
       </c>
-      <c r="M40" s="8" t="s">
+      <c r="N40" s="8" t="s">
         <v>1176</v>
       </c>
-      <c r="N40" s="8" t="s">
+      <c r="O40" s="8" t="s">
         <v>1177</v>
       </c>
-      <c r="O40" s="8" t="s">
+      <c r="P40" s="8" t="s">
         <v>1178</v>
       </c>
-      <c r="P40" s="8" t="s">
+      <c r="Q40" s="8" t="s">
         <v>1179</v>
       </c>
-      <c r="Q40" s="8" t="s">
+      <c r="R40" s="8" t="s">
         <v>1180</v>
       </c>
-      <c r="R40" s="8" t="s">
+      <c r="S40" s="8" t="s">
         <v>1181</v>
-      </c>
-      <c r="S40" s="8" t="s">
-        <v>1182</v>
       </c>
       <c r="T40" s="8" t="s">
         <v>528</v>
       </c>
       <c r="U40" s="8" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="V40" s="14"/>
       <c r="W40" s="14"/>
@@ -30254,40 +30231,40 @@
         <v>407</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>1184</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>989</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E41" s="8" t="s">
+      <c r="F41" s="8" t="s">
         <v>1185</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="G41" s="8" t="s">
         <v>1186</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="H41" s="8" t="s">
         <v>1187</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>1188</v>
-      </c>
       <c r="I41" s="8" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>332</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>536</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
@@ -30732,10 +30709,10 @@
         <v>427</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>195</v>
@@ -30747,7 +30724,7 @@
         <v>211</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -30968,34 +30945,34 @@
         <v>431</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>1193</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>1194</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="E44" s="8" t="s">
         <v>1195</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="F44" s="8" t="s">
         <v>1196</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="G44" s="8" t="s">
         <v>1197</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="H44" s="8" t="s">
         <v>1198</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="I44" s="8" t="s">
         <v>1199</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>1200</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>286</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="L44" s="8" t="s">
         <v>78</v>
@@ -31007,13 +30984,13 @@
         <v>616</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="P44" s="8" t="s">
         <v>548</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="45">
@@ -31021,247 +30998,247 @@
         <v>444</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>1204</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="D45" s="8" t="s">
         <v>1205</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="8" t="s">
         <v>1206</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="F45" s="8" t="s">
         <v>1207</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="G45" s="8" t="s">
         <v>1208</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="H45" s="8" t="s">
         <v>1209</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="I45" s="8" t="s">
         <v>1210</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="J45" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="K45" s="8" t="s">
         <v>1211</v>
       </c>
-      <c r="J45" s="8" t="s">
-        <v>980</v>
-      </c>
-      <c r="K45" s="8" t="s">
+      <c r="L45" s="8" t="s">
         <v>1212</v>
       </c>
-      <c r="L45" s="8" t="s">
+      <c r="M45" s="8" t="s">
         <v>1213</v>
       </c>
-      <c r="M45" s="8" t="s">
+      <c r="N45" s="8" t="s">
         <v>1214</v>
       </c>
-      <c r="N45" s="8" t="s">
+      <c r="O45" s="8" t="s">
         <v>1215</v>
       </c>
-      <c r="O45" s="8" t="s">
+      <c r="P45" s="8" t="s">
         <v>1216</v>
       </c>
-      <c r="P45" s="8" t="s">
+      <c r="Q45" s="8" t="s">
         <v>1217</v>
       </c>
-      <c r="Q45" s="8" t="s">
+      <c r="R45" s="8" t="s">
         <v>1218</v>
       </c>
-      <c r="R45" s="8" t="s">
+      <c r="S45" s="8" t="s">
         <v>1219</v>
       </c>
-      <c r="S45" s="8" t="s">
+      <c r="T45" s="8" t="s">
         <v>1220</v>
       </c>
-      <c r="T45" s="8" t="s">
+      <c r="U45" s="8" t="s">
+        <v>1128</v>
+      </c>
+      <c r="V45" s="8" t="s">
         <v>1221</v>
       </c>
-      <c r="U45" s="8" t="s">
-        <v>1129</v>
-      </c>
-      <c r="V45" s="8" t="s">
+      <c r="W45" s="8" t="s">
         <v>1222</v>
       </c>
-      <c r="W45" s="8" t="s">
+      <c r="X45" s="8" t="s">
         <v>1223</v>
       </c>
-      <c r="X45" s="8" t="s">
+      <c r="Y45" s="8" t="s">
         <v>1224</v>
       </c>
-      <c r="Y45" s="8" t="s">
+      <c r="Z45" s="8" t="s">
         <v>1225</v>
       </c>
-      <c r="Z45" s="8" t="s">
+      <c r="AA45" s="8" t="s">
         <v>1226</v>
       </c>
-      <c r="AA45" s="8" t="s">
+      <c r="AB45" s="8" t="s">
         <v>1227</v>
       </c>
-      <c r="AB45" s="8" t="s">
+      <c r="AC45" s="8" t="s">
         <v>1228</v>
       </c>
-      <c r="AC45" s="8" t="s">
+      <c r="AD45" s="8" t="s">
         <v>1229</v>
       </c>
-      <c r="AD45" s="8" t="s">
+      <c r="AE45" s="8" t="s">
         <v>1230</v>
       </c>
-      <c r="AE45" s="8" t="s">
+      <c r="AF45" s="8" t="s">
         <v>1231</v>
       </c>
-      <c r="AF45" s="8" t="s">
+      <c r="AG45" s="8" t="s">
         <v>1232</v>
       </c>
-      <c r="AG45" s="8" t="s">
+      <c r="AH45" s="8" t="s">
         <v>1233</v>
       </c>
-      <c r="AH45" s="8" t="s">
+      <c r="AI45" s="8" t="s">
         <v>1234</v>
       </c>
-      <c r="AI45" s="8" t="s">
+      <c r="AJ45" s="8" t="s">
         <v>1235</v>
       </c>
-      <c r="AJ45" s="8" t="s">
+      <c r="AK45" s="8" t="s">
         <v>1236</v>
       </c>
-      <c r="AK45" s="8" t="s">
+      <c r="AL45" s="8" t="s">
         <v>1237</v>
       </c>
-      <c r="AL45" s="8" t="s">
+      <c r="AM45" s="8" t="s">
         <v>1238</v>
       </c>
-      <c r="AM45" s="8" t="s">
+      <c r="AN45" s="8" t="s">
         <v>1239</v>
       </c>
-      <c r="AN45" s="8" t="s">
+      <c r="AO45" s="8" t="s">
         <v>1240</v>
       </c>
-      <c r="AO45" s="8" t="s">
+      <c r="AP45" s="8" t="s">
         <v>1241</v>
       </c>
-      <c r="AP45" s="8" t="s">
+      <c r="AQ45" s="8" t="s">
         <v>1242</v>
       </c>
-      <c r="AQ45" s="8" t="s">
+      <c r="AR45" s="8" t="s">
         <v>1243</v>
       </c>
-      <c r="AR45" s="8" t="s">
+      <c r="AS45" s="8" t="s">
         <v>1244</v>
       </c>
-      <c r="AS45" s="8" t="s">
+      <c r="AT45" s="8" t="s">
         <v>1245</v>
       </c>
-      <c r="AT45" s="8" t="s">
+      <c r="AU45" s="8" t="s">
         <v>1246</v>
       </c>
-      <c r="AU45" s="8" t="s">
+      <c r="AV45" s="8" t="s">
         <v>1247</v>
       </c>
-      <c r="AV45" s="8" t="s">
+      <c r="AW45" s="8" t="s">
         <v>1248</v>
       </c>
-      <c r="AW45" s="8" t="s">
+      <c r="AX45" s="8" t="s">
         <v>1249</v>
       </c>
-      <c r="AX45" s="8" t="s">
+      <c r="AY45" s="8" t="s">
         <v>1250</v>
       </c>
-      <c r="AY45" s="8" t="s">
+      <c r="AZ45" s="8" t="s">
         <v>1251</v>
       </c>
-      <c r="AZ45" s="8" t="s">
+      <c r="BA45" s="8" t="s">
         <v>1252</v>
       </c>
-      <c r="BA45" s="8" t="s">
+      <c r="BB45" s="8" t="s">
         <v>1253</v>
       </c>
-      <c r="BB45" s="8" t="s">
+      <c r="BC45" s="8" t="s">
         <v>1254</v>
       </c>
-      <c r="BC45" s="8" t="s">
+      <c r="BD45" s="8" t="s">
         <v>1255</v>
       </c>
-      <c r="BD45" s="8" t="s">
+      <c r="BE45" s="8" t="s">
         <v>1256</v>
       </c>
-      <c r="BE45" s="8" t="s">
+      <c r="BF45" s="8" t="s">
         <v>1257</v>
       </c>
-      <c r="BF45" s="8" t="s">
+      <c r="BG45" s="8" t="s">
         <v>1258</v>
       </c>
-      <c r="BG45" s="8" t="s">
+      <c r="BH45" s="8" t="s">
         <v>1259</v>
       </c>
-      <c r="BH45" s="8" t="s">
+      <c r="BI45" s="8" t="s">
         <v>1260</v>
       </c>
-      <c r="BI45" s="8" t="s">
+      <c r="BJ45" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="BK45" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="BL45" s="8" t="s">
         <v>1261</v>
       </c>
-      <c r="BJ45" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="BK45" s="8" t="s">
-        <v>738</v>
-      </c>
-      <c r="BL45" s="8" t="s">
+      <c r="BM45" s="8" t="s">
         <v>1262</v>
       </c>
-      <c r="BM45" s="8" t="s">
+      <c r="BN45" s="8" t="s">
         <v>1263</v>
       </c>
-      <c r="BN45" s="8" t="s">
+      <c r="BO45" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="BP45" s="8" t="s">
         <v>1264</v>
       </c>
-      <c r="BO45" s="8" t="s">
+      <c r="BQ45" s="8" t="s">
+        <v>1265</v>
+      </c>
+      <c r="BR45" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="BS45" s="8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="BT45" s="8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="BU45" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="BV45" s="8" t="s">
+        <v>1270</v>
+      </c>
+      <c r="BW45" s="8" t="s">
+        <v>1271</v>
+      </c>
+      <c r="BX45" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="BP45" s="8" t="s">
-        <v>1265</v>
-      </c>
-      <c r="BQ45" s="8" t="s">
-        <v>1266</v>
-      </c>
-      <c r="BR45" s="8" t="s">
-        <v>1267</v>
-      </c>
-      <c r="BS45" s="8" t="s">
-        <v>1268</v>
-      </c>
-      <c r="BT45" s="8" t="s">
-        <v>1269</v>
-      </c>
-      <c r="BU45" s="8" t="s">
-        <v>1270</v>
-      </c>
-      <c r="BV45" s="8" t="s">
-        <v>1271</v>
-      </c>
-      <c r="BW45" s="8" t="s">
-        <v>1272</v>
-      </c>
-      <c r="BX45" s="8" t="s">
-        <v>735</v>
-      </c>
       <c r="BY45" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="BZ45" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="CA45" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="CB45" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="CC45" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="CD45" s="8" t="s">
         <v>726</v>
-      </c>
-      <c r="CC45" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="CD45" s="8" t="s">
-        <v>727</v>
       </c>
       <c r="CE45" s="8" t="s">
         <v>464</v>
@@ -31270,88 +31247,88 @@
         <v>506</v>
       </c>
       <c r="CG45" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="CH45" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="CI45" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="CJ45" s="8" t="s">
         <v>622</v>
       </c>
       <c r="CK45" s="8" t="s">
+        <v>1272</v>
+      </c>
+      <c r="CL45" s="8" t="s">
         <v>1273</v>
       </c>
-      <c r="CL45" s="8" t="s">
+      <c r="CM45" s="8" t="s">
         <v>1274</v>
       </c>
-      <c r="CM45" s="8" t="s">
+      <c r="CN45" s="8" t="s">
         <v>1275</v>
       </c>
-      <c r="CN45" s="8" t="s">
+      <c r="CO45" s="8" t="s">
         <v>1276</v>
       </c>
-      <c r="CO45" s="8" t="s">
+      <c r="CP45" s="8" t="s">
         <v>1277</v>
       </c>
-      <c r="CP45" s="8" t="s">
+      <c r="CQ45" s="8" t="s">
         <v>1278</v>
       </c>
-      <c r="CQ45" s="8" t="s">
+      <c r="CR45" s="8" t="s">
         <v>1279</v>
       </c>
-      <c r="CR45" s="8" t="s">
+      <c r="CS45" s="8" t="s">
         <v>1280</v>
       </c>
-      <c r="CS45" s="8" t="s">
+      <c r="CT45" s="8" t="s">
         <v>1281</v>
       </c>
-      <c r="CT45" s="8" t="s">
+      <c r="CU45" s="8" t="s">
         <v>1282</v>
       </c>
-      <c r="CU45" s="8" t="s">
+      <c r="CV45" s="8" t="s">
         <v>1283</v>
       </c>
-      <c r="CV45" s="8" t="s">
+      <c r="CW45" s="8" t="s">
         <v>1284</v>
       </c>
-      <c r="CW45" s="8" t="s">
+      <c r="CX45" s="8" t="s">
         <v>1285</v>
       </c>
-      <c r="CX45" s="8" t="s">
+      <c r="CY45" s="8" t="s">
         <v>1286</v>
       </c>
-      <c r="CY45" s="8" t="s">
+      <c r="CZ45" s="8" t="s">
         <v>1287</v>
       </c>
-      <c r="CZ45" s="8" t="s">
+      <c r="DA45" s="8" t="s">
         <v>1288</v>
       </c>
-      <c r="DA45" s="8" t="s">
+      <c r="DB45" s="8" t="s">
         <v>1289</v>
       </c>
-      <c r="DB45" s="8" t="s">
+      <c r="DC45" s="8" t="s">
         <v>1290</v>
       </c>
-      <c r="DC45" s="8" t="s">
+      <c r="DD45" s="8" t="s">
         <v>1291</v>
-      </c>
-      <c r="DD45" s="8" t="s">
-        <v>1292</v>
       </c>
       <c r="DE45" s="8" t="s">
         <v>562</v>
       </c>
       <c r="DF45" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="DG45" s="8" t="s">
         <v>1293</v>
       </c>
-      <c r="DG45" s="8" t="s">
+      <c r="DH45" s="8" t="s">
         <v>1294</v>
-      </c>
-      <c r="DH45" s="8" t="s">
-        <v>1295</v>
       </c>
       <c r="DI45" s="14"/>
       <c r="DJ45" s="14"/>
@@ -31467,37 +31444,37 @@
         <v>451</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>1296</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>1297</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>123</v>
       </c>
       <c r="E46" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>1298</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>1299</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>406</v>
       </c>
       <c r="H46" s="8" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I46" s="8" t="s">
         <v>1300</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>1301</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>265</v>
       </c>
       <c r="K46" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="L46" s="8" t="s">
         <v>1302</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>1303</v>
       </c>
       <c r="M46" s="14"/>
       <c r="N46" s="14"/>
@@ -31716,31 +31693,31 @@
         <v>557</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>399</v>
       </c>
       <c r="E47" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>1305</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="G47" s="8" t="s">
         <v>1306</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="H47" s="8" t="s">
         <v>1307</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="I47" s="8" t="s">
         <v>1308</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="J47" s="8" t="s">
         <v>1309</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="K47" s="8" t="s">
         <v>1310</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>1311</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>631</v>
@@ -31959,70 +31936,70 @@
         <v>465</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>1142</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E48" s="8" t="s">
+      <c r="G48" s="8" t="s">
         <v>1313</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="H48" s="8" t="s">
         <v>1143</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="I48" s="8" t="s">
         <v>1314</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="J48" s="8" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>1147</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="M48" s="8" t="s">
         <v>1144</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="N48" s="8" t="s">
         <v>1315</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>1140</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>1148</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>1147</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>1145</v>
-      </c>
-      <c r="N48" s="8" t="s">
+      <c r="O48" s="8" t="s">
         <v>1316</v>
       </c>
-      <c r="O48" s="8" t="s">
+      <c r="P48" s="8" t="s">
         <v>1317</v>
       </c>
-      <c r="P48" s="8" t="s">
+      <c r="Q48" s="8" t="s">
         <v>1318</v>
       </c>
-      <c r="Q48" s="8" t="s">
+      <c r="R48" s="8" t="s">
         <v>1319</v>
       </c>
-      <c r="R48" s="8" t="s">
+      <c r="S48" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="T48" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="U48" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="V48" s="8" t="s">
         <v>1320</v>
       </c>
-      <c r="S48" s="8" t="s">
-        <v>1152</v>
-      </c>
-      <c r="T48" s="8" t="s">
-        <v>1151</v>
-      </c>
-      <c r="U48" s="8" t="s">
-        <v>1153</v>
-      </c>
-      <c r="V48" s="8" t="s">
+      <c r="W48" s="8" t="s">
         <v>1321</v>
-      </c>
-      <c r="W48" s="8" t="s">
-        <v>1322</v>
       </c>
       <c r="X48" s="8" t="s">
         <v>208</v>
@@ -32031,22 +32008,22 @@
         <v>298</v>
       </c>
       <c r="Z48" s="8" t="s">
+        <v>1322</v>
+      </c>
+      <c r="AA48" s="8" t="s">
         <v>1323</v>
       </c>
-      <c r="AA48" s="8" t="s">
+      <c r="AB48" s="8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AC48" s="8" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AD48" s="8" t="s">
         <v>1324</v>
       </c>
-      <c r="AB48" s="8" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AC48" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AD48" s="8" t="s">
+      <c r="AE48" s="8" t="s">
         <v>1325</v>
-      </c>
-      <c r="AE48" s="8" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="49">
@@ -32054,19 +32031,19 @@
         <v>472</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>1327</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" s="8" t="s">
         <v>1328</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>1329</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="F49" s="8" t="s">
         <v>1330</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>1331</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
@@ -32300,7 +32277,7 @@
         <v>627</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>262</v>
@@ -32771,7 +32748,7 @@
         <v>414</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>83</v>
@@ -32786,10 +32763,10 @@
         <v>624</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="N52" s="8" t="s">
         <v>319</v>
@@ -32807,55 +32784,55 @@
         <v>105</v>
       </c>
       <c r="S52" s="8" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="T52" s="8" t="s">
         <v>550</v>
       </c>
       <c r="U52" s="8" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="V52" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="W52" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="X52" s="8" t="s">
         <v>212</v>
       </c>
       <c r="Y52" s="8" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Z52" s="8" t="s">
         <v>632</v>
       </c>
       <c r="AA52" s="8" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AB52" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AC52" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AD52" s="8" t="s">
         <v>163</v>
       </c>
       <c r="AE52" s="8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AF52" s="8" t="s">
         <v>251</v>
       </c>
       <c r="AG52" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AH52" s="8" t="s">
         <v>244</v>
       </c>
       <c r="AI52" s="8" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="AJ52" s="8" t="s">
         <v>465</v>
@@ -32864,28 +32841,28 @@
         <v>487</v>
       </c>
       <c r="AL52" s="8" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AM52" s="8" t="s">
         <v>1338</v>
-      </c>
-      <c r="AM52" s="8" t="s">
-        <v>1339</v>
       </c>
       <c r="AN52" s="8" t="s">
         <v>211</v>
       </c>
       <c r="AO52" s="8" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="AP52" s="8" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AQ52" s="8" t="s">
         <v>525</v>
       </c>
       <c r="AR52" s="8" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="AS52" s="8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AT52" s="8" t="s">
         <v>188</v>
@@ -32897,7 +32874,7 @@
         <v>514</v>
       </c>
       <c r="AW52" s="8" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="AX52" s="8" t="s">
         <v>378</v>
@@ -32906,7 +32883,7 @@
         <v>464</v>
       </c>
       <c r="AZ52" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="BA52" s="14"/>
       <c r="BB52" s="14"/>
@@ -33091,85 +33068,85 @@
         <v>251</v>
       </c>
       <c r="E53" s="8" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>1343</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="G53" s="8" t="s">
         <v>1344</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="H53" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="I53" s="8" t="s">
         <v>1345</v>
       </c>
-      <c r="H53" s="8" t="s">
-        <v>933</v>
-      </c>
-      <c r="I53" s="8" t="s">
+      <c r="J53" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="K53" s="8" t="s">
         <v>1346</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="L53" s="8" t="s">
+        <v>1347</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>1348</v>
+      </c>
+      <c r="N53" s="8" t="s">
         <v>937</v>
       </c>
-      <c r="K53" s="8" t="s">
-        <v>1347</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>1348</v>
-      </c>
-      <c r="M53" s="8" t="s">
+      <c r="O53" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="P53" s="8" t="s">
         <v>1349</v>
       </c>
-      <c r="N53" s="8" t="s">
-        <v>938</v>
-      </c>
-      <c r="O53" s="8" t="s">
-        <v>932</v>
-      </c>
-      <c r="P53" s="8" t="s">
+      <c r="Q53" s="8" t="s">
         <v>1350</v>
       </c>
-      <c r="Q53" s="8" t="s">
+      <c r="R53" s="8" t="s">
         <v>1351</v>
       </c>
-      <c r="R53" s="8" t="s">
+      <c r="S53" s="8" t="s">
         <v>1352</v>
       </c>
-      <c r="S53" s="8" t="s">
+      <c r="T53" s="8" t="s">
         <v>1353</v>
       </c>
-      <c r="T53" s="8" t="s">
+      <c r="U53" s="8" t="s">
         <v>1354</v>
       </c>
-      <c r="U53" s="8" t="s">
+      <c r="V53" s="8" t="s">
         <v>1355</v>
       </c>
-      <c r="V53" s="8" t="s">
+      <c r="W53" s="8" t="s">
         <v>1356</v>
       </c>
-      <c r="W53" s="8" t="s">
+      <c r="X53" s="8" t="s">
         <v>1357</v>
       </c>
-      <c r="X53" s="8" t="s">
+      <c r="Y53" s="8" t="s">
         <v>1358</v>
       </c>
-      <c r="Y53" s="8" t="s">
+      <c r="Z53" s="8" t="s">
         <v>1359</v>
       </c>
-      <c r="Z53" s="8" t="s">
+      <c r="AA53" s="8" t="s">
         <v>1360</v>
       </c>
-      <c r="AA53" s="8" t="s">
+      <c r="AB53" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="AC53" s="8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AD53" s="8" t="s">
         <v>1361</v>
       </c>
-      <c r="AB53" s="8" t="s">
-        <v>876</v>
-      </c>
-      <c r="AC53" s="8" t="s">
-        <v>1108</v>
-      </c>
-      <c r="AD53" s="8" t="s">
+      <c r="AE53" s="8" t="s">
         <v>1362</v>
-      </c>
-      <c r="AE53" s="8" t="s">
-        <v>1363</v>
       </c>
       <c r="AF53" s="14"/>
       <c r="AG53" s="14"/>
@@ -33366,7 +33343,7 @@
         <v>491</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>178</v>
@@ -33387,19 +33364,19 @@
         <v>525</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>414</v>
       </c>
       <c r="K54" s="8" t="s">
+        <v>1364</v>
+      </c>
+      <c r="L54" s="8" t="s">
         <v>1365</v>
       </c>
-      <c r="L54" s="8" t="s">
+      <c r="M54" s="8" t="s">
         <v>1366</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>1367</v>
       </c>
       <c r="N54" s="8" t="s">
         <v>375</v>
@@ -33408,28 +33385,28 @@
         <v>262</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="Q54" s="8" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="R54" s="8" t="s">
         <v>504</v>
       </c>
       <c r="S54" s="8" t="s">
+        <v>1367</v>
+      </c>
+      <c r="T54" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="U54" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="V54" s="8" t="s">
         <v>1368</v>
       </c>
-      <c r="T54" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="U54" s="8" t="s">
-        <v>723</v>
-      </c>
-      <c r="V54" s="8" t="s">
+      <c r="W54" s="8" t="s">
         <v>1369</v>
-      </c>
-      <c r="W54" s="8" t="s">
-        <v>1370</v>
       </c>
       <c r="X54" s="14"/>
       <c r="Y54" s="14"/>
@@ -33634,31 +33611,31 @@
         <v>501</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>1371</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="D55" s="8" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>1372</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E55" s="8" t="s">
+      <c r="F55" s="8" t="s">
         <v>1373</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="G55" s="8" t="s">
         <v>1374</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="H55" s="8" t="s">
         <v>1375</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="I55" s="8" t="s">
         <v>1376</v>
       </c>
-      <c r="I55" s="8" t="s">
+      <c r="J55" s="8" t="s">
         <v>1377</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>1378</v>
       </c>
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
@@ -33876,37 +33853,37 @@
         <v>511</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>1379</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D56" s="8" t="s">
+      <c r="E56" s="8" t="s">
         <v>1380</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="F56" s="8" t="s">
         <v>1381</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="G56" s="8" t="s">
         <v>1382</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="H56" s="8" t="s">
         <v>1383</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="I56" s="8" t="s">
         <v>1384</v>
       </c>
-      <c r="I56" s="8" t="s">
+      <c r="J56" s="8" t="s">
         <v>1385</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="K56" s="8" t="s">
         <v>1386</v>
       </c>
-      <c r="K56" s="8" t="s">
+      <c r="L56" s="8" t="s">
         <v>1387</v>
-      </c>
-      <c r="L56" s="8" t="s">
-        <v>1388</v>
       </c>
       <c r="M56" s="14"/>
       <c r="N56" s="14"/>
@@ -34125,7 +34102,7 @@
         <v>171</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="58">
@@ -34133,10 +34110,10 @@
         <v>515</v>
       </c>
       <c r="B58" s="8" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>1390</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="59">
@@ -34144,43 +34121,43 @@
         <v>518</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>146</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>486</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>243</v>
       </c>
       <c r="H59" s="8" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I59" s="8" t="s">
         <v>1393</v>
       </c>
-      <c r="I59" s="8" t="s">
+      <c r="J59" s="8" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K59" s="8" t="s">
         <v>1394</v>
       </c>
-      <c r="J59" s="8" t="s">
-        <v>1134</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>1395</v>
-      </c>
       <c r="L59" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>261</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>470</v>
@@ -34189,118 +34166,118 @@
         <v>536</v>
       </c>
       <c r="Q59" s="8" t="s">
+        <v>1395</v>
+      </c>
+      <c r="R59" s="8" t="s">
         <v>1396</v>
       </c>
-      <c r="R59" s="8" t="s">
-        <v>1397</v>
-      </c>
       <c r="S59" s="8" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="T59" s="8" t="s">
         <v>14</v>
       </c>
       <c r="U59" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="V59" s="8" t="s">
+        <v>1185</v>
+      </c>
+      <c r="W59" s="8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="X59" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="Y59" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="Z59" s="8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AA59" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="AB59" s="8" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AC59" s="8" t="s">
         <v>1398</v>
       </c>
-      <c r="V59" s="8" t="s">
-        <v>1186</v>
-      </c>
-      <c r="W59" s="8" t="s">
-        <v>1155</v>
-      </c>
-      <c r="X59" s="8" t="s">
+      <c r="AD59" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AE59" s="8" t="s">
+        <v>1399</v>
+      </c>
+      <c r="AF59" s="8" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AG59" s="8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AH59" s="8" t="s">
         <v>1144</v>
       </c>
-      <c r="Y59" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="Z59" s="8" t="s">
-        <v>1034</v>
-      </c>
-      <c r="AA59" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="AB59" s="8" t="s">
-        <v>1165</v>
-      </c>
-      <c r="AC59" s="8" t="s">
-        <v>1399</v>
-      </c>
-      <c r="AD59" s="8" t="s">
-        <v>1139</v>
-      </c>
-      <c r="AE59" s="8" t="s">
-        <v>1400</v>
-      </c>
-      <c r="AF59" s="8" t="s">
-        <v>1141</v>
-      </c>
-      <c r="AG59" s="8" t="s">
-        <v>1137</v>
-      </c>
-      <c r="AH59" s="8" t="s">
-        <v>1145</v>
-      </c>
       <c r="AI59" s="8" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AJ59" s="8" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AK59" s="8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AL59" s="8" t="s">
         <v>1150</v>
-      </c>
-      <c r="AJ59" s="8" t="s">
-        <v>1325</v>
-      </c>
-      <c r="AK59" s="8" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AL59" s="8" t="s">
-        <v>1151</v>
       </c>
       <c r="AM59" s="8" t="s">
         <v>208</v>
       </c>
       <c r="AN59" s="8" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AO59" s="8" t="s">
         <v>463</v>
       </c>
       <c r="AP59" s="8" t="s">
+        <v>1400</v>
+      </c>
+      <c r="AQ59" s="8" t="s">
         <v>1401</v>
       </c>
-      <c r="AQ59" s="8" t="s">
+      <c r="AR59" s="8" t="s">
         <v>1402</v>
       </c>
-      <c r="AR59" s="8" t="s">
+      <c r="AS59" s="8" t="s">
         <v>1403</v>
       </c>
-      <c r="AS59" s="8" t="s">
+      <c r="AT59" s="8" t="s">
         <v>1404</v>
       </c>
-      <c r="AT59" s="8" t="s">
+      <c r="AU59" s="8" t="s">
         <v>1405</v>
       </c>
-      <c r="AU59" s="8" t="s">
+      <c r="AV59" s="8" t="s">
         <v>1406</v>
       </c>
-      <c r="AV59" s="8" t="s">
+      <c r="AW59" s="8" t="s">
         <v>1407</v>
       </c>
-      <c r="AW59" s="8" t="s">
+      <c r="AX59" s="8" t="s">
         <v>1408</v>
       </c>
-      <c r="AX59" s="8" t="s">
+      <c r="AY59" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AZ59" s="8" t="s">
         <v>1409</v>
       </c>
-      <c r="AY59" s="8" t="s">
-        <v>1133</v>
-      </c>
-      <c r="AZ59" s="8" t="s">
+      <c r="BA59" s="8" t="s">
         <v>1410</v>
       </c>
-      <c r="BA59" s="8" t="s">
+      <c r="BB59" s="8" t="s">
         <v>1411</v>
-      </c>
-      <c r="BB59" s="8" t="s">
-        <v>1412</v>
       </c>
       <c r="BC59" s="14"/>
       <c r="BD59" s="14"/>
@@ -34474,46 +34451,46 @@
         <v>531</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H60" s="8" t="s">
         <v>1413</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>1226</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G60" s="8" t="s">
+      <c r="I60" s="8" t="s">
+        <v>1414</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>1417</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>1221</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>1418</v>
+      </c>
+      <c r="O60" s="8" t="s">
         <v>1228</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>1414</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>1415</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>1416</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>1417</v>
-      </c>
-      <c r="L60" s="8" t="s">
-        <v>1418</v>
-      </c>
-      <c r="M60" s="8" t="s">
-        <v>1222</v>
-      </c>
-      <c r="N60" s="8" t="s">
-        <v>1419</v>
-      </c>
-      <c r="O60" s="8" t="s">
-        <v>1229</v>
       </c>
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
@@ -34726,25 +34703,25 @@
         <v>541</v>
       </c>
       <c r="B61" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>1102</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>1103</v>
-      </c>
       <c r="E61" s="8" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>507</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
@@ -34964,10 +34941,10 @@
         <v>556</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="63">
@@ -34975,34 +34952,34 @@
         <v>563</v>
       </c>
       <c r="B63" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>1422</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="D63" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>1423</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F63" s="8" t="s">
+      <c r="G63" s="8" t="s">
         <v>1424</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="H63" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I63" s="8" t="s">
         <v>1425</v>
       </c>
-      <c r="H63" s="8" t="s">
-        <v>1103</v>
-      </c>
-      <c r="I63" s="8" t="s">
+      <c r="J63" s="8" t="s">
         <v>1426</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="K63" s="8" t="s">
         <v>1427</v>
-      </c>
-      <c r="K63" s="8" t="s">
-        <v>1428</v>
       </c>
       <c r="L63" s="14"/>
       <c r="M63" s="14"/>
@@ -35219,13 +35196,13 @@
         <v>565</v>
       </c>
       <c r="B64" s="8" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>1429</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="D64" s="8" t="s">
         <v>1430</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>1431</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
@@ -35467,16 +35444,16 @@
         <v>525</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="L65" s="14"/>
       <c r="M65" s="14"/>
@@ -35693,46 +35670,46 @@
         <v>584</v>
       </c>
       <c r="B66" s="8" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>1432</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="D66" s="8" t="s">
         <v>1433</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="E66" s="8" t="s">
         <v>1434</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="F66" s="8" t="s">
         <v>1435</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="G66" s="8" t="s">
         <v>1436</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="H66" s="8" t="s">
         <v>1437</v>
       </c>
-      <c r="H66" s="8" t="s">
+      <c r="I66" s="8" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J66" s="8" t="s">
         <v>1438</v>
       </c>
-      <c r="I66" s="8" t="s">
-        <v>1283</v>
-      </c>
-      <c r="J66" s="8" t="s">
+      <c r="K66" s="8" t="s">
         <v>1439</v>
       </c>
-      <c r="K66" s="8" t="s">
+      <c r="L66" s="8" t="s">
         <v>1440</v>
       </c>
-      <c r="L66" s="8" t="s">
+      <c r="M66" s="8" t="s">
         <v>1441</v>
       </c>
-      <c r="M66" s="8" t="s">
+      <c r="N66" s="8" t="s">
         <v>1442</v>
       </c>
-      <c r="N66" s="8" t="s">
+      <c r="O66" s="8" t="s">
         <v>1443</v>
-      </c>
-      <c r="O66" s="8" t="s">
-        <v>1444</v>
       </c>
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
@@ -35951,7 +35928,7 @@
         <v>271</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>487</v>
@@ -35967,91 +35944,91 @@
         <v>625</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C68" s="8" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>1445</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>728</v>
-      </c>
-      <c r="E68" s="8" t="s">
+      <c r="F68" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="H68" s="8" t="s">
         <v>1446</v>
       </c>
-      <c r="F68" s="8" t="s">
-        <v>738</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>739</v>
-      </c>
-      <c r="H68" s="8" t="s">
+      <c r="I68" s="8" t="s">
         <v>1447</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>1448</v>
       </c>
       <c r="J68" s="8" t="s">
         <v>627</v>
       </c>
       <c r="K68" s="8" t="s">
+        <v>1448</v>
+      </c>
+      <c r="L68" s="8" t="s">
         <v>1449</v>
       </c>
-      <c r="L68" s="8" t="s">
+      <c r="M68" s="8" t="s">
         <v>1450</v>
-      </c>
-      <c r="M68" s="8" t="s">
-        <v>1451</v>
       </c>
       <c r="N68" s="8" t="s">
         <v>558</v>
       </c>
       <c r="O68" s="8" t="s">
+        <v>1451</v>
+      </c>
+      <c r="P68" s="8" t="s">
         <v>1452</v>
       </c>
-      <c r="P68" s="8" t="s">
+      <c r="Q68" s="8" t="s">
         <v>1453</v>
-      </c>
-      <c r="Q68" s="8" t="s">
-        <v>1454</v>
       </c>
       <c r="R68" s="8" t="s">
         <v>204</v>
       </c>
       <c r="S68" s="8" t="s">
+        <v>1454</v>
+      </c>
+      <c r="T68" s="8" t="s">
         <v>1455</v>
       </c>
-      <c r="T68" s="8" t="s">
+      <c r="U68" s="8" t="s">
         <v>1456</v>
       </c>
-      <c r="U68" s="8" t="s">
+      <c r="V68" s="8" t="s">
         <v>1457</v>
       </c>
-      <c r="V68" s="8" t="s">
+      <c r="W68" s="8" t="s">
         <v>1458</v>
       </c>
-      <c r="W68" s="8" t="s">
+      <c r="X68" s="8" t="s">
         <v>1459</v>
       </c>
-      <c r="X68" s="8" t="s">
+      <c r="Y68" s="8" t="s">
         <v>1460</v>
       </c>
-      <c r="Y68" s="8" t="s">
+      <c r="Z68" s="8" t="s">
         <v>1461</v>
       </c>
-      <c r="Z68" s="8" t="s">
+      <c r="AA68" s="8" t="s">
         <v>1462</v>
       </c>
-      <c r="AA68" s="8" t="s">
+      <c r="AB68" s="8" t="s">
         <v>1463</v>
       </c>
-      <c r="AB68" s="8" t="s">
+      <c r="AC68" s="8" t="s">
         <v>1464</v>
       </c>
-      <c r="AC68" s="8" t="s">
+      <c r="AD68" s="8" t="s">
         <v>1465</v>
-      </c>
-      <c r="AD68" s="8" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="69">
@@ -36059,12 +36036,12 @@
         <v>635</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>33</v>
@@ -36079,31 +36056,31 @@
         <v>605</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G70" s="8" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H70" s="8" t="s">
         <v>1468</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>1469</v>
       </c>
       <c r="I70" s="8" t="s">
         <v>631</v>
       </c>
       <c r="J70" s="8" t="s">
+        <v>1469</v>
+      </c>
+      <c r="K70" s="8" t="s">
         <v>1470</v>
       </c>
-      <c r="K70" s="8" t="s">
+      <c r="L70" s="8" t="s">
         <v>1471</v>
       </c>
-      <c r="L70" s="8" t="s">
+      <c r="M70" s="8" t="s">
         <v>1472</v>
       </c>
-      <c r="M70" s="8" t="s">
+      <c r="N70" s="8" t="s">
         <v>1473</v>
-      </c>
-      <c r="N70" s="8" t="s">
-        <v>1474</v>
       </c>
       <c r="O70" s="14"/>
       <c r="P70" s="14"/>
@@ -36314,16 +36291,16 @@
     </row>
     <row r="71">
       <c r="A71" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B71" s="8" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>1475</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="D71" s="8" t="s">
         <v>1476</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>1477</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>243</v>
@@ -36332,12 +36309,12 @@
         <v>641</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>442</v>
@@ -36346,13 +36323,13 @@
         <v>439</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>288</v>
@@ -36575,13 +36552,13 @@
     </row>
     <row r="73">
       <c r="A73" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>627</v>

--- a/meta/paper1/Foundation Model Leaderboards.xlsx
+++ b/meta/paper1/Foundation Model Leaderboards.xlsx
@@ -1137,8 +1137,8 @@
       <text>
         <t xml:space="preserve">GitHub: gh
 HuggingFace: hf
-independent platform: iw
 PapersWithCode: pwc
+independent platform: ip
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -1796,7 +1796,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3778" uniqueCount="1470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3781" uniqueCount="1471">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -1804,7 +1804,7 @@
     <t>#Empty leaderboards (non-pwc)</t>
   </si>
   <si>
-    <t>Feedback venues (hf+iw)</t>
+    <t>Feedback venues (hf+ip)</t>
   </si>
   <si>
     <t>Organization strategies (non-pwc)</t>
@@ -1846,13 +1846,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>iw</t>
+    <t>ip</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>iw:Sortable Table+Scatter Plot</t>
+    <t>ip:Sortable Table+Scatter Plot</t>
   </si>
   <si>
     <t>ECCV</t>
@@ -1909,10 +1909,10 @@
     <t>AgentBench</t>
   </si>
   <si>
-    <t>gh,iw</t>
-  </si>
-  <si>
-    <t>gh:Bar Chart+Table Screenshot,iw:Regular Table</t>
+    <t>gh,ip</t>
+  </si>
+  <si>
+    <t>gh:Bar Chart+Table Screenshot,ip:Regular Table</t>
   </si>
   <si>
     <t>Preprint</t>
@@ -1942,7 +1942,7 @@
     <t>Evaluator</t>
   </si>
   <si>
-    <t>gh:Regular Table,iw:Regular Table</t>
+    <t>gh:Regular Table,ip:Regular Table</t>
   </si>
   <si>
     <t>Tsinghua University,Zhipu AI,Renmin University of China,Sichuan University,Lehigh University</t>
@@ -2116,7 +2116,7 @@
     <t>#Prompt Example,Model Accessibility,Dataset Slice</t>
   </si>
   <si>
-    <t>gh:Regular Table,iw:Sortable Table</t>
+    <t>gh:Regular Table,ip:Sortable Table</t>
   </si>
   <si>
     <t>Shanghai Jiao Tong University,Tsinghua University,University of Edinburgh,Hong Kong University of Science and Technology</t>
@@ -2158,10 +2158,10 @@
     <t>Model Accessibility</t>
   </si>
   <si>
-    <t>hf,iw</t>
-  </si>
-  <si>
-    <t>hf:Sortable Table,iw:Sortable Table</t>
+    <t>hf,ip</t>
+  </si>
+  <si>
+    <t>hf:Sortable Table,ip:Sortable Table</t>
   </si>
   <si>
     <t>Shanghai AI Laboratory,Nanyang Technological University,Chinese University of Hong Kong,National University of Singapore,Zhejiang University</t>
@@ -2182,7 +2182,7 @@
     <t>CG-Eval</t>
   </si>
   <si>
-    <t>iw:Regular Table</t>
+    <t>ip:Regular Table</t>
   </si>
   <si>
     <t>Besteasy,LanguageX AI Lab</t>
@@ -2233,7 +2233,7 @@
     <t>Aggregated Result,Task</t>
   </si>
   <si>
-    <t>iw:Sortable Table+Bar Chart</t>
+    <t>ip:Sortable Table+Bar Chart</t>
   </si>
   <si>
     <t>Chinese University of Hong Kong,Shanghai AI Laboratory</t>
@@ -2305,7 +2305,7 @@
     <t>Coding LLMs Leaderboard</t>
   </si>
   <si>
-    <t>iw:Bar Chart</t>
+    <t>ip:Bar Chart</t>
   </si>
   <si>
     <t>TabbyML</t>
@@ -2491,7 +2491,7 @@
     <t>Supported Functionality,Supported Modality,Model Size,Model Type</t>
   </si>
   <si>
-    <t>iw:Sortable Table</t>
+    <t>ip:Sortable Table</t>
   </si>
   <si>
     <t>Peking University,Nankai University,Beijing Normal University,Chinese Academy of Sciences,Beijing University of Posts and Telecommunications,Beihang University,China Electronics Standardization Institute,Minjiang University</t>
@@ -2761,7 +2761,7 @@
     <t>LawBench</t>
   </si>
   <si>
-    <t>iw:Sortable Table+Bar Chart,gh:Regular Table</t>
+    <t>ip:Sortable Table+Bar Chart,gh:Regular Table</t>
   </si>
   <si>
     <t>Nanjing University,Amazon Alexa AI Lab,Saarland University,Shanghai AI Laboratory</t>
@@ -2797,10 +2797,10 @@
     <t>LLM-Leaderboard</t>
   </si>
   <si>
-    <t>gh,hf,iw</t>
-  </si>
-  <si>
-    <t>gh:Regular Table,iw:Sortable Table,hf:Sortable Table</t>
+    <t>gh,hf,ip</t>
+  </si>
+  <si>
+    <t>gh:Regular Table,ip:Sortable Table,hf:Sortable Table</t>
   </si>
   <si>
     <t>LLM-Perf Leaderboard</t>
@@ -2815,7 +2815,7 @@
     <t>Aggregated Result,Leaderboard Version</t>
   </si>
   <si>
-    <t>iw:Regular Table,gh:Regular Table+Bar Chart</t>
+    <t>ip:Regular Table,gh:Regular Table+Bar Chart</t>
   </si>
   <si>
     <t>Fudan University,Shanghai Jiaotong University</t>
@@ -2848,7 +2848,7 @@
     <t>LMSYS Chatbot Arena Leaderboard</t>
   </si>
   <si>
-    <t>hf:Sortable Table+Scatter Plot+Bar Chart,iw:Sortable Table</t>
+    <t>hf:Sortable Table+Scatter Plot+Bar Chart,ip:Sortable Table</t>
   </si>
   <si>
     <t>University of California Berkeley,University of California San Diego,Carnegie Mellon University,Stanford University,Mohamed bin Zayed University of AI</t>
@@ -2875,7 +2875,7 @@
     <t>Aggregated Result,Supported Functionality,Evaluator</t>
   </si>
   <si>
-    <t>iw:Sortable Table+Regular Table</t>
+    <t>ip:Sortable Table+Regular Table</t>
   </si>
   <si>
     <t>Shanghai AI Laboratory,University of Hong Kong,Peking University</t>
@@ -2962,7 +2962,7 @@
     <t>MINT-Bench</t>
   </si>
   <si>
-    <t>iw:Sortable Bar Chart+Line Chart+Sortable Table</t>
+    <t>ip:Sortable Bar Chart+Line Chart+Sortable Table</t>
   </si>
   <si>
     <t>University of Illinois Urbana Champaign,Renmin University of China</t>
@@ -3061,7 +3061,7 @@
     <t>Service Load,Prompt Length,Benchmark Dataset,Metric</t>
   </si>
   <si>
-    <t>iw:Sortable Table+Scatter Plot+Box Plot+Bar Chart+Line Chart</t>
+    <t>ip:Sortable Table+Scatter Plot+Box Plot+Bar Chart+Line Chart</t>
   </si>
   <si>
     <t>MoleculeNet</t>
@@ -3106,10 +3106,10 @@
     <t>MTEB</t>
   </si>
   <si>
-    <t>gh,hf,iw,pwc</t>
-  </si>
-  <si>
-    <t>hf:Sortable Table,gh:Regular Table,iw:Sortable Table</t>
+    <t>gh,hf,ip,pwc</t>
+  </si>
+  <si>
+    <t>hf:Sortable Table,gh:Regular Table,ip:Sortable Table</t>
   </si>
   <si>
     <t>EACL</t>
@@ -3127,7 +3127,7 @@
     <t>OpenVLM Leaderboard</t>
   </si>
   <si>
-    <t>iw:Sortable Table,hf:Sortable Table</t>
+    <t>ip:Sortable Table,hf:Sortable Table</t>
   </si>
   <si>
     <t>Aliyun,East Money,Duxiaoman,Fudan University,Nanjing University,Nanyang Technological University,OPPO,Shanghai AI Laboratory,Tencent,TigerResearch,Chinese University of Hong Kong,Zhejiang University,Zhipu AI</t>
@@ -3361,7 +3361,7 @@
     <t>SafetyBench</t>
   </si>
   <si>
-    <t>iw:Regular Table,gh:Bar Chart</t>
+    <t>ip:Regular Table,gh:Bar Chart</t>
   </si>
   <si>
     <t>Tsinghua University,Northwest Minzu University,Peking University,China Mobile</t>
@@ -3478,7 +3478,7 @@
     <t>Task,Aggregated Result,Supported Functionality,Model Accessibility,Leaderboard Launch Date</t>
   </si>
   <si>
-    <t>iw:Sortable Table,gh:Regular Table</t>
+    <t>ip:Sortable Table,gh:Regular Table</t>
   </si>
   <si>
     <t>CLUE,Westlake University</t>
@@ -3493,7 +3493,7 @@
     <t>Task,Aggregated Result,Supported Functionality</t>
   </si>
   <si>
-    <t>iw:Sortable Table+Table Screenshot,gh:Regular Table</t>
+    <t>ip:Sortable Table+Table Screenshot,gh:Regular Table</t>
   </si>
   <si>
     <t>SuperCLUE-Auto</t>
@@ -3514,7 +3514,7 @@
     <t>SuperCLUE-Safety</t>
   </si>
   <si>
-    <t>iw:Sortable Table+Regular Table,gh:Regular Table</t>
+    <t>ip:Sortable Table+Regular Table,gh:Regular Table</t>
   </si>
   <si>
     <t>SuperCLUEgkzw</t>
@@ -3852,6 +3852,9 @@
   </si>
   <si>
     <t>αNLI</t>
+  </si>
+  <si>
+    <t>UGI Leaderboard</t>
   </si>
   <si>
     <t>Supported benchmarks</t>
@@ -16409,8 +16412,16 @@
       </c>
     </row>
     <row r="357">
-      <c r="C357" s="2"/>
+      <c r="A357" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D357" s="2"/>
+      <c r="E357" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F357" s="2"/>
       <c r="H357" s="2"/>
       <c r="I357" s="2"/>
@@ -21847,9 +21858,10 @@
     <hyperlink r:id="rId365" ref="A354"/>
     <hyperlink r:id="rId366" ref="A355"/>
     <hyperlink r:id="rId367" ref="A356"/>
+    <hyperlink r:id="rId368" ref="A357"/>
   </hyperlinks>
-  <drawing r:id="rId368"/>
-  <legacyDrawing r:id="rId369"/>
+  <drawing r:id="rId369"/>
+  <legacyDrawing r:id="rId370"/>
 </worksheet>
 </file>
 
@@ -21879,7 +21891,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="2">
@@ -21887,13 +21899,13 @@
         <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -22117,19 +22129,19 @@
         <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -22351,73 +22363,73 @@
         <v>80</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
@@ -22621,13 +22633,13 @@
         <v>83</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>615</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>95</v>
@@ -22636,46 +22648,46 @@
         <v>455</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>497</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
@@ -22883,7 +22895,7 @@
         <v>88</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>282</v>
@@ -23111,91 +23123,91 @@
         <v>92</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>140</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AE7" s="4" t="s">
         <v>455</v>
@@ -23207,552 +23219,552 @@
         <v>183</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AK7" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AQ7" s="4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AR7" s="4" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AS7" s="4" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AU7" s="4" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AV7" s="4" t="s">
         <v>370</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AZ7" s="4" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="BA7" s="4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="BC7" s="4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="BD7" s="4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="BE7" s="4" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="BF7" s="4" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="BG7" s="4" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="BH7" s="4" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="BI7" s="4" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="BK7" s="4" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="BL7" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BM7" s="4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="BN7" s="4" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="BO7" s="4" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="BP7" s="4" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="BQ7" s="4" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="BR7" s="4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BS7" s="4" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="BT7" s="4" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="BU7" s="14"/>
       <c r="BV7" s="4" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="BW7" s="4" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="BX7" s="4" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="BY7" s="4" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="BZ7" s="4" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CA7" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CB7" s="4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="CC7" s="4" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CD7" s="4" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CE7" s="4" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CF7" s="4" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CG7" s="4" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CH7" s="4" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CI7" s="4" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CJ7" s="4" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CK7" s="4" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CL7" s="4" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="CM7" s="4" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="CN7" s="4" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="CO7" s="4" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="CP7" s="4" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="CQ7" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="CR7" s="4" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="CS7" s="4" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="CT7" s="4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="CU7" s="4" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="CV7" s="4" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="CW7" s="4" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="CX7" s="4" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="CY7" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="CZ7" s="4" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DA7" s="4" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DB7" s="4" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DC7" s="4" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DD7" s="4" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DE7" s="14"/>
       <c r="DF7" s="4" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DG7" s="4" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DH7" s="4" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DI7" s="4" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DJ7" s="4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DK7" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DL7" s="4" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DM7" s="4" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DN7" s="4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DO7" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="DP7" s="4" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DQ7" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DR7" s="4" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="DS7" s="4" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DT7" s="4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DU7" s="4" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="DV7" s="4" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DW7" s="4" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DX7" s="4" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="DY7" s="4" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DZ7" s="4" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="EA7" s="4" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="EB7" s="4" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="EC7" s="4" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="ED7" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="EE7" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="EF7" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="EG7" s="4" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="EH7" s="4" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="EI7" s="4" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="EJ7" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="EK7" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="EL7" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="EM7" s="4" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="EN7" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="EO7" s="4" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="EP7" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="EQ7" s="4" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="ER7" s="4" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="ES7" s="4" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="ET7" s="4" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="EU7" s="4" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="EV7" s="4" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="EW7" s="4" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="EX7" s="4" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="EY7" s="4" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="EZ7" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="FA7" s="4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="FB7" s="4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="FC7" s="4" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="FD7" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="FE7" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="FF7" s="4" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="FG7" s="4" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="FH7" s="4" t="s">
         <v>546</v>
       </c>
       <c r="FI7" s="4" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="FJ7" s="4" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="FK7" s="4" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="FL7" s="4" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="FM7" s="4" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="FN7" s="4" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="FO7" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="FP7" s="4" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="FQ7" s="4" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="FR7" s="4" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="FS7" s="4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="FT7" s="4" t="s">
         <v>543</v>
       </c>
       <c r="FU7" s="4" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="FV7" s="4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="FW7" s="4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="FX7" s="4" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="FY7" s="4" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="FZ7" s="4" t="s">
         <v>554</v>
       </c>
       <c r="GA7" s="4" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="GB7" s="4" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="GC7" s="4" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="GD7" s="4" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="GE7" s="4" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="GF7" s="4" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="GG7" s="4" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="GH7" s="4" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="GI7" s="4" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="GJ7" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="GK7" s="4" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="GL7" s="4" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="GM7" s="4" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="GN7" s="4" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="GO7" s="4" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="GP7" s="4" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="GQ7" s="4" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="GR7" s="4" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="GS7" s="4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="GT7" s="4" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="GU7" s="4" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="GV7" s="4" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="GW7" s="4" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="GX7" s="4" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="GY7" s="4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="GZ7" s="4" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="HA7" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="HB7" s="4" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="HC7" s="4" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="HD7" s="4" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="HE7" s="4" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="HF7" s="4" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="HG7" s="4" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="HH7" s="4" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="HI7" s="4" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="HJ7" s="14"/>
       <c r="HK7" s="14"/>
@@ -23769,13 +23781,13 @@
         <v>237</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>528</v>
@@ -24007,40 +24019,40 @@
         <v>152</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
@@ -24255,10 +24267,10 @@
         <v>154</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -24480,97 +24492,97 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="N11" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="AB11" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="O11" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>946</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>948</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>950</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>918</v>
-      </c>
       <c r="AC11" s="4" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="AF11" s="14"/>
       <c r="AG11" s="14"/>
@@ -24772,7 +24784,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>405</v>
@@ -24781,7 +24793,7 @@
         <v>156</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>245</v>
@@ -25009,10 +25021,10 @@
         <v>183</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>501</v>
@@ -25021,10 +25033,10 @@
         <v>163</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>532</v>
@@ -25035,13 +25047,13 @@
         <v>211</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>405</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="16">
@@ -25277,19 +25289,19 @@
         <v>219</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>282</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>256</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -25511,31 +25523,31 @@
         <v>223</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H18" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>921</v>
-      </c>
       <c r="J18" s="4" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -25762,7 +25774,7 @@
         <v>620</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>502</v>
@@ -25771,31 +25783,31 @@
         <v>156</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>921</v>
-      </c>
       <c r="L19" s="4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="Q19" s="4" t="s">
         <v>237</v>
@@ -25804,22 +25816,22 @@
         <v>657</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="U19" s="4" t="s">
         <v>429</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="Y19" s="4" t="s">
         <v>430</v>
@@ -25828,46 +25840,46 @@
         <v>627</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="AC19" s="4" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="AD19" s="4" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AE19" s="4" t="s">
         <v>239</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AG19" s="4" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AH19" s="4" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="AI19" s="4" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AJ19" s="4" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="AK19" s="4" t="s">
         <v>34</v>
       </c>
       <c r="AL19" s="4" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="AM19" s="4" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AN19" s="4" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="AO19" s="4" t="s">
         <v>282</v>
@@ -25876,13 +25888,13 @@
         <v>42</v>
       </c>
       <c r="AQ19" s="4" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AR19" s="4" t="s">
         <v>323</v>
       </c>
       <c r="AS19" s="4" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="AT19" s="14"/>
       <c r="AU19" s="14"/>
@@ -26065,19 +26077,19 @@
         <v>250</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>677</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
@@ -26296,7 +26308,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>265</v>
@@ -26325,94 +26337,94 @@
         <v>429</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>668</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="W22" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="Z22" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="X22" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="Y22" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>1012</v>
-      </c>
       <c r="AA22" s="4" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="AD22" s="4" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="AF22" s="4" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
@@ -26611,7 +26623,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>265</v>
@@ -26841,16 +26853,16 @@
         <v>100</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>265</v>
@@ -26865,7 +26877,7 @@
         <v>405</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>163</v>
@@ -26874,7 +26886,7 @@
         <v>677</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>141</v>
@@ -26886,28 +26898,28 @@
         <v>599</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="W24" s="4" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="Z24" s="4" t="s">
         <v>256</v>
@@ -26922,73 +26934,73 @@
         <v>66</v>
       </c>
       <c r="AD24" s="4" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="AG24" s="4" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AH24" s="4" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AI24" s="4" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="AJ24" s="4" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AK24" s="4" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="AL24" s="4" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="AM24" s="4" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AN24" s="4" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AO24" s="4" t="s">
         <v>669</v>
       </c>
       <c r="AP24" s="4" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AQ24" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="AR24" s="4" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="AS24" s="4" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="AT24" s="4" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="AU24" s="4" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="AV24" s="4" t="s">
         <v>380</v>
       </c>
       <c r="AW24" s="4" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="AX24" s="4" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="AY24" s="4" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="AZ24" s="4" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="BC24" s="14"/>
       <c r="BD24" s="14"/>
@@ -27162,25 +27174,25 @@
         <v>270</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="26">
@@ -27188,10 +27200,10 @@
         <v>272</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>470</v>
@@ -27206,7 +27218,7 @@
         <v>256</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>669</v>
@@ -27215,7 +27227,7 @@
         <v>380</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
@@ -27678,16 +27690,16 @@
         <v>204</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>282</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -27913,13 +27925,13 @@
         <v>546</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>582</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -28141,61 +28153,61 @@
         <v>307</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O31" s="4" t="s">
         <v>310</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
@@ -28403,7 +28415,7 @@
         <v>311</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>256</v>
@@ -28412,55 +28424,55 @@
         <v>498</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>455</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="V32" s="14"/>
       <c r="W32" s="14"/>
@@ -28667,40 +28679,40 @@
         <v>315</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
@@ -28930,7 +28942,7 @@
         <v>282</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>100</v>
@@ -28942,7 +28954,7 @@
         <v>470</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>667</v>
@@ -29169,7 +29181,7 @@
         <v>332</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>265</v>
@@ -29410,10 +29422,10 @@
         <v>405</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>1109</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>1108</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -29637,67 +29649,67 @@
         <v>354</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>617</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>513</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="W38" s="14"/>
       <c r="X38" s="14"/>
@@ -29903,7 +29915,7 @@
         <v>357</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>140</v>
@@ -29912,61 +29924,61 @@
         <v>477</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="X39" s="4" t="s">
         <v>454</v>
@@ -29981,13 +29993,13 @@
         <v>201</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="AE39" s="4" t="s">
         <v>461</v>
@@ -29999,46 +30011,46 @@
         <v>645</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="AK39" s="4" t="s">
         <v>650</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="AM39" s="4" t="s">
         <v>635</v>
       </c>
       <c r="AN39" s="4" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="AO39" s="4" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="AP39" s="4" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="AQ39" s="4" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="AR39" s="4" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="AS39" s="4" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="AT39" s="4" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="AU39" s="4" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="AV39" s="14"/>
       <c r="AW39" s="14"/>
@@ -30219,64 +30231,64 @@
         <v>377</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="T40" s="4" t="s">
         <v>520</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="V40" s="14"/>
       <c r="W40" s="14"/>
@@ -30483,28 +30495,28 @@
         <v>398</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>324</v>
@@ -30516,7 +30528,7 @@
         <v>528</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
@@ -30961,10 +30973,10 @@
         <v>418</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>188</v>
@@ -30976,7 +30988,7 @@
         <v>204</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -31197,34 +31209,34 @@
         <v>422</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>279</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>75</v>
@@ -31236,13 +31248,13 @@
         <v>609</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>541</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="45">
@@ -31250,247 +31262,247 @@
         <v>435</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="S45" s="4" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="V45" s="4" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="W45" s="4" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="X45" s="4" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="Y45" s="4" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="Z45" s="4" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="AB45" s="4" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="AC45" s="4" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="AD45" s="4" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="AE45" s="4" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="AF45" s="4" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="AG45" s="4" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="AH45" s="4" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="AI45" s="4" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="AJ45" s="4" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="AK45" s="4" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="AL45" s="4" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="AM45" s="4" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="AN45" s="4" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="AO45" s="4" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="AP45" s="4" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="AQ45" s="4" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="AR45" s="4" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="AS45" s="4" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="AT45" s="4" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="AU45" s="4" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="AV45" s="4" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="AW45" s="4" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="AX45" s="4" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="AY45" s="4" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="AZ45" s="4" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="BA45" s="4" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="BB45" s="4" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="BC45" s="4" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="BD45" s="4" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="BE45" s="4" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="BF45" s="4" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="BG45" s="4" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="BH45" s="4" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="BI45" s="4" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="BJ45" s="4" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BK45" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="BL45" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="BM45" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="BN45" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="BO45" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="BP45" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="BQ45" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="BR45" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="BS45" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="BT45" s="4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="BU45" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="BV45" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="BW45" s="4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="BX45" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="BY45" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="BL45" s="4" t="s">
-        <v>1249</v>
-      </c>
-      <c r="BM45" s="4" t="s">
-        <v>1250</v>
-      </c>
-      <c r="BN45" s="4" t="s">
-        <v>1251</v>
-      </c>
-      <c r="BO45" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="BP45" s="4" t="s">
-        <v>1252</v>
-      </c>
-      <c r="BQ45" s="4" t="s">
-        <v>1253</v>
-      </c>
-      <c r="BR45" s="4" t="s">
-        <v>1254</v>
-      </c>
-      <c r="BS45" s="4" t="s">
-        <v>1255</v>
-      </c>
-      <c r="BT45" s="4" t="s">
-        <v>1256</v>
-      </c>
-      <c r="BU45" s="4" t="s">
-        <v>1257</v>
-      </c>
-      <c r="BV45" s="4" t="s">
-        <v>1258</v>
-      </c>
-      <c r="BW45" s="4" t="s">
-        <v>1259</v>
-      </c>
-      <c r="BX45" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="BY45" s="4" t="s">
-        <v>725</v>
-      </c>
       <c r="BZ45" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="CA45" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="CA45" s="4" t="s">
+      <c r="CB45" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="CC45" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="CD45" s="4" t="s">
         <v>716</v>
-      </c>
-      <c r="CB45" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="CC45" s="4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="CD45" s="4" t="s">
-        <v>715</v>
       </c>
       <c r="CE45" s="4" t="s">
         <v>455</v>
@@ -31499,88 +31511,88 @@
         <v>497</v>
       </c>
       <c r="CG45" s="4" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="CH45" s="4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="CI45" s="4" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="CJ45" s="4" t="s">
         <v>615</v>
       </c>
       <c r="CK45" s="4" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="CL45" s="4" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="CM45" s="4" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="CN45" s="4" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="CO45" s="4" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="CP45" s="4" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="CQ45" s="4" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="CR45" s="4" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="CS45" s="4" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="CT45" s="4" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="CU45" s="4" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="CV45" s="4" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="CW45" s="4" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="CX45" s="4" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="CY45" s="4" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="CZ45" s="4" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="DA45" s="4" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="DB45" s="4" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="DC45" s="4" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="DD45" s="4" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="DE45" s="4" t="s">
         <v>555</v>
       </c>
       <c r="DF45" s="4" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="DG45" s="4" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="DH45" s="4" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="DI45" s="14"/>
       <c r="DJ45" s="14"/>
@@ -31693,52 +31705,52 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>397</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>259</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="N46" s="4" t="s">
         <v>165</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="Q46" s="4" t="s">
         <v>131</v>
@@ -31961,31 +31973,31 @@
         <v>550</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>390</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>624</v>
@@ -32204,70 +32216,70 @@
         <v>456</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="K48" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="L48" s="4" t="s">
         <v>1136</v>
       </c>
-      <c r="L48" s="4" t="s">
-        <v>1135</v>
-      </c>
       <c r="M48" s="4" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="S48" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="T48" s="4" t="s">
         <v>1140</v>
       </c>
-      <c r="T48" s="4" t="s">
-        <v>1139</v>
-      </c>
       <c r="U48" s="4" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="V48" s="4" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="W48" s="4" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="X48" s="4" t="s">
         <v>201</v>
@@ -32276,22 +32288,22 @@
         <v>291</v>
       </c>
       <c r="Z48" s="4" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="AA48" s="4" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="AB48" s="4" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="AC48" s="4" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="AD48" s="4" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="AE48" s="4" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="49">
@@ -32299,19 +32311,19 @@
         <v>463</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
@@ -33016,7 +33028,7 @@
         <v>405</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>80</v>
@@ -33031,10 +33043,10 @@
         <v>617</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>311</v>
@@ -33052,31 +33064,31 @@
         <v>100</v>
       </c>
       <c r="S52" s="4" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="T52" s="4" t="s">
         <v>543</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="V52" s="4" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="W52" s="4" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="X52" s="4" t="s">
         <v>205</v>
       </c>
       <c r="Y52" s="4" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="Z52" s="4" t="s">
         <v>625</v>
       </c>
       <c r="AA52" s="4" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="AB52" s="4" t="s">
         <v>677</v>
@@ -33088,19 +33100,19 @@
         <v>156</v>
       </c>
       <c r="AE52" s="4" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AF52" s="4" t="s">
         <v>245</v>
       </c>
       <c r="AG52" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AH52" s="4" t="s">
         <v>238</v>
       </c>
       <c r="AI52" s="4" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="AJ52" s="4" t="s">
         <v>456</v>
@@ -33109,28 +33121,28 @@
         <v>478</v>
       </c>
       <c r="AL52" s="4" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="AM52" s="4" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="AN52" s="4" t="s">
         <v>204</v>
       </c>
       <c r="AO52" s="4" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="AP52" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AQ52" s="4" t="s">
         <v>517</v>
       </c>
       <c r="AR52" s="4" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="AS52" s="4" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="AT52" s="4" t="s">
         <v>181</v>
@@ -33142,7 +33154,7 @@
         <v>506</v>
       </c>
       <c r="AW52" s="4" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="AX52" s="4" t="s">
         <v>369</v>
@@ -33336,85 +33348,85 @@
         <v>245</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="H53" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="O53" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>1335</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>1336</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>1337</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>1338</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>926</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>920</v>
-      </c>
       <c r="P53" s="4" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="T53" s="4" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="U53" s="4" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="V53" s="4" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="W53" s="4" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="X53" s="4" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="Y53" s="4" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="Z53" s="4" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="AA53" s="4" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="AB53" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AC53" s="4" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AD53" s="4" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="AE53" s="4" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="AF53" s="14"/>
       <c r="AG53" s="14"/>
@@ -33611,7 +33623,7 @@
         <v>482</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>171</v>
@@ -33638,13 +33650,13 @@
         <v>405</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="N54" s="4" t="s">
         <v>366</v>
@@ -33653,28 +33665,28 @@
         <v>256</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="R54" s="4" t="s">
         <v>495</v>
       </c>
       <c r="S54" s="4" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="T54" s="4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="V54" s="4" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="W54" s="4" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="X54" s="14"/>
       <c r="Y54" s="14"/>
@@ -33879,31 +33891,31 @@
         <v>492</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
@@ -34121,37 +34133,37 @@
         <v>502</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="M56" s="14"/>
       <c r="N56" s="14"/>
@@ -34370,7 +34382,7 @@
         <v>163</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="58">
@@ -34378,10 +34390,10 @@
         <v>507</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="59">
@@ -34389,34 +34401,34 @@
         <v>510</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>477</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>237</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>657</v>
@@ -34434,118 +34446,118 @@
         <v>528</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="S59" s="4" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="T59" s="4" t="s">
         <v>14</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="V59" s="4" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="W59" s="4" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="X59" s="4" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="Y59" s="4" t="s">
         <v>645</v>
       </c>
       <c r="Z59" s="4" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="AA59" s="4" t="s">
         <v>668</v>
       </c>
       <c r="AB59" s="4" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="AC59" s="4" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="AD59" s="4" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="AE59" s="4" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="AF59" s="4" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="AG59" s="4" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="AH59" s="4" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="AI59" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AJ59" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AK59" s="4" t="s">
         <v>1138</v>
       </c>
-      <c r="AJ59" s="4" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AK59" s="4" t="s">
-        <v>1137</v>
-      </c>
       <c r="AL59" s="4" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="AM59" s="4" t="s">
         <v>201</v>
       </c>
       <c r="AN59" s="4" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="AO59" s="4" t="s">
         <v>454</v>
       </c>
       <c r="AP59" s="4" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="AQ59" s="4" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="AR59" s="4" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="AS59" s="4" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="AT59" s="4" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="AU59" s="4" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="AV59" s="4" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="AW59" s="4" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="AX59" s="4" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="AY59" s="4" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="AZ59" s="4" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="BA59" s="4" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="BB59" s="4" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="BC59" s="14"/>
       <c r="BD59" s="14"/>
@@ -34719,46 +34731,46 @@
         <v>523</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
@@ -34971,25 +34983,25 @@
         <v>534</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>498</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
@@ -35209,10 +35221,10 @@
         <v>549</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="63">
@@ -35220,34 +35232,34 @@
         <v>556</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="L63" s="14"/>
       <c r="M63" s="14"/>
@@ -35464,13 +35476,13 @@
         <v>558</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
@@ -35718,10 +35730,10 @@
         <v>673</v>
       </c>
       <c r="J65" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>1327</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>1326</v>
       </c>
       <c r="L65" s="14"/>
       <c r="M65" s="14"/>
@@ -35938,46 +35950,46 @@
         <v>578</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
@@ -36212,91 +36224,91 @@
         <v>618</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>620</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="N68" s="4" t="s">
         <v>551</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="R68" s="4" t="s">
         <v>197</v>
       </c>
       <c r="S68" s="4" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="T68" s="4" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="U68" s="4" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="V68" s="4" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="W68" s="4" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="X68" s="4" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="Y68" s="4" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="Z68" s="4" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="AA68" s="4" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="AB68" s="4" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="AC68" s="4" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="AD68" s="4" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="69">
@@ -36304,7 +36316,7 @@
         <v>628</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="70">
@@ -36327,28 +36339,28 @@
         <v>680</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>624</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="O70" s="14"/>
       <c r="P70" s="14"/>
@@ -36562,13 +36574,13 @@
         <v>643</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>237</v>
@@ -36577,7 +36589,7 @@
         <v>635</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="72">
@@ -36591,13 +36603,13 @@
         <v>430</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>281</v>
@@ -36823,10 +36835,10 @@
         <v>678</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>620</v>

--- a/meta/paper1/Foundation Model Leaderboards.xlsx
+++ b/meta/paper1/Foundation Model Leaderboards.xlsx
@@ -2161,7 +2161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4003" uniqueCount="1651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4004" uniqueCount="1651">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -3118,6 +3118,9 @@
     <t>KoLA</t>
   </si>
   <si>
+    <t>JSON</t>
+  </si>
+  <si>
     <t>Leaderboard Launch Date</t>
   </si>
   <si>
@@ -3221,9 +3224,6 @@
   </si>
   <si>
     <t>LLMHallucination Leaderboard</t>
-  </si>
-  <si>
-    <t>JSON</t>
   </si>
   <si>
     <t>Aggregated Result,Prompt Design,Evaluator,Relation Extractor</t>
@@ -11259,12 +11259,14 @@
       <c r="A158" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="C158" s="2"/>
+      <c r="C158" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="D158" s="2">
         <v>7.0</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>17</v>
@@ -11273,7 +11275,7 @@
         <v>146</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>21</v>
@@ -11287,7 +11289,7 @@
     </row>
     <row r="159">
       <c r="A159" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2" t="s">
@@ -11303,23 +11305,23 @@
     </row>
     <row r="160">
       <c r="A160" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2">
         <v>5.0</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>104</v>
@@ -11333,25 +11335,25 @@
     </row>
     <row r="161">
       <c r="A161" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D161" s="2">
         <v>1.0</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>171</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J161" s="2"/>
       <c r="K161" s="10" t="s">
@@ -11363,7 +11365,7 @@
     </row>
     <row r="162">
       <c r="A162" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2" t="s">
@@ -11379,7 +11381,7 @@
     </row>
     <row r="163">
       <c r="A163" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2">
@@ -11392,10 +11394,10 @@
         <v>35</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J163" s="2"/>
       <c r="K163" s="3" t="s">
@@ -11407,7 +11409,7 @@
     </row>
     <row r="164">
       <c r="A164" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2" t="s">
@@ -11422,7 +11424,7 @@
     </row>
     <row r="165">
       <c r="A165" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2" t="s">
@@ -11438,14 +11440,14 @@
     </row>
     <row r="166">
       <c r="A166" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2">
         <v>1.0</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>17</v>
@@ -11457,7 +11459,7 @@
         <v>228</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K166" s="3" t="s">
         <v>14</v>
@@ -11468,7 +11470,7 @@
     </row>
     <row r="167">
       <c r="A167" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2">
@@ -11482,7 +11484,7 @@
         <v>110</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K167" s="3" t="s">
         <v>14</v>
@@ -11493,7 +11495,7 @@
     </row>
     <row r="168">
       <c r="A168" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2">
@@ -11510,7 +11512,7 @@
         <v>60</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>21</v>
@@ -11524,7 +11526,7 @@
     </row>
     <row r="169">
       <c r="A169" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>16</v>
@@ -11534,13 +11536,13 @@
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>61</v>
@@ -11557,7 +11559,7 @@
     </row>
     <row r="170">
       <c r="A170" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2">
@@ -11574,7 +11576,7 @@
         <v>90</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K170" s="3" t="s">
         <v>14</v>
@@ -11585,23 +11587,23 @@
     </row>
     <row r="171">
       <c r="A171" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2">
         <v>6.0</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J171" s="2" t="s">
         <v>21</v>
@@ -11615,10 +11617,10 @@
     </row>
     <row r="172">
       <c r="A172" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="D172" s="2">
         <v>1.0</v>
@@ -12136,7 +12138,7 @@
         <v>6.0</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>17</v>
@@ -12436,7 +12438,7 @@
         <v>1.0</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>25</v>
@@ -12717,7 +12719,7 @@
         <v>439</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K214" s="3" t="s">
         <v>14</v>
@@ -12847,7 +12849,7 @@
         <v>1.0</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>59</v>
@@ -12928,7 +12930,7 @@
         <v>452</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="D225" s="2">
         <v>3.0</v>
@@ -13032,7 +13034,7 @@
         <v>5.0</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>171</v>
@@ -13392,7 +13394,7 @@
         <v>60</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J245" s="2" t="s">
         <v>21</v>
@@ -13514,7 +13516,7 @@
         <v>90</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J249" s="2" t="s">
         <v>21</v>
@@ -13698,7 +13700,7 @@
         <v>60</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K255" s="3" t="s">
         <v>14</v>
@@ -13933,7 +13935,7 @@
         <v>523</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="D263" s="2">
         <v>7.0</v>
@@ -14661,7 +14663,7 @@
         <v>146</v>
       </c>
       <c r="I292" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J292" s="2" t="s">
         <v>21</v>
@@ -14711,7 +14713,7 @@
         <v>570</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D294" s="2">
         <v>1.0</v>
@@ -14887,7 +14889,7 @@
         <v>583</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="D301" s="2">
         <v>6.0</v>
@@ -15522,7 +15524,7 @@
         <v>7.0</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>35</v>
@@ -15552,7 +15554,7 @@
         <v>7.0</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>35</v>
@@ -15612,7 +15614,7 @@
         <v>7.0</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>35</v>
@@ -16214,7 +16216,7 @@
         <v>60</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J352" s="2" t="s">
         <v>21</v>
@@ -25475,7 +25477,7 @@
         <v>1070</v>
       </c>
       <c r="AR24" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AS24" s="9" t="s">
         <v>1071</v>
@@ -27878,7 +27880,7 @@
         <v>1171</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P39" s="9" t="s">
         <v>1172</v>
@@ -28098,7 +28100,7 @@
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>1176</v>
@@ -28362,7 +28364,7 @@
     </row>
     <row r="41">
       <c r="A41" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>1192</v>
@@ -28610,7 +28612,7 @@
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>423</v>
@@ -28856,7 +28858,7 @@
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>191</v>
@@ -28864,7 +28866,7 @@
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>1078</v>
@@ -28876,7 +28878,7 @@
         <v>285</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>423</v>
@@ -30216,7 +30218,7 @@
         <v>1239</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K50" s="9" t="s">
         <v>156</v>
@@ -32994,7 +32996,7 @@
         <v>1003</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O71" s="9" t="s">
         <v>270</v>
@@ -33093,7 +33095,7 @@
         <v>177</v>
       </c>
       <c r="AU71" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AV71" s="9" t="s">
         <v>555</v>
@@ -36308,7 +36310,7 @@
         <v>648</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>270</v>
@@ -37008,7 +37010,7 @@
     </row>
     <row r="101">
       <c r="A101" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>1122</v>

--- a/meta/paper1/Foundation Model Leaderboards.xlsx
+++ b/meta/paper1/Foundation Model Leaderboards.xlsx
@@ -2159,7 +2159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4010" uniqueCount="1650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4007" uniqueCount="1648">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -2749,7 +2749,7 @@
     <t>Evaluator,Supported Functionality</t>
   </si>
   <si>
-    <t>gh:Regular Table+Bar Chart+Heatmap</t>
+    <t>gh:Regular Table+Bar Chart+Heat Map</t>
   </si>
   <si>
     <t>LibrAI,Mohamed bin Zayed University of AI,University of Melbourne</t>
@@ -3365,7 +3365,7 @@
     <t>Hong Kong University of Science and Technology,Microsoft</t>
   </si>
   <si>
-    <t>MINT-Bench</t>
+    <t>MINT</t>
   </si>
   <si>
     <t>ip:Sortable Bar Chart+Line Chart+Sortable Table</t>
@@ -3888,9 +3888,6 @@
     <t>ScienceQA</t>
   </si>
   <si>
-    <t>1,5</t>
-  </si>
-  <si>
     <t>University of California Los Angeles,Arizona State University,Allen Institute for AI</t>
   </si>
   <si>
@@ -4024,9 +4021,6 @@
   </si>
   <si>
     <t>SuperCLUE-Math6</t>
-  </si>
-  <si>
-    <t>1,7</t>
   </si>
   <si>
     <t>SuperCLUE-Safety</t>
@@ -12483,8 +12477,8 @@
         <v>420</v>
       </c>
       <c r="C205" s="2"/>
-      <c r="D205" s="2" t="s">
-        <v>115</v>
+      <c r="D205" s="2">
+        <v>5.0</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="2" t="s">
@@ -14818,8 +14812,8 @@
         <v>574</v>
       </c>
       <c r="C297" s="2"/>
-      <c r="D297" s="2" t="s">
-        <v>575</v>
+      <c r="D297" s="2">
+        <v>5.0</v>
       </c>
       <c r="E297" s="2"/>
       <c r="F297" s="2" t="s">
@@ -14832,7 +14826,7 @@
         <v>181</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J297" s="2" t="s">
         <v>356</v>
@@ -14846,7 +14840,7 @@
     </row>
     <row r="298">
       <c r="A298" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" s="2">
@@ -14871,7 +14865,7 @@
     </row>
     <row r="299">
       <c r="A299" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E299" s="2"/>
       <c r="F299" s="2" t="s">
@@ -14886,7 +14880,7 @@
     </row>
     <row r="300">
       <c r="A300" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="2">
@@ -14900,7 +14894,7 @@
         <v>146</v>
       </c>
       <c r="I300" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J300" s="2" t="s">
         <v>21</v>
@@ -14914,7 +14908,7 @@
     </row>
     <row r="301">
       <c r="A301" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>318</v>
@@ -14923,7 +14917,7 @@
         <v>6.0</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>59</v>
@@ -14935,13 +14929,13 @@
         <v>60</v>
       </c>
       <c r="I301" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J301" s="2" t="s">
         <v>104</v>
       </c>
       <c r="K301" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L301" s="2" t="s">
         <v>23</v>
@@ -14949,14 +14943,14 @@
     </row>
     <row r="302">
       <c r="A302" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" s="2">
         <v>6.0</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>59</v>
@@ -14968,7 +14962,7 @@
         <v>60</v>
       </c>
       <c r="I302" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J302" s="2" t="s">
         <v>21</v>
@@ -14982,7 +14976,7 @@
     </row>
     <row r="303">
       <c r="A303" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>16</v>
@@ -15015,7 +15009,7 @@
     </row>
     <row r="304">
       <c r="A304" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E304" s="2"/>
       <c r="F304" s="2" t="s">
@@ -15031,7 +15025,7 @@
     </row>
     <row r="305">
       <c r="A305" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C305" s="2"/>
       <c r="E305" s="2"/>
@@ -15048,7 +15042,7 @@
     </row>
     <row r="306">
       <c r="A306" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>16</v>
@@ -15081,7 +15075,7 @@
     </row>
     <row r="307">
       <c r="A307" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B307" s="6"/>
       <c r="C307" s="7"/>
@@ -15119,7 +15113,7 @@
     </row>
     <row r="308">
       <c r="A308" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E308" s="2"/>
       <c r="F308" s="2" t="s">
@@ -15135,7 +15129,7 @@
     </row>
     <row r="309">
       <c r="A309" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" s="2">
@@ -15163,7 +15157,7 @@
     </row>
     <row r="310">
       <c r="A310" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C310" s="2"/>
       <c r="E310" s="2"/>
@@ -15180,7 +15174,7 @@
     </row>
     <row r="311">
       <c r="A311" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" s="2">
@@ -15199,7 +15193,7 @@
         <v>26</v>
       </c>
       <c r="I311" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J311" s="2" t="s">
         <v>104</v>
@@ -15213,7 +15207,7 @@
     </row>
     <row r="312">
       <c r="A312" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B312" s="6"/>
       <c r="C312" s="7"/>
@@ -15251,7 +15245,7 @@
     </row>
     <row r="313">
       <c r="A313" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E313" s="2"/>
       <c r="F313" s="2" t="s">
@@ -15267,7 +15261,7 @@
     </row>
     <row r="314">
       <c r="A314" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E314" s="2"/>
       <c r="F314" s="2" t="s">
@@ -15283,7 +15277,7 @@
     </row>
     <row r="315">
       <c r="A315" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E315" s="2"/>
       <c r="F315" s="2" t="s">
@@ -15299,7 +15293,7 @@
     </row>
     <row r="316">
       <c r="A316" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E316" s="2"/>
       <c r="F316" s="2" t="s">
@@ -15315,7 +15309,7 @@
     </row>
     <row r="317">
       <c r="A317" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E317" s="2"/>
       <c r="F317" s="2" t="s">
@@ -15331,7 +15325,7 @@
     </row>
     <row r="318">
       <c r="A318" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>16</v>
@@ -15364,7 +15358,7 @@
     </row>
     <row r="319">
       <c r="A319" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>13</v>
@@ -15378,7 +15372,7 @@
     </row>
     <row r="320">
       <c r="A320" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E320" s="2"/>
       <c r="F320" s="2" t="s">
@@ -15394,7 +15388,7 @@
     </row>
     <row r="321">
       <c r="A321" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" s="2">
@@ -15413,10 +15407,10 @@
         <v>60</v>
       </c>
       <c r="I321" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="J321" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="J321" s="2" t="s">
-        <v>606</v>
       </c>
       <c r="K321" s="3" t="s">
         <v>14</v>
@@ -15427,7 +15421,7 @@
     </row>
     <row r="322">
       <c r="A322" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>16</v>
@@ -15460,7 +15454,7 @@
     </row>
     <row r="323">
       <c r="A323" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" s="2">
@@ -15474,7 +15468,7 @@
         <v>26</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K323" s="3" t="s">
         <v>14</v>
@@ -15485,26 +15479,26 @@
     </row>
     <row r="324">
       <c r="A324" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" s="2">
         <v>7.0</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H324" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="I324" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="I324" s="2" t="s">
+      <c r="J324" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="J324" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="K324" s="10" t="s">
         <v>28</v>
@@ -15515,26 +15509,26 @@
     </row>
     <row r="325">
       <c r="A325" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="2">
         <v>7.0</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H325" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I325" s="2" t="s">
         <v>144</v>
       </c>
       <c r="J325" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K325" s="10" t="s">
         <v>28</v>
@@ -15545,7 +15539,7 @@
     </row>
     <row r="326">
       <c r="A326" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="2">
@@ -15558,13 +15552,13 @@
         <v>35</v>
       </c>
       <c r="H326" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I326" s="2" t="s">
         <v>144</v>
       </c>
       <c r="J326" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K326" s="3" t="s">
         <v>28</v>
@@ -15575,7 +15569,7 @@
     </row>
     <row r="327">
       <c r="A327" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" s="2">
@@ -15588,13 +15582,13 @@
         <v>35</v>
       </c>
       <c r="H327" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I327" s="2" t="s">
         <v>144</v>
       </c>
       <c r="J327" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K327" s="10" t="s">
         <v>28</v>
@@ -15605,11 +15599,11 @@
     </row>
     <row r="328">
       <c r="A328" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C328" s="2"/>
-      <c r="D328" s="2" t="s">
-        <v>621</v>
+      <c r="D328" s="2">
+        <v>7.0</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>95</v>
@@ -15624,7 +15618,7 @@
         <v>144</v>
       </c>
       <c r="J328" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K328" s="3" t="s">
         <v>28</v>
@@ -15635,7 +15629,7 @@
     </row>
     <row r="329">
       <c r="A329" s="9" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" s="2">
@@ -15648,13 +15642,13 @@
         <v>35</v>
       </c>
       <c r="H329" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I329" s="2" t="s">
         <v>144</v>
       </c>
       <c r="J329" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K329" s="10" t="s">
         <v>28</v>
@@ -15665,7 +15659,7 @@
     </row>
     <row r="330">
       <c r="A330" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" s="2">
@@ -15682,7 +15676,7 @@
         <v>144</v>
       </c>
       <c r="J330" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K330" s="3" t="s">
         <v>28</v>
@@ -15693,7 +15687,7 @@
     </row>
     <row r="331">
       <c r="A331" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" s="2">
@@ -15721,7 +15715,7 @@
     </row>
     <row r="332">
       <c r="A332" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" s="2">
@@ -15738,7 +15732,7 @@
         <v>146</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J332" s="2" t="s">
         <v>21</v>
@@ -15752,7 +15746,7 @@
     </row>
     <row r="333">
       <c r="A333" s="9" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="2">
@@ -15768,13 +15762,13 @@
         <v>228</v>
       </c>
       <c r="I333" s="9" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="J333" s="15" t="s">
         <v>55</v>
       </c>
       <c r="K333" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="L333" s="2" t="s">
         <v>23</v>
@@ -15782,7 +15776,7 @@
     </row>
     <row r="334">
       <c r="A334" s="9" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E334" s="2"/>
       <c r="F334" s="2" t="s">
@@ -15798,7 +15792,7 @@
     </row>
     <row r="335">
       <c r="A335" s="9" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" s="2" t="s">
@@ -15814,7 +15808,7 @@
         <v>146</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J335" s="2" t="s">
         <v>104</v>
@@ -15828,7 +15822,7 @@
     </row>
     <row r="336">
       <c r="A336" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B336" s="6"/>
       <c r="C336" s="7"/>
@@ -15866,7 +15860,7 @@
     </row>
     <row r="337">
       <c r="A337" s="9" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" s="2">
@@ -15882,13 +15876,13 @@
         <v>18</v>
       </c>
       <c r="H337" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="I337" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="J337" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="I337" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="J337" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="K337" s="3" t="s">
         <v>68</v>
@@ -15899,7 +15893,7 @@
     </row>
     <row r="338">
       <c r="A338" s="9" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" s="2">
@@ -15916,7 +15910,7 @@
         <v>298</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J338" s="2" t="s">
         <v>356</v>
@@ -15930,7 +15924,7 @@
     </row>
     <row r="339">
       <c r="A339" s="9" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E339" s="2"/>
       <c r="F339" s="2" t="s">
@@ -15945,7 +15939,7 @@
     </row>
     <row r="340">
       <c r="A340" s="9" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" s="2">
@@ -15959,7 +15953,7 @@
         <v>26</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J340" s="2" t="s">
         <v>104</v>
@@ -15973,7 +15967,7 @@
     </row>
     <row r="341">
       <c r="A341" s="9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" s="2">
@@ -15987,7 +15981,7 @@
         <v>26</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J341" s="2" t="s">
         <v>104</v>
@@ -16001,7 +15995,7 @@
     </row>
     <row r="342">
       <c r="A342" s="9" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C342" s="2"/>
       <c r="E342" s="2"/>
@@ -16018,14 +16012,14 @@
     </row>
     <row r="343">
       <c r="A343" s="9" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" s="2">
         <v>1.0</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>17</v>
@@ -16048,7 +16042,7 @@
     </row>
     <row r="344">
       <c r="A344" s="9" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E344" s="2"/>
       <c r="F344" s="2" t="s">
@@ -16064,7 +16058,7 @@
     </row>
     <row r="345">
       <c r="A345" s="9" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="2" t="s">
@@ -16078,7 +16072,7 @@
         <v>146</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J345" s="2" t="s">
         <v>104</v>
@@ -16092,7 +16086,7 @@
     </row>
     <row r="346">
       <c r="A346" s="9" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C346" s="2"/>
       <c r="F346" s="2" t="s">
@@ -16107,7 +16101,7 @@
     </row>
     <row r="347">
       <c r="A347" s="9" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="2">
@@ -16121,7 +16115,7 @@
         <v>26</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="K347" s="3" t="s">
         <v>14</v>
@@ -16132,7 +16126,7 @@
     </row>
     <row r="348">
       <c r="A348" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" s="2">
@@ -16146,7 +16140,7 @@
         <v>41</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K348" s="3" t="s">
         <v>14</v>
@@ -16157,7 +16151,7 @@
     </row>
     <row r="349">
       <c r="A349" s="9" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" s="2">
@@ -16174,7 +16168,7 @@
         <v>60</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="K349" s="3" t="s">
         <v>14</v>
@@ -16185,7 +16179,7 @@
     </row>
     <row r="350">
       <c r="A350" s="9" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" s="2">
@@ -16199,7 +16193,7 @@
         <v>394</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="K350" s="3" t="s">
         <v>14</v>
@@ -16210,7 +16204,7 @@
     </row>
     <row r="351">
       <c r="A351" s="9" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C351" s="2"/>
       <c r="E351" s="2"/>
@@ -16227,7 +16221,7 @@
     </row>
     <row r="352">
       <c r="A352" s="9" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" s="2">
@@ -16258,23 +16252,23 @@
     </row>
     <row r="353">
       <c r="A353" s="9" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" s="2">
         <v>6.0</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>171</v>
       </c>
       <c r="H353" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J353" s="2" t="s">
         <v>21</v>
@@ -16288,7 +16282,7 @@
     </row>
     <row r="354">
       <c r="A354" s="9" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E354" s="2"/>
       <c r="F354" s="2" t="s">
@@ -16304,7 +16298,7 @@
     </row>
     <row r="355">
       <c r="A355" s="9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E355" s="2"/>
       <c r="F355" s="2" t="s">
@@ -16320,7 +16314,7 @@
     </row>
     <row r="356">
       <c r="A356" s="9" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" s="2">
@@ -16336,7 +16330,7 @@
         <v>181</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J356" s="2" t="s">
         <v>492</v>
@@ -16350,7 +16344,7 @@
     </row>
     <row r="357">
       <c r="A357" s="9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2">
@@ -16366,7 +16360,7 @@
         <v>26</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K357" s="3" t="s">
         <v>14</v>
@@ -16377,7 +16371,7 @@
     </row>
     <row r="358">
       <c r="A358" s="12" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B358" s="6"/>
       <c r="C358" s="7"/>
@@ -16415,7 +16409,7 @@
     </row>
     <row r="359">
       <c r="A359" s="9" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" s="2">
@@ -16429,7 +16423,7 @@
         <v>26</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="K359" s="3" t="s">
         <v>14</v>
@@ -16440,7 +16434,7 @@
     </row>
     <row r="360">
       <c r="A360" s="9" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E360" s="2"/>
       <c r="F360" s="2" t="s">
@@ -16456,7 +16450,7 @@
     </row>
     <row r="361">
       <c r="A361" s="9" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E361" s="2"/>
       <c r="F361" s="2" t="s">
@@ -16464,7 +16458,7 @@
       </c>
       <c r="I361" s="2"/>
       <c r="K361" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="L361" s="2" t="s">
         <v>23</v>
@@ -16472,7 +16466,7 @@
     </row>
     <row r="362">
       <c r="A362" s="9" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E362" s="2"/>
       <c r="F362" s="2" t="s">
@@ -16488,7 +16482,7 @@
     </row>
     <row r="363">
       <c r="A363" s="9" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>16</v>
@@ -16521,7 +16515,7 @@
     </row>
     <row r="364">
       <c r="A364" s="9" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" s="2">
@@ -16537,7 +16531,7 @@
         <v>82</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="K364" s="3" t="s">
         <v>28</v>
@@ -16548,7 +16542,7 @@
     </row>
     <row r="365">
       <c r="A365" s="9" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C365" s="2"/>
       <c r="E365" s="2"/>
@@ -16565,7 +16559,7 @@
     </row>
     <row r="366">
       <c r="A366" s="9" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C366" s="2"/>
       <c r="E366" s="2"/>
@@ -16582,7 +16576,7 @@
     </row>
     <row r="367">
       <c r="A367" s="9" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" s="2">
@@ -16598,10 +16592,10 @@
         <v>18</v>
       </c>
       <c r="H367" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="J367" s="2" t="s">
         <v>21</v>
@@ -16615,7 +16609,7 @@
     </row>
     <row r="368">
       <c r="A368" s="9" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E368" s="2"/>
       <c r="F368" s="2" t="s">
@@ -16631,7 +16625,7 @@
     </row>
     <row r="369">
       <c r="A369" s="9" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C369" s="2"/>
       <c r="E369" s="2"/>
@@ -16648,7 +16642,7 @@
     </row>
     <row r="370">
       <c r="A370" s="9" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C370" s="2"/>
       <c r="E370" s="2"/>
@@ -16665,7 +16659,7 @@
     </row>
     <row r="371">
       <c r="A371" s="9" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C371" s="2"/>
       <c r="E371" s="2"/>
@@ -16677,12 +16671,12 @@
         <v>14</v>
       </c>
       <c r="L371" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="9" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" s="2">
@@ -16696,7 +16690,7 @@
         <v>60</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J372" s="2" t="s">
         <v>21</v>
@@ -16710,7 +16704,7 @@
     </row>
     <row r="373">
       <c r="A373" s="9" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C373" s="2"/>
       <c r="F373" s="2" t="s">
@@ -16725,7 +16719,7 @@
     </row>
     <row r="374">
       <c r="A374" s="9" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C374" s="2"/>
       <c r="E374" s="2"/>
@@ -16741,7 +16735,7 @@
     </row>
     <row r="375">
       <c r="A375" s="9" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2">
@@ -16755,7 +16749,7 @@
         <v>82</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K375" s="3" t="s">
         <v>14</v>
@@ -16766,7 +16760,7 @@
     </row>
     <row r="376">
       <c r="A376" s="9" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E376" s="2"/>
       <c r="F376" s="2" t="s">
@@ -16782,10 +16776,10 @@
     </row>
     <row r="377">
       <c r="A377" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D377" s="2">
         <v>6.0</v>
@@ -16795,13 +16789,13 @@
         <v>171</v>
       </c>
       <c r="H377" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="J377" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="K377" s="3" t="s">
         <v>14</v>
@@ -16812,7 +16806,7 @@
     </row>
     <row r="378">
       <c r="A378" s="9" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C378" s="2"/>
       <c r="D378" s="2">
@@ -16826,7 +16820,7 @@
         <v>146</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="K378" s="3" t="s">
         <v>14</v>
@@ -16837,7 +16831,7 @@
     </row>
     <row r="379">
       <c r="A379" s="9" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E379" s="2"/>
       <c r="F379" s="2" t="s">
@@ -16853,7 +16847,7 @@
     </row>
     <row r="380">
       <c r="A380" s="9" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C380" s="2"/>
       <c r="D380" s="2">
@@ -16869,13 +16863,13 @@
         <v>60</v>
       </c>
       <c r="I380" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="J380" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="K380" s="3" t="s">
         <v>704</v>
-      </c>
-      <c r="J380" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="K380" s="3" t="s">
-        <v>706</v>
       </c>
       <c r="L380" s="2" t="s">
         <v>23</v>
@@ -16883,7 +16877,7 @@
     </row>
     <row r="381">
       <c r="A381" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C381" s="2"/>
       <c r="D381" s="2">
@@ -16900,7 +16894,7 @@
         <v>26</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J381" s="15" t="s">
         <v>55</v>
@@ -16914,7 +16908,7 @@
     </row>
     <row r="382">
       <c r="A382" s="9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E382" s="2"/>
       <c r="F382" s="2" t="s">
@@ -16922,7 +16916,7 @@
       </c>
       <c r="I382" s="2"/>
       <c r="K382" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="L382" s="2" t="s">
         <v>23</v>
@@ -16930,14 +16924,14 @@
     </row>
     <row r="383">
       <c r="A383" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E383" s="2"/>
       <c r="F383" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K383" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="L383" s="2" t="s">
         <v>47</v>
@@ -16945,7 +16939,7 @@
     </row>
     <row r="384">
       <c r="A384" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E384" s="2"/>
       <c r="F384" s="2" t="s">
@@ -16961,7 +16955,7 @@
     </row>
     <row r="385">
       <c r="A385" s="9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E385" s="2"/>
       <c r="F385" s="2" t="s">
@@ -16976,7 +16970,7 @@
     </row>
     <row r="386">
       <c r="A386" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E386" s="2"/>
       <c r="F386" s="2" t="s">
@@ -16991,7 +16985,7 @@
     </row>
     <row r="387">
       <c r="A387" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E387" s="2"/>
       <c r="F387" s="2" t="s">
@@ -17007,7 +17001,7 @@
     </row>
     <row r="388">
       <c r="A388" s="9" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E388" s="2"/>
       <c r="F388" s="2" t="s">
@@ -17022,10 +17016,10 @@
     </row>
     <row r="389">
       <c r="A389" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D389" s="2">
         <v>6.0</v>
@@ -17038,10 +17032,10 @@
         <v>60</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J389" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="K389" s="3" t="s">
         <v>14</v>
@@ -17052,7 +17046,7 @@
     </row>
     <row r="390">
       <c r="A390" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E390" s="2"/>
       <c r="F390" s="2" t="s">
@@ -17068,7 +17062,7 @@
     </row>
     <row r="391">
       <c r="A391" s="9" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E391" s="2"/>
       <c r="F391" s="2" t="s">
@@ -17084,7 +17078,7 @@
     </row>
     <row r="392">
       <c r="A392" s="9" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E392" s="2"/>
       <c r="F392" s="2" t="s">
@@ -17100,7 +17094,7 @@
     </row>
     <row r="393">
       <c r="A393" s="9" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E393" s="2"/>
       <c r="F393" s="2" t="s">
@@ -17116,7 +17110,7 @@
     </row>
     <row r="394">
       <c r="A394" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E394" s="2"/>
       <c r="F394" s="2" t="s">
@@ -17132,7 +17126,7 @@
     </row>
     <row r="395">
       <c r="A395" s="9" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>16</v>
@@ -17165,7 +17159,7 @@
     </row>
     <row r="396">
       <c r="A396" s="12" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B396" s="6"/>
       <c r="C396" s="7"/>
@@ -17203,7 +17197,7 @@
     </row>
     <row r="397">
       <c r="A397" s="9" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E397" s="2"/>
       <c r="F397" s="2" t="s">
@@ -17219,7 +17213,7 @@
     </row>
     <row r="398">
       <c r="A398" s="9" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E398" s="2"/>
       <c r="F398" s="2" t="s">
@@ -17235,7 +17229,7 @@
     </row>
     <row r="399">
       <c r="A399" s="9" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E399" s="2"/>
       <c r="F399" s="2" t="s">
@@ -17251,7 +17245,7 @@
     </row>
     <row r="400">
       <c r="A400" s="9" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E400" s="2"/>
       <c r="F400" s="2" t="s">
@@ -17267,7 +17261,7 @@
     </row>
     <row r="401">
       <c r="A401" s="9" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E401" s="2"/>
       <c r="F401" s="2" t="s">
@@ -17283,7 +17277,7 @@
     </row>
     <row r="402">
       <c r="A402" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" s="2">
@@ -17297,7 +17291,7 @@
         <v>82</v>
       </c>
       <c r="I402" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="K402" s="3" t="s">
         <v>68</v>
@@ -17308,7 +17302,7 @@
     </row>
     <row r="403">
       <c r="A403" s="9" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E403" s="2"/>
       <c r="F403" s="2" t="s">
@@ -17324,7 +17318,7 @@
     </row>
     <row r="404">
       <c r="A404" s="9" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>16</v>
@@ -17342,7 +17336,7 @@
         <v>18</v>
       </c>
       <c r="H404" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I404" s="2" t="s">
         <v>61</v>
@@ -17356,7 +17350,7 @@
     </row>
     <row r="405">
       <c r="A405" s="9" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E405" s="2"/>
       <c r="F405" s="2" t="s">
@@ -17372,7 +17366,7 @@
     </row>
     <row r="406">
       <c r="A406" s="9" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>16</v>
@@ -21354,7 +21348,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2">
@@ -21362,13 +21356,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>738</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>740</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
@@ -21595,31 +21589,31 @@
         <v>253</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>148</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>744</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>745</v>
-      </c>
       <c r="I3" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>564</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>234</v>
@@ -21630,13 +21624,13 @@
         <v>43</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>747</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>749</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>420</v>
@@ -21645,19 +21639,19 @@
         <v>564</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>752</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="5">
@@ -21665,19 +21659,19 @@
         <v>52</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>756</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>758</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -21899,73 +21893,73 @@
         <v>77</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="M6" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="N6" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="O6" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="R6" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="S6" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="V6" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="W6" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="X6" s="9" t="s">
         <v>779</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>780</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>781</v>
       </c>
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
@@ -22169,13 +22163,13 @@
         <v>79</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>98</v>
@@ -22184,46 +22178,46 @@
         <v>478</v>
       </c>
       <c r="G7" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>788</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>789</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>790</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>544</v>
       </c>
       <c r="O7" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q7" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="R7" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="S7" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="T7" s="9" t="s">
         <v>794</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>796</v>
       </c>
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
@@ -22431,7 +22425,7 @@
         <v>88</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>285</v>
@@ -22659,648 +22653,648 @@
         <v>92</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>801</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>802</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="L9" s="9" t="s">
         <v>806</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="M9" s="9" t="s">
         <v>807</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="N9" s="9" t="s">
         <v>808</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="O9" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>809</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="Q9" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="R9" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="O9" s="9" t="s">
-        <v>759</v>
-      </c>
-      <c r="P9" s="9" t="s">
+      <c r="S9" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="Q9" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="R9" s="9" t="s">
+      <c r="T9" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="U9" s="9" t="s">
         <v>813</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>815</v>
       </c>
       <c r="V9" s="9" t="s">
         <v>132</v>
       </c>
       <c r="W9" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="Y9" s="9" t="s">
         <v>816</v>
       </c>
-      <c r="X9" s="9" t="s">
+      <c r="Z9" s="9" t="s">
         <v>817</v>
       </c>
-      <c r="Y9" s="9" t="s">
+      <c r="AA9" s="9" t="s">
         <v>818</v>
       </c>
-      <c r="Z9" s="9" t="s">
+      <c r="AB9" s="9" t="s">
         <v>819</v>
       </c>
-      <c r="AA9" s="9" t="s">
+      <c r="AC9" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="AB9" s="9" t="s">
+      <c r="AD9" s="9" t="s">
         <v>821</v>
-      </c>
-      <c r="AC9" s="9" t="s">
-        <v>822</v>
-      </c>
-      <c r="AD9" s="9" t="s">
-        <v>823</v>
       </c>
       <c r="AE9" s="9" t="s">
         <v>478</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AG9" s="9" t="s">
         <v>178</v>
       </c>
       <c r="AH9" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="AI9" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="AJ9" s="9" t="s">
         <v>824</v>
       </c>
-      <c r="AI9" s="9" t="s">
+      <c r="AK9" s="9" t="s">
         <v>825</v>
       </c>
-      <c r="AJ9" s="9" t="s">
+      <c r="AL9" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="AK9" s="9" t="s">
+      <c r="AM9" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="AL9" s="9" t="s">
+      <c r="AN9" s="9" t="s">
         <v>828</v>
       </c>
-      <c r="AM9" s="9" t="s">
+      <c r="AO9" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="AP9" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="AQ9" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="AN9" s="9" t="s">
+      <c r="AR9" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="AO9" s="9" t="s">
+      <c r="AS9" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="AT9" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="AP9" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="AQ9" s="9" t="s">
-        <v>831</v>
-      </c>
-      <c r="AR9" s="9" t="s">
+      <c r="AU9" s="9" t="s">
         <v>832</v>
-      </c>
-      <c r="AS9" s="9" t="s">
-        <v>833</v>
-      </c>
-      <c r="AT9" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="AU9" s="9" t="s">
-        <v>834</v>
       </c>
       <c r="AV9" s="9" t="s">
         <v>382</v>
       </c>
       <c r="AW9" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="AX9" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="AY9" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="AX9" s="9" t="s">
+      <c r="AZ9" s="9" t="s">
         <v>836</v>
       </c>
-      <c r="AY9" s="9" t="s">
+      <c r="BA9" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="AZ9" s="9" t="s">
+      <c r="BB9" s="9" t="s">
         <v>838</v>
       </c>
-      <c r="BA9" s="9" t="s">
+      <c r="BC9" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="BB9" s="9" t="s">
+      <c r="BD9" s="9" t="s">
         <v>840</v>
       </c>
-      <c r="BC9" s="9" t="s">
+      <c r="BE9" s="9" t="s">
         <v>841</v>
       </c>
-      <c r="BD9" s="9" t="s">
+      <c r="BF9" s="9" t="s">
         <v>842</v>
       </c>
-      <c r="BE9" s="9" t="s">
+      <c r="BG9" s="9" t="s">
         <v>843</v>
       </c>
-      <c r="BF9" s="9" t="s">
+      <c r="BH9" s="9" t="s">
         <v>844</v>
       </c>
-      <c r="BG9" s="9" t="s">
+      <c r="BI9" s="9" t="s">
         <v>845</v>
       </c>
-      <c r="BH9" s="9" t="s">
+      <c r="BJ9" s="9" t="s">
         <v>846</v>
       </c>
-      <c r="BI9" s="9" t="s">
+      <c r="BK9" s="9" t="s">
         <v>847</v>
       </c>
-      <c r="BJ9" s="9" t="s">
+      <c r="BL9" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="BM9" s="9" t="s">
         <v>848</v>
       </c>
-      <c r="BK9" s="9" t="s">
+      <c r="BN9" s="9" t="s">
         <v>849</v>
       </c>
-      <c r="BL9" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="BM9" s="9" t="s">
+      <c r="BO9" s="9" t="s">
         <v>850</v>
       </c>
-      <c r="BN9" s="9" t="s">
+      <c r="BP9" s="9" t="s">
         <v>851</v>
       </c>
-      <c r="BO9" s="9" t="s">
+      <c r="BQ9" s="9" t="s">
         <v>852</v>
       </c>
-      <c r="BP9" s="9" t="s">
+      <c r="BR9" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="BS9" s="9" t="s">
         <v>853</v>
       </c>
-      <c r="BQ9" s="9" t="s">
+      <c r="BT9" s="9" t="s">
         <v>854</v>
-      </c>
-      <c r="BR9" s="9" t="s">
-        <v>765</v>
-      </c>
-      <c r="BS9" s="9" t="s">
-        <v>855</v>
-      </c>
-      <c r="BT9" s="9" t="s">
-        <v>856</v>
       </c>
       <c r="BU9" s="17"/>
       <c r="BV9" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="BW9" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="BX9" s="9" t="s">
         <v>857</v>
       </c>
-      <c r="BW9" s="9" t="s">
+      <c r="BY9" s="9" t="s">
         <v>858</v>
       </c>
-      <c r="BX9" s="9" t="s">
+      <c r="BZ9" s="9" t="s">
         <v>859</v>
       </c>
-      <c r="BY9" s="9" t="s">
+      <c r="CA9" s="9" t="s">
         <v>860</v>
       </c>
-      <c r="BZ9" s="9" t="s">
+      <c r="CB9" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="CC9" s="9" t="s">
         <v>861</v>
       </c>
-      <c r="CA9" s="9" t="s">
+      <c r="CD9" s="9" t="s">
         <v>862</v>
       </c>
-      <c r="CB9" s="9" t="s">
-        <v>766</v>
-      </c>
-      <c r="CC9" s="9" t="s">
+      <c r="CE9" s="9" t="s">
         <v>863</v>
       </c>
-      <c r="CD9" s="9" t="s">
+      <c r="CF9" s="9" t="s">
         <v>864</v>
       </c>
-      <c r="CE9" s="9" t="s">
+      <c r="CG9" s="9" t="s">
         <v>865</v>
       </c>
-      <c r="CF9" s="9" t="s">
+      <c r="CH9" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="CG9" s="9" t="s">
+      <c r="CI9" s="9" t="s">
         <v>867</v>
       </c>
-      <c r="CH9" s="9" t="s">
+      <c r="CJ9" s="9" t="s">
         <v>868</v>
       </c>
-      <c r="CI9" s="9" t="s">
+      <c r="CK9" s="9" t="s">
         <v>869</v>
       </c>
-      <c r="CJ9" s="9" t="s">
+      <c r="CL9" s="9" t="s">
         <v>870</v>
       </c>
-      <c r="CK9" s="9" t="s">
+      <c r="CM9" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="CL9" s="9" t="s">
+      <c r="CN9" s="9" t="s">
         <v>872</v>
       </c>
-      <c r="CM9" s="9" t="s">
+      <c r="CO9" s="9" t="s">
         <v>873</v>
       </c>
-      <c r="CN9" s="9" t="s">
+      <c r="CP9" s="9" t="s">
         <v>874</v>
       </c>
-      <c r="CO9" s="9" t="s">
+      <c r="CQ9" s="9" t="s">
         <v>875</v>
       </c>
-      <c r="CP9" s="9" t="s">
+      <c r="CR9" s="9" t="s">
         <v>876</v>
       </c>
-      <c r="CQ9" s="9" t="s">
+      <c r="CS9" s="9" t="s">
         <v>877</v>
       </c>
-      <c r="CR9" s="9" t="s">
+      <c r="CT9" s="9" t="s">
         <v>878</v>
       </c>
-      <c r="CS9" s="9" t="s">
+      <c r="CU9" s="9" t="s">
         <v>879</v>
       </c>
-      <c r="CT9" s="9" t="s">
+      <c r="CV9" s="9" t="s">
         <v>880</v>
       </c>
-      <c r="CU9" s="9" t="s">
+      <c r="CW9" s="9" t="s">
         <v>881</v>
       </c>
-      <c r="CV9" s="9" t="s">
+      <c r="CX9" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="CY9" s="9" t="s">
         <v>882</v>
       </c>
-      <c r="CW9" s="9" t="s">
+      <c r="CZ9" s="9" t="s">
         <v>883</v>
       </c>
-      <c r="CX9" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="CY9" s="9" t="s">
+      <c r="DA9" s="9" t="s">
         <v>884</v>
       </c>
-      <c r="CZ9" s="9" t="s">
+      <c r="DB9" s="9" t="s">
         <v>885</v>
       </c>
-      <c r="DA9" s="9" t="s">
+      <c r="DC9" s="9" t="s">
         <v>886</v>
       </c>
-      <c r="DB9" s="9" t="s">
+      <c r="DD9" s="9" t="s">
         <v>887</v>
-      </c>
-      <c r="DC9" s="9" t="s">
-        <v>888</v>
-      </c>
-      <c r="DD9" s="9" t="s">
-        <v>889</v>
       </c>
       <c r="DE9" s="17"/>
       <c r="DF9" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="DG9" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="DH9" s="9" t="s">
         <v>890</v>
       </c>
-      <c r="DG9" s="9" t="s">
+      <c r="DI9" s="9" t="s">
         <v>891</v>
       </c>
-      <c r="DH9" s="9" t="s">
+      <c r="DJ9" s="9" t="s">
         <v>892</v>
       </c>
-      <c r="DI9" s="9" t="s">
+      <c r="DK9" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="DJ9" s="9" t="s">
+      <c r="DL9" s="9" t="s">
         <v>894</v>
       </c>
-      <c r="DK9" s="9" t="s">
+      <c r="DM9" s="9" t="s">
         <v>895</v>
       </c>
-      <c r="DL9" s="9" t="s">
+      <c r="DN9" s="9" t="s">
         <v>896</v>
       </c>
-      <c r="DM9" s="9" t="s">
+      <c r="DO9" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="DP9" s="9" t="s">
         <v>897</v>
       </c>
-      <c r="DN9" s="9" t="s">
+      <c r="DQ9" s="9" t="s">
         <v>898</v>
       </c>
-      <c r="DO9" s="9" t="s">
+      <c r="DR9" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="DS9" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="DT9" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="DU9" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="DP9" s="9" t="s">
-        <v>899</v>
-      </c>
-      <c r="DQ9" s="9" t="s">
-        <v>900</v>
-      </c>
-      <c r="DR9" s="9" t="s">
+      <c r="DV9" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="DW9" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="DX9" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="DS9" s="9" t="s">
-        <v>901</v>
-      </c>
-      <c r="DT9" s="9" t="s">
-        <v>902</v>
-      </c>
-      <c r="DU9" s="9" t="s">
+      <c r="DY9" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="DZ9" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="EA9" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="EB9" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="EC9" s="9" t="s">
+        <v>907</v>
+      </c>
+      <c r="ED9" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="DV9" s="9" t="s">
-        <v>903</v>
-      </c>
-      <c r="DW9" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="DX9" s="9" t="s">
+      <c r="EE9" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="EF9" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="EG9" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="EH9" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="EI9" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="EJ9" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="EK9" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="EL9" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="EM9" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="EN9" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="EO9" s="9" t="s">
+        <v>918</v>
+      </c>
+      <c r="EP9" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="EQ9" s="9" t="s">
+        <v>920</v>
+      </c>
+      <c r="ER9" s="9" t="s">
+        <v>921</v>
+      </c>
+      <c r="ES9" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="ET9" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="EU9" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="DY9" s="9" t="s">
-        <v>905</v>
-      </c>
-      <c r="DZ9" s="9" t="s">
-        <v>906</v>
-      </c>
-      <c r="EA9" s="9" t="s">
-        <v>907</v>
-      </c>
-      <c r="EB9" s="9" t="s">
-        <v>908</v>
-      </c>
-      <c r="EC9" s="9" t="s">
-        <v>909</v>
-      </c>
-      <c r="ED9" s="9" t="s">
+      <c r="EV9" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="EW9" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="EX9" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="EY9" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="EZ9" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="FA9" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="EE9" s="9" t="s">
-        <v>910</v>
-      </c>
-      <c r="EF9" s="9" t="s">
-        <v>911</v>
-      </c>
-      <c r="EG9" s="9" t="s">
-        <v>912</v>
-      </c>
-      <c r="EH9" s="9" t="s">
-        <v>913</v>
-      </c>
-      <c r="EI9" s="9" t="s">
-        <v>914</v>
-      </c>
-      <c r="EJ9" s="9" t="s">
-        <v>915</v>
-      </c>
-      <c r="EK9" s="9" t="s">
-        <v>916</v>
-      </c>
-      <c r="EL9" s="9" t="s">
-        <v>917</v>
-      </c>
-      <c r="EM9" s="9" t="s">
-        <v>918</v>
-      </c>
-      <c r="EN9" s="9" t="s">
-        <v>919</v>
-      </c>
-      <c r="EO9" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="EP9" s="9" t="s">
-        <v>921</v>
-      </c>
-      <c r="EQ9" s="9" t="s">
-        <v>922</v>
-      </c>
-      <c r="ER9" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="ES9" s="9" t="s">
-        <v>924</v>
-      </c>
-      <c r="ET9" s="9" t="s">
-        <v>925</v>
-      </c>
-      <c r="EU9" s="9" t="s">
+      <c r="FB9" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="EV9" s="9" t="s">
-        <v>926</v>
-      </c>
-      <c r="EW9" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="EX9" s="9" t="s">
-        <v>928</v>
-      </c>
-      <c r="EY9" s="9" t="s">
+      <c r="FC9" s="9" t="s">
         <v>929</v>
       </c>
-      <c r="EZ9" s="9" t="s">
+      <c r="FD9" s="9" t="s">
         <v>930</v>
       </c>
-      <c r="FA9" s="9" t="s">
+      <c r="FE9" s="9" t="s">
+        <v>931</v>
+      </c>
+      <c r="FF9" s="9" t="s">
+        <v>932</v>
+      </c>
+      <c r="FG9" s="9" t="s">
+        <v>933</v>
+      </c>
+      <c r="FH9" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="FI9" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="FJ9" s="9" t="s">
+        <v>935</v>
+      </c>
+      <c r="FK9" s="9" t="s">
+        <v>936</v>
+      </c>
+      <c r="FL9" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="FM9" s="9" t="s">
+        <v>938</v>
+      </c>
+      <c r="FN9" s="9" t="s">
+        <v>939</v>
+      </c>
+      <c r="FO9" s="9" t="s">
+        <v>940</v>
+      </c>
+      <c r="FP9" s="9" t="s">
+        <v>941</v>
+      </c>
+      <c r="FQ9" s="9" t="s">
+        <v>942</v>
+      </c>
+      <c r="FR9" s="9" t="s">
+        <v>943</v>
+      </c>
+      <c r="FS9" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="FB9" s="9" t="s">
+      <c r="FT9" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="FU9" s="9" t="s">
+        <v>944</v>
+      </c>
+      <c r="FV9" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="FW9" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="FC9" s="9" t="s">
-        <v>931</v>
-      </c>
-      <c r="FD9" s="9" t="s">
-        <v>932</v>
-      </c>
-      <c r="FE9" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="FF9" s="9" t="s">
-        <v>934</v>
-      </c>
-      <c r="FG9" s="9" t="s">
-        <v>935</v>
-      </c>
-      <c r="FH9" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="FI9" s="9" t="s">
-        <v>936</v>
-      </c>
-      <c r="FJ9" s="9" t="s">
-        <v>937</v>
-      </c>
-      <c r="FK9" s="9" t="s">
-        <v>938</v>
-      </c>
-      <c r="FL9" s="9" t="s">
-        <v>939</v>
-      </c>
-      <c r="FM9" s="9" t="s">
-        <v>940</v>
-      </c>
-      <c r="FN9" s="9" t="s">
-        <v>941</v>
-      </c>
-      <c r="FO9" s="9" t="s">
-        <v>942</v>
-      </c>
-      <c r="FP9" s="9" t="s">
-        <v>943</v>
-      </c>
-      <c r="FQ9" s="9" t="s">
-        <v>944</v>
-      </c>
-      <c r="FR9" s="9" t="s">
-        <v>945</v>
-      </c>
-      <c r="FS9" s="9" t="s">
+      <c r="FX9" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="FY9" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="FZ9" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="GA9" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="GB9" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="GC9" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="GD9" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="GE9" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="GF9" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="GG9" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="GH9" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="GI9" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="GJ9" s="9" t="s">
+        <v>957</v>
+      </c>
+      <c r="GK9" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="FT9" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="FU9" s="9" t="s">
-        <v>946</v>
-      </c>
-      <c r="FV9" s="9" t="s">
-        <v>947</v>
-      </c>
-      <c r="FW9" s="9" t="s">
+      <c r="GL9" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="GM9" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="GN9" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="GO9" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="GP9" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="FX9" s="9" t="s">
-        <v>948</v>
-      </c>
-      <c r="FY9" s="9" t="s">
-        <v>949</v>
-      </c>
-      <c r="FZ9" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="GA9" s="9" t="s">
-        <v>950</v>
-      </c>
-      <c r="GB9" s="9" t="s">
-        <v>951</v>
-      </c>
-      <c r="GC9" s="9" t="s">
-        <v>952</v>
-      </c>
-      <c r="GD9" s="9" t="s">
-        <v>953</v>
-      </c>
-      <c r="GE9" s="9" t="s">
-        <v>954</v>
-      </c>
-      <c r="GF9" s="9" t="s">
-        <v>955</v>
-      </c>
-      <c r="GG9" s="9" t="s">
-        <v>956</v>
-      </c>
-      <c r="GH9" s="9" t="s">
-        <v>957</v>
-      </c>
-      <c r="GI9" s="9" t="s">
-        <v>958</v>
-      </c>
-      <c r="GJ9" s="9" t="s">
-        <v>959</v>
-      </c>
-      <c r="GK9" s="9" t="s">
+      <c r="GQ9" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="GR9" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="GS9" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="GT9" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="GU9" s="9" t="s">
+        <v>966</v>
+      </c>
+      <c r="GV9" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="GW9" s="9" t="s">
+        <v>968</v>
+      </c>
+      <c r="GX9" s="9" t="s">
+        <v>969</v>
+      </c>
+      <c r="GY9" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="GZ9" s="9" t="s">
+        <v>971</v>
+      </c>
+      <c r="HA9" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="GL9" s="9" t="s">
-        <v>960</v>
-      </c>
-      <c r="GM9" s="9" t="s">
-        <v>961</v>
-      </c>
-      <c r="GN9" s="9" t="s">
-        <v>962</v>
-      </c>
-      <c r="GO9" s="9" t="s">
-        <v>963</v>
-      </c>
-      <c r="GP9" s="9" t="s">
+      <c r="HB9" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="HC9" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="HD9" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="HE9" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="HF9" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="HG9" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="GQ9" s="9" t="s">
-        <v>964</v>
-      </c>
-      <c r="GR9" s="9" t="s">
-        <v>965</v>
-      </c>
-      <c r="GS9" s="9" t="s">
-        <v>966</v>
-      </c>
-      <c r="GT9" s="9" t="s">
-        <v>967</v>
-      </c>
-      <c r="GU9" s="9" t="s">
-        <v>968</v>
-      </c>
-      <c r="GV9" s="9" t="s">
-        <v>969</v>
-      </c>
-      <c r="GW9" s="9" t="s">
-        <v>970</v>
-      </c>
-      <c r="GX9" s="9" t="s">
-        <v>971</v>
-      </c>
-      <c r="GY9" s="9" t="s">
-        <v>972</v>
-      </c>
-      <c r="GZ9" s="9" t="s">
-        <v>973</v>
-      </c>
-      <c r="HA9" s="9" t="s">
-        <v>780</v>
-      </c>
-      <c r="HB9" s="9" t="s">
-        <v>974</v>
-      </c>
-      <c r="HC9" s="9" t="s">
-        <v>975</v>
-      </c>
-      <c r="HD9" s="9" t="s">
-        <v>976</v>
-      </c>
-      <c r="HE9" s="9" t="s">
+      <c r="HH9" s="9" t="s">
         <v>977</v>
       </c>
-      <c r="HF9" s="9" t="s">
+      <c r="HI9" s="9" t="s">
         <v>978</v>
-      </c>
-      <c r="HG9" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="HH9" s="9" t="s">
-        <v>979</v>
-      </c>
-      <c r="HI9" s="9" t="s">
-        <v>980</v>
       </c>
       <c r="HJ9" s="17"/>
       <c r="HK9" s="17"/>
@@ -23311,31 +23305,31 @@
         <v>94</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>410</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>980</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>981</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>982</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>983</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>984</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>985</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>986</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>231</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="11">
@@ -23349,10 +23343,10 @@
         <v>537</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="12">
@@ -23366,13 +23360,13 @@
         <v>233</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>989</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>990</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>991</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>992</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>574</v>
@@ -23381,7 +23375,7 @@
         <v>413</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>443</v>
@@ -23604,40 +23598,40 @@
         <v>144</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>993</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="E13" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>994</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>996</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="I13" s="9" t="s">
         <v>997</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>999</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="L13" s="9" t="s">
         <v>1000</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="M13" s="9" t="s">
         <v>1001</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>1003</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -23852,10 +23846,10 @@
         <v>145</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -24077,97 +24071,97 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>1006</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>1007</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>1008</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>1009</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>1010</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>1011</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="I15" s="9" t="s">
         <v>1012</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="J15" s="9" t="s">
         <v>1013</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="K15" s="9" t="s">
         <v>1014</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="L15" s="9" t="s">
         <v>1015</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="M15" s="9" t="s">
         <v>1016</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="N15" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="P15" s="9" t="s">
         <v>1017</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="Q15" s="9" t="s">
         <v>1018</v>
       </c>
-      <c r="N15" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>996</v>
-      </c>
-      <c r="P15" s="9" t="s">
+      <c r="R15" s="9" t="s">
         <v>1019</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="S15" s="9" t="s">
         <v>1020</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="T15" s="9" t="s">
         <v>1021</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="U15" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="T15" s="9" t="s">
+      <c r="V15" s="9" t="s">
         <v>1023</v>
       </c>
-      <c r="U15" s="9" t="s">
+      <c r="W15" s="9" t="s">
         <v>1024</v>
       </c>
-      <c r="V15" s="9" t="s">
+      <c r="X15" s="9" t="s">
         <v>1025</v>
       </c>
-      <c r="W15" s="9" t="s">
+      <c r="Y15" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="Z15" s="9" t="s">
         <v>1026</v>
       </c>
-      <c r="X15" s="9" t="s">
+      <c r="AA15" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="AC15" s="9" t="s">
         <v>1027</v>
       </c>
-      <c r="Y15" s="9" t="s">
-        <v>993</v>
-      </c>
-      <c r="Z15" s="9" t="s">
+      <c r="AD15" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="AA15" s="9" t="s">
-        <v>994</v>
-      </c>
-      <c r="AB15" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="AC15" s="9" t="s">
+      <c r="AE15" s="9" t="s">
         <v>1029</v>
-      </c>
-      <c r="AD15" s="9" t="s">
-        <v>1030</v>
-      </c>
-      <c r="AE15" s="9" t="s">
-        <v>1031</v>
       </c>
       <c r="AF15" s="17"/>
       <c r="AG15" s="17"/>
@@ -24369,7 +24363,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>420</v>
@@ -24378,7 +24372,7 @@
         <v>148</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>242</v>
@@ -24606,10 +24600,10 @@
         <v>178</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>548</v>
@@ -24618,13 +24612,13 @@
         <v>155</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19">
@@ -24632,22 +24626,22 @@
         <v>205</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>1037</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>1038</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>1039</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>1040</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="20">
@@ -24655,13 +24649,13 @@
         <v>207</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>420</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="21">
@@ -24897,19 +24891,19 @@
         <v>217</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>285</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>253</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
@@ -25131,31 +25125,31 @@
         <v>221</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>1045</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>994</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="H23" s="9" t="s">
+        <v>996</v>
+      </c>
+      <c r="I23" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>997</v>
-      </c>
       <c r="J23" s="9" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
@@ -25379,10 +25373,10 @@
         <v>420</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>549</v>
@@ -25391,103 +25385,103 @@
         <v>148</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="Q24" s="9" t="s">
         <v>233</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="U24" s="9" t="s">
         <v>443</v>
       </c>
       <c r="V24" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="X24" s="9" t="s">
         <v>1053</v>
-      </c>
-      <c r="W24" s="9" t="s">
-        <v>1054</v>
-      </c>
-      <c r="X24" s="9" t="s">
-        <v>1055</v>
       </c>
       <c r="Y24" s="9" t="s">
         <v>444</v>
       </c>
       <c r="Z24" s="9" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AA24" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AB24" s="9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AC24" s="9" t="s">
         <v>1056</v>
       </c>
-      <c r="AB24" s="9" t="s">
+      <c r="AD24" s="9" t="s">
         <v>1057</v>
-      </c>
-      <c r="AC24" s="9" t="s">
-        <v>1058</v>
-      </c>
-      <c r="AD24" s="9" t="s">
-        <v>1059</v>
       </c>
       <c r="AE24" s="9" t="s">
         <v>235</v>
       </c>
       <c r="AF24" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AG24" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AH24" s="9" t="s">
         <v>1060</v>
       </c>
-      <c r="AG24" s="9" t="s">
+      <c r="AI24" s="9" t="s">
         <v>1061</v>
       </c>
-      <c r="AH24" s="9" t="s">
+      <c r="AJ24" s="9" t="s">
         <v>1062</v>
-      </c>
-      <c r="AI24" s="9" t="s">
-        <v>1063</v>
-      </c>
-      <c r="AJ24" s="9" t="s">
-        <v>1064</v>
       </c>
       <c r="AK24" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AL24" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AM24" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AN24" s="9" t="s">
         <v>1065</v>
-      </c>
-      <c r="AM24" s="9" t="s">
-        <v>1066</v>
-      </c>
-      <c r="AN24" s="9" t="s">
-        <v>1067</v>
       </c>
       <c r="AO24" s="9" t="s">
         <v>285</v>
@@ -25496,13 +25490,13 @@
         <v>46</v>
       </c>
       <c r="AQ24" s="9" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="AR24" s="9" t="s">
         <v>335</v>
       </c>
       <c r="AS24" s="9" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="AT24" s="17"/>
       <c r="AU24" s="17"/>
@@ -25685,19 +25679,19 @@
         <v>246</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>1070</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="F25" s="9" t="s">
         <v>1071</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>1073</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -25916,7 +25910,7 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>270</v>
@@ -25925,7 +25919,7 @@
         <v>514</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>526</v>
@@ -25951,22 +25945,22 @@
         <v>420</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>155</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="28">
@@ -25974,25 +25968,25 @@
         <v>260</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>1077</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>666</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>1078</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="G28" s="9" t="s">
         <v>1079</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>1081</v>
-      </c>
       <c r="H28" s="9" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>155</v>
@@ -26001,34 +25995,34 @@
         <v>548</v>
       </c>
       <c r="K28" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M28" s="9" t="s">
         <v>1082</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>1084</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>289</v>
       </c>
       <c r="O28" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="Q28" s="9" t="s">
         <v>1085</v>
       </c>
-      <c r="P28" s="9" t="s">
+      <c r="R28" s="9" t="s">
         <v>1086</v>
       </c>
-      <c r="Q28" s="9" t="s">
+      <c r="S28" s="9" t="s">
         <v>1087</v>
       </c>
-      <c r="R28" s="9" t="s">
-        <v>1088</v>
-      </c>
-      <c r="S28" s="9" t="s">
-        <v>1089</v>
-      </c>
       <c r="T28" s="9" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="29">
@@ -26039,94 +26033,94 @@
         <v>443</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>1090</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="G29" s="9" t="s">
         <v>1091</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="H29" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="I29" s="9" t="s">
         <v>1092</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="J29" s="9" t="s">
         <v>1093</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>725</v>
-      </c>
-      <c r="I29" s="9" t="s">
+      <c r="K29" s="9" t="s">
         <v>1094</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="L29" s="9" t="s">
         <v>1095</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="M29" s="9" t="s">
         <v>1096</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="N29" s="9" t="s">
         <v>1097</v>
       </c>
-      <c r="M29" s="9" t="s">
+      <c r="O29" s="9" t="s">
         <v>1098</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="P29" s="9" t="s">
         <v>1099</v>
       </c>
-      <c r="O29" s="9" t="s">
+      <c r="Q29" s="9" t="s">
         <v>1100</v>
       </c>
-      <c r="P29" s="9" t="s">
+      <c r="R29" s="9" t="s">
         <v>1101</v>
       </c>
-      <c r="Q29" s="9" t="s">
+      <c r="S29" s="9" t="s">
         <v>1102</v>
       </c>
-      <c r="R29" s="9" t="s">
+      <c r="T29" s="9" t="s">
         <v>1103</v>
       </c>
-      <c r="S29" s="9" t="s">
+      <c r="U29" s="9" t="s">
         <v>1104</v>
       </c>
-      <c r="T29" s="9" t="s">
+      <c r="V29" s="9" t="s">
         <v>1105</v>
       </c>
-      <c r="U29" s="9" t="s">
+      <c r="W29" s="9" t="s">
         <v>1106</v>
       </c>
-      <c r="V29" s="9" t="s">
+      <c r="X29" s="9" t="s">
         <v>1107</v>
       </c>
-      <c r="W29" s="9" t="s">
+      <c r="Y29" s="9" t="s">
         <v>1108</v>
       </c>
-      <c r="X29" s="9" t="s">
+      <c r="Z29" s="9" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AA29" s="9" t="s">
         <v>1109</v>
       </c>
-      <c r="Y29" s="9" t="s">
+      <c r="AB29" s="9" t="s">
         <v>1110</v>
       </c>
-      <c r="Z29" s="9" t="s">
-        <v>1107</v>
-      </c>
-      <c r="AA29" s="9" t="s">
+      <c r="AC29" s="9" t="s">
         <v>1111</v>
       </c>
-      <c r="AB29" s="9" t="s">
+      <c r="AD29" s="9" t="s">
         <v>1112</v>
       </c>
-      <c r="AC29" s="9" t="s">
+      <c r="AE29" s="9" t="s">
         <v>1113</v>
       </c>
-      <c r="AD29" s="9" t="s">
+      <c r="AF29" s="9" t="s">
         <v>1114</v>
-      </c>
-      <c r="AE29" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="AF29" s="9" t="s">
-        <v>1116</v>
       </c>
       <c r="AG29" s="17"/>
       <c r="AH29" s="17"/>
@@ -26325,7 +26319,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>270</v>
@@ -26555,16 +26549,16 @@
         <v>105</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>1118</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="F31" s="9" t="s">
         <v>1119</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>1121</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>270</v>
@@ -26573,22 +26567,22 @@
         <v>514</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>420</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="L31" s="9" t="s">
         <v>155</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>133</v>
@@ -26597,31 +26591,31 @@
         <v>549</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="R31" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="T31" s="9" t="s">
         <v>1122</v>
       </c>
-      <c r="S31" s="9" t="s">
+      <c r="U31" s="9" t="s">
         <v>1123</v>
       </c>
-      <c r="T31" s="9" t="s">
+      <c r="V31" s="9" t="s">
         <v>1124</v>
       </c>
-      <c r="U31" s="9" t="s">
+      <c r="W31" s="9" t="s">
         <v>1125</v>
       </c>
-      <c r="V31" s="9" t="s">
+      <c r="X31" s="9" t="s">
         <v>1126</v>
       </c>
-      <c r="W31" s="9" t="s">
-        <v>1127</v>
-      </c>
-      <c r="X31" s="9" t="s">
-        <v>1128</v>
-      </c>
       <c r="Y31" s="9" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="Z31" s="9" t="s">
         <v>253</v>
@@ -26636,73 +26630,73 @@
         <v>65</v>
       </c>
       <c r="AD31" s="9" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AE31" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="AF31" s="9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AG31" s="9" t="s">
         <v>1129</v>
       </c>
-      <c r="AE31" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="AF31" s="9" t="s">
+      <c r="AH31" s="9" t="s">
         <v>1130</v>
       </c>
-      <c r="AG31" s="9" t="s">
+      <c r="AI31" s="9" t="s">
         <v>1131</v>
       </c>
-      <c r="AH31" s="9" t="s">
+      <c r="AJ31" s="9" t="s">
         <v>1132</v>
       </c>
-      <c r="AI31" s="9" t="s">
+      <c r="AK31" s="9" t="s">
         <v>1133</v>
       </c>
-      <c r="AJ31" s="9" t="s">
+      <c r="AL31" s="9" t="s">
         <v>1134</v>
       </c>
-      <c r="AK31" s="9" t="s">
+      <c r="AM31" s="9" t="s">
         <v>1135</v>
       </c>
-      <c r="AL31" s="9" t="s">
+      <c r="AN31" s="9" t="s">
         <v>1136</v>
       </c>
-      <c r="AM31" s="9" t="s">
+      <c r="AO31" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="AP31" s="9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AQ31" s="9" t="s">
         <v>1137</v>
       </c>
-      <c r="AN31" s="9" t="s">
+      <c r="AR31" s="9" t="s">
         <v>1138</v>
       </c>
-      <c r="AO31" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="AP31" s="9" t="s">
-        <v>1077</v>
-      </c>
-      <c r="AQ31" s="9" t="s">
+      <c r="AS31" s="9" t="s">
         <v>1139</v>
       </c>
-      <c r="AR31" s="9" t="s">
+      <c r="AT31" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="AS31" s="9" t="s">
+      <c r="AU31" s="9" t="s">
         <v>1141</v>
-      </c>
-      <c r="AT31" s="9" t="s">
-        <v>1142</v>
-      </c>
-      <c r="AU31" s="9" t="s">
-        <v>1143</v>
       </c>
       <c r="AV31" s="9" t="s">
         <v>392</v>
       </c>
       <c r="AW31" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AX31" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AY31" s="9" t="s">
         <v>1144</v>
       </c>
-      <c r="AX31" s="9" t="s">
+      <c r="AZ31" s="9" t="s">
         <v>1145</v>
-      </c>
-      <c r="AY31" s="9" t="s">
-        <v>1146</v>
-      </c>
-      <c r="AZ31" s="9" t="s">
-        <v>1147</v>
       </c>
       <c r="BC31" s="17"/>
       <c r="BD31" s="17"/>
@@ -26876,25 +26870,25 @@
         <v>275</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>1148</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="F32" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>1149</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>758</v>
-      </c>
-      <c r="E32" s="9" t="s">
+      <c r="H32" s="9" t="s">
         <v>1150</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>1151</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="33">
@@ -26902,10 +26896,10 @@
         <v>277</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>514</v>
@@ -26920,16 +26914,16 @@
         <v>253</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>392</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
@@ -27392,16 +27386,16 @@
         <v>200</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>285</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
@@ -27624,16 +27618,16 @@
         <v>387</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
@@ -27855,7 +27849,7 @@
         <v>304</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="39">
@@ -27863,61 +27857,61 @@
         <v>317</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>1157</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="E39" s="9" t="s">
         <v>1158</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="F39" s="9" t="s">
         <v>1159</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="G39" s="9" t="s">
         <v>1160</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="H39" s="9" t="s">
         <v>1161</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="I39" s="9" t="s">
         <v>1162</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="J39" s="9" t="s">
         <v>1163</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="K39" s="9" t="s">
         <v>1164</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="L39" s="9" t="s">
         <v>1165</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="M39" s="9" t="s">
         <v>1166</v>
       </c>
-      <c r="L39" s="9" t="s">
+      <c r="N39" s="9" t="s">
         <v>1167</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>1168</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>1169</v>
       </c>
       <c r="O39" s="9" t="s">
         <v>321</v>
       </c>
       <c r="P39" s="9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>1169</v>
+      </c>
+      <c r="R39" s="9" t="s">
         <v>1170</v>
       </c>
-      <c r="Q39" s="9" t="s">
+      <c r="S39" s="9" t="s">
         <v>1171</v>
       </c>
-      <c r="R39" s="9" t="s">
-        <v>1172</v>
-      </c>
-      <c r="S39" s="9" t="s">
-        <v>1173</v>
-      </c>
       <c r="T39" s="9" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="U39" s="17"/>
       <c r="V39" s="17"/>
@@ -28125,7 +28119,7 @@
         <v>322</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>253</v>
@@ -28134,55 +28128,55 @@
         <v>545</v>
       </c>
       <c r="E40" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G40" s="9" t="s">
         <v>1175</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="H40" s="9" t="s">
         <v>1176</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="I40" s="9" t="s">
         <v>1177</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="J40" s="9" t="s">
         <v>1178</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="K40" s="9" t="s">
         <v>1179</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>1181</v>
       </c>
       <c r="L40" s="9" t="s">
         <v>478</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="N40" s="9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="P40" s="9" t="s">
         <v>1182</v>
       </c>
-      <c r="O40" s="9" t="s">
+      <c r="Q40" s="9" t="s">
         <v>1183</v>
       </c>
-      <c r="P40" s="9" t="s">
+      <c r="R40" s="9" t="s">
         <v>1184</v>
       </c>
-      <c r="Q40" s="9" t="s">
+      <c r="S40" s="9" t="s">
         <v>1185</v>
       </c>
-      <c r="R40" s="9" t="s">
+      <c r="T40" s="9" t="s">
         <v>1186</v>
       </c>
-      <c r="S40" s="9" t="s">
+      <c r="U40" s="9" t="s">
         <v>1187</v>
-      </c>
-      <c r="T40" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="U40" s="9" t="s">
-        <v>1189</v>
       </c>
       <c r="V40" s="17"/>
       <c r="W40" s="17"/>
@@ -28389,40 +28383,40 @@
         <v>326</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>1190</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="E41" s="9" t="s">
         <v>1191</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="F41" s="9" t="s">
         <v>1192</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="G41" s="9" t="s">
         <v>1193</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="H41" s="9" t="s">
         <v>1194</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="I41" s="9" t="s">
         <v>1195</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="J41" s="9" t="s">
         <v>1196</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="K41" s="9" t="s">
         <v>1197</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="L41" s="9" t="s">
         <v>1198</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="M41" s="9" t="s">
         <v>1199</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>1200</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>1201</v>
       </c>
       <c r="N41" s="17"/>
       <c r="O41" s="17"/>
@@ -28640,7 +28634,7 @@
         <v>420</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>478</v>
@@ -28652,7 +28646,7 @@
         <v>285</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>105</v>
@@ -28664,10 +28658,10 @@
         <v>514</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
@@ -28891,7 +28885,7 @@
         <v>341</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>270</v>
@@ -28906,10 +28900,10 @@
         <v>420</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
@@ -29129,13 +29123,13 @@
         <v>350</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="46">
@@ -29146,10 +29140,10 @@
         <v>420</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
@@ -29373,67 +29367,67 @@
         <v>364</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E47" s="9" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="L47" s="9" t="s">
         <v>1203</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="M47" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="N47" s="9" t="s">
         <v>1204</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>1119</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>1182</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>1184</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>1185</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>1187</v>
-      </c>
-      <c r="L47" s="9" t="s">
+      <c r="O47" s="9" t="s">
         <v>1205</v>
       </c>
-      <c r="M47" s="9" t="s">
-        <v>666</v>
-      </c>
-      <c r="N47" s="9" t="s">
+      <c r="P47" s="9" t="s">
         <v>1206</v>
       </c>
-      <c r="O47" s="9" t="s">
+      <c r="Q47" s="9" t="s">
         <v>1207</v>
       </c>
-      <c r="P47" s="9" t="s">
+      <c r="R47" s="9" t="s">
         <v>1208</v>
       </c>
-      <c r="Q47" s="9" t="s">
+      <c r="S47" s="9" t="s">
         <v>1209</v>
       </c>
-      <c r="R47" s="9" t="s">
+      <c r="T47" s="9" t="s">
         <v>1210</v>
       </c>
-      <c r="S47" s="9" t="s">
+      <c r="U47" s="9" t="s">
         <v>1211</v>
       </c>
-      <c r="T47" s="9" t="s">
+      <c r="V47" s="9" t="s">
         <v>1212</v>
-      </c>
-      <c r="U47" s="9" t="s">
-        <v>1213</v>
-      </c>
-      <c r="V47" s="9" t="s">
-        <v>1214</v>
       </c>
       <c r="W47" s="17"/>
       <c r="X47" s="17"/>
@@ -29639,7 +29633,7 @@
         <v>367</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="49">
@@ -29647,7 +29641,7 @@
         <v>369</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>132</v>
@@ -29656,61 +29650,61 @@
         <v>525</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F49" s="9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H49" s="9" t="s">
         <v>1216</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="I49" s="9" t="s">
         <v>1217</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="J49" s="9" t="s">
         <v>1218</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="K49" s="9" t="s">
         <v>1219</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="L49" s="9" t="s">
         <v>1220</v>
       </c>
-      <c r="K49" s="9" t="s">
+      <c r="M49" s="9" t="s">
         <v>1221</v>
       </c>
-      <c r="L49" s="9" t="s">
+      <c r="N49" s="9" t="s">
         <v>1222</v>
       </c>
-      <c r="M49" s="9" t="s">
+      <c r="O49" s="9" t="s">
         <v>1223</v>
       </c>
-      <c r="N49" s="9" t="s">
+      <c r="P49" s="9" t="s">
         <v>1224</v>
       </c>
-      <c r="O49" s="9" t="s">
+      <c r="Q49" s="9" t="s">
         <v>1225</v>
       </c>
-      <c r="P49" s="9" t="s">
+      <c r="R49" s="9" t="s">
         <v>1226</v>
       </c>
-      <c r="Q49" s="9" t="s">
+      <c r="S49" s="9" t="s">
         <v>1227</v>
       </c>
-      <c r="R49" s="9" t="s">
+      <c r="T49" s="9" t="s">
         <v>1228</v>
       </c>
-      <c r="S49" s="9" t="s">
+      <c r="U49" s="9" t="s">
         <v>1229</v>
       </c>
-      <c r="T49" s="9" t="s">
+      <c r="V49" s="9" t="s">
         <v>1230</v>
       </c>
-      <c r="U49" s="9" t="s">
+      <c r="W49" s="9" t="s">
         <v>1231</v>
-      </c>
-      <c r="V49" s="9" t="s">
-        <v>1232</v>
-      </c>
-      <c r="W49" s="9" t="s">
-        <v>1233</v>
       </c>
       <c r="X49" s="9" t="s">
         <v>475</v>
@@ -29719,19 +29713,19 @@
         <v>233</v>
       </c>
       <c r="Z49" s="9" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="AA49" s="9" t="s">
         <v>198</v>
       </c>
       <c r="AB49" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="AC49" s="9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="AD49" s="9" t="s">
         <v>1235</v>
-      </c>
-      <c r="AC49" s="9" t="s">
-        <v>1236</v>
-      </c>
-      <c r="AD49" s="9" t="s">
-        <v>1237</v>
       </c>
       <c r="AE49" s="9" t="s">
         <v>484</v>
@@ -29740,49 +29734,49 @@
         <v>252</v>
       </c>
       <c r="AG49" s="9" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AH49" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AI49" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="AJ49" s="9" t="s">
         <v>1238</v>
       </c>
-      <c r="AI49" s="9" t="s">
+      <c r="AK49" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="AL49" s="9" t="s">
         <v>1239</v>
       </c>
-      <c r="AJ49" s="9" t="s">
+      <c r="AM49" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="AN49" s="9" t="s">
         <v>1240</v>
       </c>
-      <c r="AK49" s="9" t="s">
-        <v>702</v>
-      </c>
-      <c r="AL49" s="9" t="s">
+      <c r="AO49" s="9" t="s">
         <v>1241</v>
       </c>
-      <c r="AM49" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="AN49" s="9" t="s">
+      <c r="AP49" s="9" t="s">
         <v>1242</v>
       </c>
-      <c r="AO49" s="9" t="s">
+      <c r="AQ49" s="9" t="s">
         <v>1243</v>
       </c>
-      <c r="AP49" s="9" t="s">
+      <c r="AR49" s="9" t="s">
         <v>1244</v>
       </c>
-      <c r="AQ49" s="9" t="s">
+      <c r="AS49" s="9" t="s">
         <v>1245</v>
       </c>
-      <c r="AR49" s="9" t="s">
+      <c r="AT49" s="9" t="s">
         <v>1246</v>
       </c>
-      <c r="AS49" s="9" t="s">
+      <c r="AU49" s="9" t="s">
         <v>1247</v>
-      </c>
-      <c r="AT49" s="9" t="s">
-        <v>1248</v>
-      </c>
-      <c r="AU49" s="9" t="s">
-        <v>1249</v>
       </c>
       <c r="AV49" s="17"/>
       <c r="AW49" s="17"/>
@@ -29960,13 +29954,13 @@
     </row>
     <row r="50">
       <c r="A50" s="9" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>253</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="51">
@@ -29974,64 +29968,64 @@
         <v>389</v>
       </c>
       <c r="B51" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>1251</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="E51" s="9" t="s">
         <v>1252</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="F51" s="9" t="s">
         <v>1253</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="G51" s="9" t="s">
         <v>1254</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="H51" s="9" t="s">
         <v>1255</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="I51" s="9" t="s">
         <v>1256</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="J51" s="9" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K51" s="9" t="s">
         <v>1257</v>
       </c>
-      <c r="I51" s="9" t="s">
+      <c r="L51" s="9" t="s">
         <v>1258</v>
       </c>
-      <c r="J51" s="9" t="s">
-        <v>1005</v>
-      </c>
-      <c r="K51" s="9" t="s">
+      <c r="M51" s="9" t="s">
         <v>1259</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="N51" s="9" t="s">
         <v>1260</v>
       </c>
-      <c r="M51" s="9" t="s">
+      <c r="O51" s="9" t="s">
         <v>1261</v>
       </c>
-      <c r="N51" s="9" t="s">
+      <c r="P51" s="9" t="s">
         <v>1262</v>
       </c>
-      <c r="O51" s="9" t="s">
+      <c r="Q51" s="9" t="s">
         <v>1263</v>
       </c>
-      <c r="P51" s="9" t="s">
+      <c r="R51" s="9" t="s">
         <v>1264</v>
       </c>
-      <c r="Q51" s="9" t="s">
+      <c r="S51" s="9" t="s">
         <v>1265</v>
-      </c>
-      <c r="R51" s="9" t="s">
-        <v>1266</v>
-      </c>
-      <c r="S51" s="9" t="s">
-        <v>1267</v>
       </c>
       <c r="T51" s="9" t="s">
         <v>565</v>
       </c>
       <c r="U51" s="9" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="V51" s="17"/>
       <c r="W51" s="17"/>
@@ -30244,10 +30238,10 @@
         <v>270</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="53">
@@ -30255,28 +30249,28 @@
         <v>413</v>
       </c>
       <c r="B53" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F53" s="9" t="s">
         <v>1270</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E53" s="9" t="s">
+      <c r="G53" s="9" t="s">
         <v>1271</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="H53" s="9" t="s">
         <v>1272</v>
       </c>
-      <c r="G53" s="9" t="s">
-        <v>1273</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>1274</v>
-      </c>
       <c r="I53" s="9" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="J53" s="9" t="s">
         <v>336</v>
@@ -30288,7 +30282,7 @@
         <v>574</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="N53" s="17"/>
       <c r="O53" s="17"/>
@@ -30733,22 +30727,22 @@
         <v>433</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>183</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>200</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
@@ -30969,7 +30963,7 @@
         <v>438</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>420</v>
@@ -30980,34 +30974,34 @@
         <v>439</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>1279</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="E57" s="9" t="s">
         <v>1280</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="F57" s="9" t="s">
         <v>1281</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="G57" s="9" t="s">
         <v>1282</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="H57" s="9" t="s">
         <v>1283</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="I57" s="9" t="s">
         <v>1284</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="J57" s="9" t="s">
         <v>283</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="L57" s="9" t="s">
         <v>74</v>
@@ -31016,16 +31010,16 @@
         <v>76</v>
       </c>
       <c r="N57" s="9" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="58">
@@ -31033,247 +31027,247 @@
         <v>451</v>
       </c>
       <c r="B58" s="9" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>1290</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="E58" s="9" t="s">
         <v>1291</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="F58" s="9" t="s">
         <v>1292</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="G58" s="9" t="s">
         <v>1293</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="H58" s="9" t="s">
         <v>1294</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="I58" s="9" t="s">
         <v>1295</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="J58" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K58" s="9" t="s">
         <v>1296</v>
       </c>
-      <c r="I58" s="9" t="s">
+      <c r="L58" s="9" t="s">
         <v>1297</v>
       </c>
-      <c r="J58" s="9" t="s">
-        <v>1048</v>
-      </c>
-      <c r="K58" s="9" t="s">
+      <c r="M58" s="9" t="s">
         <v>1298</v>
       </c>
-      <c r="L58" s="9" t="s">
+      <c r="N58" s="9" t="s">
         <v>1299</v>
       </c>
-      <c r="M58" s="9" t="s">
+      <c r="O58" s="9" t="s">
         <v>1300</v>
       </c>
-      <c r="N58" s="9" t="s">
+      <c r="P58" s="9" t="s">
         <v>1301</v>
       </c>
-      <c r="O58" s="9" t="s">
+      <c r="Q58" s="9" t="s">
         <v>1302</v>
       </c>
-      <c r="P58" s="9" t="s">
+      <c r="R58" s="9" t="s">
         <v>1303</v>
       </c>
-      <c r="Q58" s="9" t="s">
+      <c r="S58" s="9" t="s">
         <v>1304</v>
       </c>
-      <c r="R58" s="9" t="s">
+      <c r="T58" s="9" t="s">
         <v>1305</v>
       </c>
-      <c r="S58" s="9" t="s">
+      <c r="U58" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="V58" s="9" t="s">
         <v>1306</v>
       </c>
-      <c r="T58" s="9" t="s">
+      <c r="W58" s="9" t="s">
         <v>1307</v>
       </c>
-      <c r="U58" s="9" t="s">
-        <v>1211</v>
-      </c>
-      <c r="V58" s="9" t="s">
+      <c r="X58" s="9" t="s">
         <v>1308</v>
       </c>
-      <c r="W58" s="9" t="s">
+      <c r="Y58" s="9" t="s">
         <v>1309</v>
       </c>
-      <c r="X58" s="9" t="s">
+      <c r="Z58" s="9" t="s">
         <v>1310</v>
       </c>
-      <c r="Y58" s="9" t="s">
+      <c r="AA58" s="9" t="s">
         <v>1311</v>
       </c>
-      <c r="Z58" s="9" t="s">
+      <c r="AB58" s="9" t="s">
         <v>1312</v>
       </c>
-      <c r="AA58" s="9" t="s">
+      <c r="AC58" s="9" t="s">
         <v>1313</v>
       </c>
-      <c r="AB58" s="9" t="s">
+      <c r="AD58" s="9" t="s">
         <v>1314</v>
       </c>
-      <c r="AC58" s="9" t="s">
+      <c r="AE58" s="9" t="s">
         <v>1315</v>
       </c>
-      <c r="AD58" s="9" t="s">
+      <c r="AF58" s="9" t="s">
         <v>1316</v>
       </c>
-      <c r="AE58" s="9" t="s">
+      <c r="AG58" s="9" t="s">
         <v>1317</v>
       </c>
-      <c r="AF58" s="9" t="s">
+      <c r="AH58" s="9" t="s">
         <v>1318</v>
       </c>
-      <c r="AG58" s="9" t="s">
+      <c r="AI58" s="9" t="s">
         <v>1319</v>
       </c>
-      <c r="AH58" s="9" t="s">
+      <c r="AJ58" s="9" t="s">
         <v>1320</v>
       </c>
-      <c r="AI58" s="9" t="s">
+      <c r="AK58" s="9" t="s">
         <v>1321</v>
       </c>
-      <c r="AJ58" s="9" t="s">
+      <c r="AL58" s="9" t="s">
         <v>1322</v>
       </c>
-      <c r="AK58" s="9" t="s">
+      <c r="AM58" s="9" t="s">
         <v>1323</v>
       </c>
-      <c r="AL58" s="9" t="s">
+      <c r="AN58" s="9" t="s">
         <v>1324</v>
       </c>
-      <c r="AM58" s="9" t="s">
+      <c r="AO58" s="9" t="s">
         <v>1325</v>
       </c>
-      <c r="AN58" s="9" t="s">
+      <c r="AP58" s="9" t="s">
         <v>1326</v>
       </c>
-      <c r="AO58" s="9" t="s">
+      <c r="AQ58" s="9" t="s">
         <v>1327</v>
       </c>
-      <c r="AP58" s="9" t="s">
+      <c r="AR58" s="9" t="s">
         <v>1328</v>
       </c>
-      <c r="AQ58" s="9" t="s">
+      <c r="AS58" s="9" t="s">
         <v>1329</v>
       </c>
-      <c r="AR58" s="9" t="s">
+      <c r="AT58" s="9" t="s">
         <v>1330</v>
       </c>
-      <c r="AS58" s="9" t="s">
+      <c r="AU58" s="9" t="s">
         <v>1331</v>
       </c>
-      <c r="AT58" s="9" t="s">
+      <c r="AV58" s="9" t="s">
         <v>1332</v>
       </c>
-      <c r="AU58" s="9" t="s">
+      <c r="AW58" s="9" t="s">
         <v>1333</v>
       </c>
-      <c r="AV58" s="9" t="s">
+      <c r="AX58" s="9" t="s">
         <v>1334</v>
       </c>
-      <c r="AW58" s="9" t="s">
+      <c r="AY58" s="9" t="s">
         <v>1335</v>
       </c>
-      <c r="AX58" s="9" t="s">
+      <c r="AZ58" s="9" t="s">
         <v>1336</v>
       </c>
-      <c r="AY58" s="9" t="s">
+      <c r="BA58" s="9" t="s">
         <v>1337</v>
       </c>
-      <c r="AZ58" s="9" t="s">
+      <c r="BB58" s="9" t="s">
         <v>1338</v>
       </c>
-      <c r="BA58" s="9" t="s">
+      <c r="BC58" s="9" t="s">
         <v>1339</v>
       </c>
-      <c r="BB58" s="9" t="s">
+      <c r="BD58" s="9" t="s">
         <v>1340</v>
       </c>
-      <c r="BC58" s="9" t="s">
+      <c r="BE58" s="9" t="s">
         <v>1341</v>
       </c>
-      <c r="BD58" s="9" t="s">
+      <c r="BF58" s="9" t="s">
         <v>1342</v>
       </c>
-      <c r="BE58" s="9" t="s">
+      <c r="BG58" s="9" t="s">
         <v>1343</v>
       </c>
-      <c r="BF58" s="9" t="s">
+      <c r="BH58" s="9" t="s">
         <v>1344</v>
       </c>
-      <c r="BG58" s="9" t="s">
+      <c r="BI58" s="9" t="s">
         <v>1345</v>
       </c>
-      <c r="BH58" s="9" t="s">
+      <c r="BJ58" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="BK58" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="BL58" s="9" t="s">
         <v>1346</v>
       </c>
-      <c r="BI58" s="9" t="s">
+      <c r="BM58" s="9" t="s">
         <v>1347</v>
       </c>
-      <c r="BJ58" s="9" t="s">
+      <c r="BN58" s="9" t="s">
+        <v>1348</v>
+      </c>
+      <c r="BO58" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="BK58" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="BL58" s="9" t="s">
-        <v>1348</v>
-      </c>
-      <c r="BM58" s="9" t="s">
+      <c r="BP58" s="9" t="s">
         <v>1349</v>
       </c>
-      <c r="BN58" s="9" t="s">
+      <c r="BQ58" s="9" t="s">
         <v>1350</v>
       </c>
-      <c r="BO58" s="9" t="s">
-        <v>790</v>
-      </c>
-      <c r="BP58" s="9" t="s">
+      <c r="BR58" s="9" t="s">
         <v>1351</v>
       </c>
-      <c r="BQ58" s="9" t="s">
+      <c r="BS58" s="9" t="s">
         <v>1352</v>
       </c>
-      <c r="BR58" s="9" t="s">
+      <c r="BT58" s="9" t="s">
         <v>1353</v>
       </c>
-      <c r="BS58" s="9" t="s">
+      <c r="BU58" s="9" t="s">
         <v>1354</v>
       </c>
-      <c r="BT58" s="9" t="s">
+      <c r="BV58" s="9" t="s">
         <v>1355</v>
       </c>
-      <c r="BU58" s="9" t="s">
+      <c r="BW58" s="9" t="s">
         <v>1356</v>
       </c>
-      <c r="BV58" s="9" t="s">
-        <v>1357</v>
-      </c>
-      <c r="BW58" s="9" t="s">
-        <v>1358</v>
-      </c>
       <c r="BX58" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="BY58" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="BY58" s="9" t="s">
-        <v>793</v>
-      </c>
       <c r="BZ58" s="9" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="CA58" s="9" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="CB58" s="9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="CC58" s="9" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="CD58" s="9" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="CE58" s="9" t="s">
         <v>478</v>
@@ -31282,88 +31276,88 @@
         <v>544</v>
       </c>
       <c r="CG58" s="9" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="CH58" s="9" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="CI58" s="9" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="CJ58" s="9" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="CK58" s="9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="CL58" s="9" t="s">
+        <v>1358</v>
+      </c>
+      <c r="CM58" s="9" t="s">
         <v>1359</v>
       </c>
-      <c r="CL58" s="9" t="s">
+      <c r="CN58" s="9" t="s">
         <v>1360</v>
       </c>
-      <c r="CM58" s="9" t="s">
+      <c r="CO58" s="9" t="s">
         <v>1361</v>
       </c>
-      <c r="CN58" s="9" t="s">
+      <c r="CP58" s="9" t="s">
         <v>1362</v>
       </c>
-      <c r="CO58" s="9" t="s">
+      <c r="CQ58" s="9" t="s">
         <v>1363</v>
       </c>
-      <c r="CP58" s="9" t="s">
+      <c r="CR58" s="9" t="s">
         <v>1364</v>
       </c>
-      <c r="CQ58" s="9" t="s">
+      <c r="CS58" s="9" t="s">
         <v>1365</v>
       </c>
-      <c r="CR58" s="9" t="s">
+      <c r="CT58" s="9" t="s">
         <v>1366</v>
       </c>
-      <c r="CS58" s="9" t="s">
+      <c r="CU58" s="9" t="s">
         <v>1367</v>
       </c>
-      <c r="CT58" s="9" t="s">
+      <c r="CV58" s="9" t="s">
         <v>1368</v>
       </c>
-      <c r="CU58" s="9" t="s">
+      <c r="CW58" s="9" t="s">
         <v>1369</v>
       </c>
-      <c r="CV58" s="9" t="s">
+      <c r="CX58" s="9" t="s">
         <v>1370</v>
       </c>
-      <c r="CW58" s="9" t="s">
+      <c r="CY58" s="9" t="s">
         <v>1371</v>
       </c>
-      <c r="CX58" s="9" t="s">
+      <c r="CZ58" s="9" t="s">
         <v>1372</v>
       </c>
-      <c r="CY58" s="9" t="s">
+      <c r="DA58" s="9" t="s">
         <v>1373</v>
       </c>
-      <c r="CZ58" s="9" t="s">
+      <c r="DB58" s="9" t="s">
         <v>1374</v>
       </c>
-      <c r="DA58" s="9" t="s">
+      <c r="DC58" s="9" t="s">
         <v>1375</v>
       </c>
-      <c r="DB58" s="9" t="s">
+      <c r="DD58" s="9" t="s">
         <v>1376</v>
       </c>
-      <c r="DC58" s="9" t="s">
+      <c r="DE58" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="DF58" s="9" t="s">
         <v>1377</v>
       </c>
-      <c r="DD58" s="9" t="s">
+      <c r="DG58" s="9" t="s">
         <v>1378</v>
       </c>
-      <c r="DE58" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="DF58" s="9" t="s">
+      <c r="DH58" s="9" t="s">
         <v>1379</v>
-      </c>
-      <c r="DG58" s="9" t="s">
-        <v>1380</v>
-      </c>
-      <c r="DH58" s="9" t="s">
-        <v>1381</v>
       </c>
       <c r="DI58" s="17"/>
       <c r="DJ58" s="17"/>
@@ -31476,52 +31470,52 @@
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>1382</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>1384</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>119</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>412</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="J59" s="9" t="s">
         <v>264</v>
       </c>
       <c r="K59" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>1388</v>
+      </c>
+      <c r="M59" s="9" t="s">
         <v>1389</v>
-      </c>
-      <c r="L59" s="9" t="s">
-        <v>1390</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>1391</v>
       </c>
       <c r="N59" s="9" t="s">
         <v>156</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q59" s="9" t="s">
         <v>124</v>
@@ -31741,37 +31735,37 @@
         <v>461</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>404</v>
       </c>
       <c r="E60" s="9" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G60" s="9" t="s">
         <v>1393</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="H60" s="9" t="s">
         <v>1394</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="I60" s="9" t="s">
         <v>1395</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="J60" s="9" t="s">
         <v>1396</v>
       </c>
-      <c r="I60" s="9" t="s">
+      <c r="K60" s="9" t="s">
         <v>1397</v>
       </c>
-      <c r="J60" s="9" t="s">
-        <v>1398</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>1399</v>
-      </c>
       <c r="L60" s="9" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
@@ -31987,13 +31981,13 @@
         <v>464</v>
       </c>
       <c r="B61" s="9" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>1400</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="62">
@@ -32001,22 +31995,22 @@
         <v>467</v>
       </c>
       <c r="B62" s="9" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>1403</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="E62" s="9" t="s">
         <v>1404</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="F62" s="9" t="s">
         <v>1405</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="G62" s="9" t="s">
         <v>1406</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="63">
@@ -32024,13 +32018,13 @@
         <v>468</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>1409</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="64">
@@ -32038,70 +32032,70 @@
         <v>479</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C64" s="9" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H64" s="9" t="s">
         <v>1225</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>1412</v>
-      </c>
-      <c r="E64" s="9" t="s">
+      <c r="I64" s="9" t="s">
         <v>1413</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="J64" s="9" t="s">
+        <v>1221</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>1229</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>1228</v>
+      </c>
+      <c r="M64" s="9" t="s">
         <v>1226</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="N64" s="9" t="s">
         <v>1414</v>
       </c>
-      <c r="H64" s="9" t="s">
-        <v>1227</v>
-      </c>
-      <c r="I64" s="9" t="s">
+      <c r="O64" s="9" t="s">
         <v>1415</v>
       </c>
-      <c r="J64" s="9" t="s">
-        <v>1223</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>1231</v>
-      </c>
-      <c r="L64" s="9" t="s">
-        <v>1230</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>1228</v>
-      </c>
-      <c r="N64" s="9" t="s">
+      <c r="P64" s="9" t="s">
         <v>1416</v>
       </c>
-      <c r="O64" s="9" t="s">
+      <c r="Q64" s="9" t="s">
         <v>1417</v>
       </c>
-      <c r="P64" s="9" t="s">
+      <c r="R64" s="9" t="s">
         <v>1418</v>
       </c>
-      <c r="Q64" s="9" t="s">
+      <c r="S64" s="9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="T64" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="U64" s="9" t="s">
+        <v>1235</v>
+      </c>
+      <c r="V64" s="9" t="s">
         <v>1419</v>
       </c>
-      <c r="R64" s="9" t="s">
+      <c r="W64" s="9" t="s">
         <v>1420</v>
-      </c>
-      <c r="S64" s="9" t="s">
-        <v>1236</v>
-      </c>
-      <c r="T64" s="9" t="s">
-        <v>1235</v>
-      </c>
-      <c r="U64" s="9" t="s">
-        <v>1237</v>
-      </c>
-      <c r="V64" s="9" t="s">
-        <v>1421</v>
-      </c>
-      <c r="W64" s="9" t="s">
-        <v>1422</v>
       </c>
       <c r="X64" s="9" t="s">
         <v>198</v>
@@ -32110,22 +32104,22 @@
         <v>295</v>
       </c>
       <c r="Z64" s="9" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AA64" s="9" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AB64" s="9" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AC64" s="9" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AD64" s="9" t="s">
         <v>1423</v>
       </c>
-      <c r="AA64" s="9" t="s">
+      <c r="AE64" s="9" t="s">
         <v>1424</v>
-      </c>
-      <c r="AB64" s="9" t="s">
-        <v>1232</v>
-      </c>
-      <c r="AC64" s="9" t="s">
-        <v>1233</v>
-      </c>
-      <c r="AD64" s="9" t="s">
-        <v>1425</v>
-      </c>
-      <c r="AE64" s="9" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="65">
@@ -32133,31 +32127,31 @@
         <v>486</v>
       </c>
       <c r="B65" s="9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>1427</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="E65" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="G65" s="9" t="s">
         <v>1428</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="H65" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="I65" s="9" t="s">
         <v>1429</v>
       </c>
-      <c r="E65" s="9" t="s">
-        <v>711</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="G65" s="9" t="s">
+      <c r="J65" s="9" t="s">
         <v>1430</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>1431</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="66">
@@ -32165,16 +32159,16 @@
         <v>487</v>
       </c>
       <c r="B66" s="9" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>1433</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="E66" s="9" t="s">
         <v>1434</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>1435</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="67">
@@ -32182,7 +32176,7 @@
         <v>491</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="68">
@@ -32190,19 +32184,19 @@
         <v>494</v>
       </c>
       <c r="B68" s="9" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>1438</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="E68" s="9" t="s">
         <v>1439</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="F68" s="9" t="s">
         <v>1440</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>1441</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>1442</v>
       </c>
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
@@ -32433,10 +32427,10 @@
         <v>420</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>253</v>
@@ -32669,7 +32663,7 @@
         <v>420</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="71">
@@ -32677,7 +32671,7 @@
         <v>498</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>537</v>
@@ -32686,22 +32680,22 @@
         <v>391</v>
       </c>
       <c r="E71" s="9" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G71" s="9" t="s">
         <v>1444</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="H71" s="9" t="s">
         <v>1445</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="I71" s="9" t="s">
         <v>1446</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="J71" s="9" t="s">
         <v>1447</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>1448</v>
-      </c>
-      <c r="J71" s="9" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="72">
@@ -32718,7 +32712,7 @@
         <v>420</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
@@ -32947,7 +32941,7 @@
         <v>396</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="74">
@@ -32955,7 +32949,7 @@
         <v>507</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="75">
@@ -32963,58 +32957,58 @@
         <v>508</v>
       </c>
       <c r="B75" s="9" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>1452</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="E75" s="9" t="s">
         <v>1453</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="F75" s="9" t="s">
         <v>1454</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="G75" s="9" t="s">
         <v>1455</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="H75" s="9" t="s">
         <v>1456</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="I75" s="9" t="s">
         <v>1457</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="J75" s="9" t="s">
         <v>1458</v>
       </c>
-      <c r="I75" s="9" t="s">
+      <c r="K75" s="9" t="s">
         <v>1459</v>
       </c>
-      <c r="J75" s="9" t="s">
+      <c r="L75" s="9" t="s">
         <v>1460</v>
       </c>
-      <c r="K75" s="9" t="s">
+      <c r="M75" s="9" t="s">
         <v>1461</v>
       </c>
-      <c r="L75" s="9" t="s">
+      <c r="N75" s="9" t="s">
         <v>1462</v>
       </c>
-      <c r="M75" s="9" t="s">
+      <c r="O75" s="9" t="s">
         <v>1463</v>
       </c>
-      <c r="N75" s="9" t="s">
+      <c r="P75" s="9" t="s">
         <v>1464</v>
       </c>
-      <c r="O75" s="9" t="s">
+      <c r="Q75" s="9" t="s">
         <v>1465</v>
       </c>
-      <c r="P75" s="9" t="s">
+      <c r="R75" s="9" t="s">
         <v>1466</v>
       </c>
-      <c r="Q75" s="9" t="s">
+      <c r="S75" s="9" t="s">
         <v>1467</v>
-      </c>
-      <c r="R75" s="9" t="s">
-        <v>1468</v>
-      </c>
-      <c r="S75" s="9" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="76">
@@ -33022,31 +33016,31 @@
         <v>511</v>
       </c>
       <c r="B76" s="9" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>1470</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="E76" s="9" t="s">
         <v>1471</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="F76" s="9" t="s">
         <v>1472</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="G76" s="9" t="s">
         <v>1473</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="H76" s="9" t="s">
         <v>1474</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="I76" s="9" t="s">
         <v>1475</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="J76" s="9" t="s">
         <v>1476</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>1477</v>
-      </c>
-      <c r="J76" s="9" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="77">
@@ -33054,7 +33048,7 @@
         <v>515</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>364</v>
@@ -33069,7 +33063,7 @@
         <v>420</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>77</v>
@@ -33081,13 +33075,13 @@
         <v>378</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="N77" s="9" t="s">
         <v>322</v>
@@ -33105,55 +33099,55 @@
         <v>105</v>
       </c>
       <c r="S77" s="9" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="T77" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="U77" s="9" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="V77" s="9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="W77" s="9" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="X77" s="9" t="s">
         <v>201</v>
       </c>
       <c r="Y77" s="9" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="Z77" s="9" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AA77" s="9" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="AB77" s="9" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AC77" s="9" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AD77" s="9" t="s">
         <v>148</v>
       </c>
       <c r="AE77" s="9" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="AF77" s="9" t="s">
         <v>242</v>
       </c>
       <c r="AG77" s="9" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="AH77" s="9" t="s">
         <v>234</v>
       </c>
       <c r="AI77" s="9" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="AJ77" s="9" t="s">
         <v>479</v>
@@ -33162,28 +33156,28 @@
         <v>526</v>
       </c>
       <c r="AL77" s="9" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="AM77" s="9" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="AN77" s="9" t="s">
         <v>200</v>
       </c>
       <c r="AO77" s="9" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="AP77" s="9" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="AQ77" s="9" t="s">
         <v>563</v>
       </c>
       <c r="AR77" s="9" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AS77" s="9" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="AT77" s="9" t="s">
         <v>177</v>
@@ -33195,7 +33189,7 @@
         <v>553</v>
       </c>
       <c r="AW77" s="9" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="AX77" s="9" t="s">
         <v>381</v>
@@ -33204,7 +33198,7 @@
         <v>478</v>
       </c>
       <c r="AZ77" s="9" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="BA77" s="17"/>
       <c r="BB77" s="17"/>
@@ -33389,85 +33383,85 @@
         <v>242</v>
       </c>
       <c r="E78" s="9" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G78" s="9" t="s">
         <v>1489</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="H78" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="I78" s="9" t="s">
         <v>1490</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="J78" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="K78" s="9" t="s">
         <v>1491</v>
       </c>
-      <c r="H78" s="9" t="s">
-        <v>997</v>
-      </c>
-      <c r="I78" s="9" t="s">
+      <c r="L78" s="9" t="s">
         <v>1492</v>
       </c>
-      <c r="J78" s="9" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K78" s="9" t="s">
+      <c r="M78" s="9" t="s">
         <v>1493</v>
       </c>
-      <c r="L78" s="9" t="s">
+      <c r="N78" s="9" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O78" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="P78" s="9" t="s">
         <v>1494</v>
       </c>
-      <c r="M78" s="9" t="s">
+      <c r="Q78" s="9" t="s">
         <v>1495</v>
       </c>
-      <c r="N78" s="9" t="s">
-        <v>1002</v>
-      </c>
-      <c r="O78" s="9" t="s">
-        <v>996</v>
-      </c>
-      <c r="P78" s="9" t="s">
+      <c r="R78" s="9" t="s">
         <v>1496</v>
       </c>
-      <c r="Q78" s="9" t="s">
+      <c r="S78" s="9" t="s">
         <v>1497</v>
       </c>
-      <c r="R78" s="9" t="s">
+      <c r="T78" s="9" t="s">
         <v>1498</v>
       </c>
-      <c r="S78" s="9" t="s">
+      <c r="U78" s="9" t="s">
         <v>1499</v>
       </c>
-      <c r="T78" s="9" t="s">
+      <c r="V78" s="9" t="s">
         <v>1500</v>
       </c>
-      <c r="U78" s="9" t="s">
+      <c r="W78" s="9" t="s">
         <v>1501</v>
       </c>
-      <c r="V78" s="9" t="s">
+      <c r="X78" s="9" t="s">
         <v>1502</v>
       </c>
-      <c r="W78" s="9" t="s">
+      <c r="Y78" s="9" t="s">
         <v>1503</v>
       </c>
-      <c r="X78" s="9" t="s">
+      <c r="Z78" s="9" t="s">
         <v>1504</v>
       </c>
-      <c r="Y78" s="9" t="s">
+      <c r="AA78" s="9" t="s">
         <v>1505</v>
       </c>
-      <c r="Z78" s="9" t="s">
+      <c r="AB78" s="9" t="s">
+        <v>930</v>
+      </c>
+      <c r="AC78" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AD78" s="9" t="s">
         <v>1506</v>
       </c>
-      <c r="AA78" s="9" t="s">
+      <c r="AE78" s="9" t="s">
         <v>1507</v>
-      </c>
-      <c r="AB78" s="9" t="s">
-        <v>932</v>
-      </c>
-      <c r="AC78" s="9" t="s">
-        <v>1190</v>
-      </c>
-      <c r="AD78" s="9" t="s">
-        <v>1508</v>
-      </c>
-      <c r="AE78" s="9" t="s">
-        <v>1509</v>
       </c>
       <c r="AF78" s="17"/>
       <c r="AG78" s="17"/>
@@ -33673,10 +33667,10 @@
         <v>420</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G79" s="9" t="s">
         <v>253</v>
@@ -33687,7 +33681,7 @@
         <v>532</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>161</v>
@@ -33708,19 +33702,19 @@
         <v>563</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="J80" s="9" t="s">
         <v>420</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="N80" s="9" t="s">
         <v>378</v>
@@ -33729,28 +33723,28 @@
         <v>253</v>
       </c>
       <c r="P80" s="9" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="Q80" s="9" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="R80" s="9" t="s">
         <v>542</v>
       </c>
       <c r="S80" s="9" t="s">
+        <v>1511</v>
+      </c>
+      <c r="T80" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="U80" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="V80" s="9" t="s">
+        <v>1512</v>
+      </c>
+      <c r="W80" s="9" t="s">
         <v>1513</v>
-      </c>
-      <c r="T80" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="U80" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="V80" s="9" t="s">
-        <v>1514</v>
-      </c>
-      <c r="W80" s="9" t="s">
-        <v>1515</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
@@ -33955,31 +33949,31 @@
         <v>539</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E81" s="9" t="s">
         <v>1516</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="F81" s="9" t="s">
         <v>1517</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E81" s="9" t="s">
+      <c r="G81" s="9" t="s">
         <v>1518</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="H81" s="9" t="s">
         <v>1519</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="I81" s="9" t="s">
         <v>1520</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="J81" s="9" t="s">
         <v>1521</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>1522</v>
-      </c>
-      <c r="J81" s="9" t="s">
-        <v>1523</v>
       </c>
       <c r="K81" s="17"/>
       <c r="L81" s="17"/>
@@ -34197,37 +34191,37 @@
         <v>549</v>
       </c>
       <c r="B82" s="9" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E82" s="9" t="s">
         <v>1524</v>
       </c>
-      <c r="C82" s="9" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D82" s="9" t="s">
+      <c r="F82" s="9" t="s">
         <v>1525</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="G82" s="9" t="s">
         <v>1526</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="H82" s="9" t="s">
         <v>1527</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="I82" s="9" t="s">
         <v>1528</v>
       </c>
-      <c r="H82" s="9" t="s">
+      <c r="J82" s="9" t="s">
         <v>1529</v>
       </c>
-      <c r="I82" s="9" t="s">
+      <c r="K82" s="9" t="s">
         <v>1530</v>
       </c>
-      <c r="J82" s="9" t="s">
+      <c r="L82" s="9" t="s">
         <v>1531</v>
-      </c>
-      <c r="K82" s="9" t="s">
-        <v>1532</v>
-      </c>
-      <c r="L82" s="9" t="s">
-        <v>1533</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="17"/>
@@ -34446,7 +34440,7 @@
         <v>155</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="84">
@@ -34454,10 +34448,10 @@
         <v>554</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="85">
@@ -34465,43 +34459,43 @@
         <v>557</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>132</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>525</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>233</v>
       </c>
       <c r="H85" s="9" t="s">
+        <v>1536</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K85" s="9" t="s">
         <v>1538</v>
       </c>
-      <c r="I85" s="9" t="s">
-        <v>1539</v>
-      </c>
-      <c r="J85" s="9" t="s">
-        <v>1217</v>
-      </c>
-      <c r="K85" s="9" t="s">
-        <v>1540</v>
-      </c>
       <c r="L85" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M85" s="9" t="s">
         <v>252</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="O85" s="9" t="s">
         <v>484</v>
@@ -34510,118 +34504,118 @@
         <v>574</v>
       </c>
       <c r="Q85" s="9" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="R85" s="9" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="S85" s="9" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="T85" s="9" t="s">
         <v>12</v>
       </c>
       <c r="U85" s="9" t="s">
+        <v>1541</v>
+      </c>
+      <c r="V85" s="9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="W85" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="X85" s="9" t="s">
+        <v>1225</v>
+      </c>
+      <c r="Y85" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="Z85" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AA85" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="AB85" s="9" t="s">
+        <v>1247</v>
+      </c>
+      <c r="AC85" s="9" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AD85" s="9" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AE85" s="9" t="s">
         <v>1543</v>
       </c>
-      <c r="V85" s="9" t="s">
-        <v>1272</v>
-      </c>
-      <c r="W85" s="9" t="s">
-        <v>1239</v>
-      </c>
-      <c r="X85" s="9" t="s">
-        <v>1227</v>
-      </c>
-      <c r="Y85" s="9" t="s">
-        <v>695</v>
-      </c>
-      <c r="Z85" s="9" t="s">
-        <v>1117</v>
-      </c>
-      <c r="AA85" s="9" t="s">
-        <v>725</v>
-      </c>
-      <c r="AB85" s="9" t="s">
-        <v>1249</v>
-      </c>
-      <c r="AC85" s="9" t="s">
-        <v>1544</v>
-      </c>
-      <c r="AD85" s="9" t="s">
+      <c r="AF85" s="9" t="s">
         <v>1222</v>
       </c>
-      <c r="AE85" s="9" t="s">
-        <v>1545</v>
-      </c>
-      <c r="AF85" s="9" t="s">
-        <v>1224</v>
-      </c>
       <c r="AG85" s="9" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="AH85" s="9" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="AI85" s="9" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AJ85" s="9" t="s">
+        <v>1423</v>
+      </c>
+      <c r="AK85" s="9" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AL85" s="9" t="s">
         <v>1233</v>
-      </c>
-      <c r="AJ85" s="9" t="s">
-        <v>1425</v>
-      </c>
-      <c r="AK85" s="9" t="s">
-        <v>1232</v>
-      </c>
-      <c r="AL85" s="9" t="s">
-        <v>1235</v>
       </c>
       <c r="AM85" s="9" t="s">
         <v>198</v>
       </c>
       <c r="AN85" s="9" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="AO85" s="9" t="s">
         <v>475</v>
       </c>
       <c r="AP85" s="9" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AQ85" s="9" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AR85" s="9" t="s">
         <v>1546</v>
       </c>
-      <c r="AQ85" s="9" t="s">
+      <c r="AS85" s="9" t="s">
         <v>1547</v>
       </c>
-      <c r="AR85" s="9" t="s">
+      <c r="AT85" s="9" t="s">
         <v>1548</v>
       </c>
-      <c r="AS85" s="9" t="s">
+      <c r="AU85" s="9" t="s">
         <v>1549</v>
       </c>
-      <c r="AT85" s="9" t="s">
+      <c r="AV85" s="9" t="s">
         <v>1550</v>
       </c>
-      <c r="AU85" s="9" t="s">
+      <c r="AW85" s="9" t="s">
         <v>1551</v>
       </c>
-      <c r="AV85" s="9" t="s">
+      <c r="AX85" s="9" t="s">
         <v>1552</v>
       </c>
-      <c r="AW85" s="9" t="s">
+      <c r="AY85" s="9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AZ85" s="9" t="s">
         <v>1553</v>
       </c>
-      <c r="AX85" s="9" t="s">
+      <c r="BA85" s="9" t="s">
         <v>1554</v>
       </c>
-      <c r="AY85" s="9" t="s">
-        <v>1216</v>
-      </c>
-      <c r="AZ85" s="9" t="s">
+      <c r="BB85" s="9" t="s">
         <v>1555</v>
-      </c>
-      <c r="BA85" s="9" t="s">
-        <v>1556</v>
-      </c>
-      <c r="BB85" s="9" t="s">
-        <v>1557</v>
       </c>
       <c r="BC85" s="17"/>
       <c r="BD85" s="17"/>
@@ -34795,31 +34789,31 @@
         <v>568</v>
       </c>
       <c r="B86" s="9" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F86" s="9" t="s">
         <v>1558</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>857</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>1559</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>1560</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>194</v>
       </c>
       <c r="H86" s="9" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J86" s="9" t="s">
         <v>1561</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>1562</v>
-      </c>
-      <c r="J86" s="9" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="87">
@@ -34827,46 +34821,46 @@
         <v>570</v>
       </c>
       <c r="B87" s="9" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>1563</v>
+      </c>
+      <c r="I87" s="9" t="s">
         <v>1564</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>1312</v>
-      </c>
-      <c r="F87" s="9" t="s">
+      <c r="J87" s="9" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>1306</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O87" s="9" t="s">
         <v>1313</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>1314</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>1565</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>1566</v>
-      </c>
-      <c r="J87" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="K87" s="9" t="s">
-        <v>1568</v>
-      </c>
-      <c r="L87" s="9" t="s">
-        <v>1569</v>
-      </c>
-      <c r="M87" s="9" t="s">
-        <v>1308</v>
-      </c>
-      <c r="N87" s="9" t="s">
-        <v>1570</v>
-      </c>
-      <c r="O87" s="9" t="s">
-        <v>1315</v>
       </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
@@ -35076,28 +35070,28 @@
     </row>
     <row r="88">
       <c r="A88" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="G88" s="9" t="s">
         <v>545</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="17"/>
@@ -35314,28 +35308,28 @@
     </row>
     <row r="89">
       <c r="A89" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B89" s="9" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>1572</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="E89" s="9" t="s">
         <v>1573</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="F89" s="9" t="s">
         <v>1574</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="G89" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="H89" s="9" t="s">
         <v>1576</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>1577</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>1578</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>420</v>
@@ -35347,31 +35341,31 @@
         <v>148</v>
       </c>
       <c r="L89" s="9" t="s">
+        <v>1577</v>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>1578</v>
+      </c>
+      <c r="N89" s="9" t="s">
         <v>1579</v>
       </c>
-      <c r="M89" s="9" t="s">
+      <c r="O89" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="P89" s="9" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Q89" s="9" t="s">
+        <v>1204</v>
+      </c>
+      <c r="R89" s="9" t="s">
         <v>1580</v>
       </c>
-      <c r="N89" s="9" t="s">
+      <c r="S89" s="9" t="s">
         <v>1581</v>
       </c>
-      <c r="O89" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="P89" s="9" t="s">
-        <v>1002</v>
-      </c>
-      <c r="Q89" s="9" t="s">
-        <v>1206</v>
-      </c>
-      <c r="R89" s="9" t="s">
-        <v>1582</v>
-      </c>
-      <c r="S89" s="9" t="s">
-        <v>1583</v>
-      </c>
       <c r="T89" s="9" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="U89" s="9" t="s">
         <v>161</v>
@@ -35386,7 +35380,7 @@
         <v>432</v>
       </c>
       <c r="Y89" s="9" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="Z89" s="9" t="s">
         <v>563</v>
@@ -35397,18 +35391,18 @@
     </row>
     <row r="90">
       <c r="A90" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>67</v>
@@ -35420,10 +35414,10 @@
         <v>420</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G91" s="9" t="s">
         <v>253</v>
@@ -35431,37 +35425,37 @@
     </row>
     <row r="92">
       <c r="A92" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B92" s="9" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F92" s="9" t="s">
         <v>1585</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="G92" s="9" t="s">
         <v>1586</v>
       </c>
-      <c r="D92" s="9" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F92" s="9" t="s">
+      <c r="H92" s="9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I92" s="9" t="s">
         <v>1587</v>
       </c>
-      <c r="G92" s="9" t="s">
+      <c r="J92" s="9" t="s">
         <v>1588</v>
       </c>
-      <c r="H92" s="9" t="s">
-        <v>1185</v>
-      </c>
-      <c r="I92" s="9" t="s">
+      <c r="K92" s="9" t="s">
         <v>1589</v>
-      </c>
-      <c r="J92" s="9" t="s">
-        <v>1590</v>
-      </c>
-      <c r="K92" s="9" t="s">
-        <v>1591</v>
       </c>
       <c r="L92" s="17"/>
       <c r="M92" s="17"/>
@@ -35675,16 +35669,16 @@
     </row>
     <row r="93">
       <c r="A93" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B93" s="9" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>1592</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>1593</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>1594</v>
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
@@ -35905,7 +35899,7 @@
     </row>
     <row r="94">
       <c r="A94" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>105</v>
@@ -35926,16 +35920,16 @@
         <v>563</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="L94" s="17"/>
       <c r="M94" s="17"/>
@@ -36149,49 +36143,49 @@
     </row>
     <row r="95">
       <c r="A95" s="9" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B95" s="9" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>1595</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="E95" s="9" t="s">
         <v>1596</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="F95" s="9" t="s">
         <v>1597</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="G95" s="9" t="s">
         <v>1598</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="H95" s="9" t="s">
         <v>1599</v>
       </c>
-      <c r="G95" s="9" t="s">
+      <c r="I95" s="9" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J95" s="9" t="s">
         <v>1600</v>
       </c>
-      <c r="H95" s="9" t="s">
+      <c r="K95" s="9" t="s">
         <v>1601</v>
       </c>
-      <c r="I95" s="9" t="s">
-        <v>1369</v>
-      </c>
-      <c r="J95" s="9" t="s">
+      <c r="L95" s="9" t="s">
         <v>1602</v>
       </c>
-      <c r="K95" s="9" t="s">
+      <c r="M95" s="9" t="s">
         <v>1603</v>
       </c>
-      <c r="L95" s="9" t="s">
+      <c r="N95" s="9" t="s">
         <v>1604</v>
       </c>
-      <c r="M95" s="9" t="s">
+      <c r="O95" s="9" t="s">
         <v>1605</v>
-      </c>
-      <c r="N95" s="9" t="s">
-        <v>1606</v>
-      </c>
-      <c r="O95" s="9" t="s">
-        <v>1607</v>
       </c>
       <c r="P95" s="17"/>
       <c r="Q95" s="17"/>
@@ -36401,7 +36395,7 @@
     </row>
     <row r="96">
       <c r="A96" s="9" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>331</v>
@@ -36410,7 +36404,7 @@
         <v>270</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>526</v>
@@ -36423,13 +36417,13 @@
     </row>
     <row r="97">
       <c r="A97" s="9" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>187</v>
@@ -36437,107 +36431,107 @@
     </row>
     <row r="98">
       <c r="A98" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>1610</v>
+      </c>
+      <c r="J98" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="B98" s="9" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>784</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>1610</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="H98" s="9" t="s">
+      <c r="K98" s="9" t="s">
         <v>1611</v>
       </c>
-      <c r="I98" s="9" t="s">
+      <c r="L98" s="9" t="s">
         <v>1612</v>
       </c>
-      <c r="J98" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="K98" s="9" t="s">
+      <c r="M98" s="9" t="s">
         <v>1613</v>
       </c>
-      <c r="L98" s="9" t="s">
+      <c r="N98" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="O98" s="9" t="s">
         <v>1614</v>
       </c>
-      <c r="M98" s="9" t="s">
+      <c r="P98" s="9" t="s">
         <v>1615</v>
       </c>
-      <c r="N98" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="O98" s="9" t="s">
+      <c r="Q98" s="9" t="s">
         <v>1616</v>
-      </c>
-      <c r="P98" s="9" t="s">
-        <v>1617</v>
-      </c>
-      <c r="Q98" s="9" t="s">
-        <v>1618</v>
       </c>
       <c r="R98" s="9" t="s">
         <v>194</v>
       </c>
       <c r="S98" s="9" t="s">
+        <v>1617</v>
+      </c>
+      <c r="T98" s="9" t="s">
+        <v>1618</v>
+      </c>
+      <c r="U98" s="9" t="s">
         <v>1619</v>
       </c>
-      <c r="T98" s="9" t="s">
+      <c r="V98" s="9" t="s">
         <v>1620</v>
       </c>
-      <c r="U98" s="9" t="s">
+      <c r="W98" s="9" t="s">
         <v>1621</v>
       </c>
-      <c r="V98" s="9" t="s">
+      <c r="X98" s="9" t="s">
         <v>1622</v>
       </c>
-      <c r="W98" s="9" t="s">
+      <c r="Y98" s="9" t="s">
         <v>1623</v>
       </c>
-      <c r="X98" s="9" t="s">
+      <c r="Z98" s="9" t="s">
         <v>1624</v>
       </c>
-      <c r="Y98" s="9" t="s">
+      <c r="AA98" s="9" t="s">
         <v>1625</v>
       </c>
-      <c r="Z98" s="9" t="s">
+      <c r="AB98" s="9" t="s">
         <v>1626</v>
       </c>
-      <c r="AA98" s="9" t="s">
+      <c r="AC98" s="9" t="s">
         <v>1627</v>
       </c>
-      <c r="AB98" s="9" t="s">
+      <c r="AD98" s="9" t="s">
         <v>1628</v>
-      </c>
-      <c r="AC98" s="9" t="s">
-        <v>1629</v>
-      </c>
-      <c r="AD98" s="9" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="9" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>32</v>
@@ -36549,34 +36543,34 @@
         <v>445</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G100" s="9" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="J100" s="9" t="s">
         <v>1632</v>
       </c>
-      <c r="H100" s="9" t="s">
+      <c r="K100" s="9" t="s">
         <v>1633</v>
       </c>
-      <c r="I100" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="J100" s="9" t="s">
+      <c r="L100" s="9" t="s">
         <v>1634</v>
       </c>
-      <c r="K100" s="9" t="s">
+      <c r="M100" s="9" t="s">
         <v>1635</v>
       </c>
-      <c r="L100" s="9" t="s">
+      <c r="N100" s="9" t="s">
         <v>1636</v>
-      </c>
-      <c r="M100" s="9" t="s">
-        <v>1637</v>
-      </c>
-      <c r="N100" s="9" t="s">
-        <v>1638</v>
       </c>
       <c r="O100" s="17"/>
       <c r="P100" s="17"/>
@@ -36787,47 +36781,47 @@
     </row>
     <row r="101">
       <c r="A101" s="9" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B101" s="9" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>1639</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>1641</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>233</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B102" s="9" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>1643</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="E102" s="9" t="s">
         <v>1644</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>1645</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>449</v>
@@ -36836,19 +36830,19 @@
         <v>444</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="G103" s="9" t="s">
         <v>284</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="17"/>
@@ -37065,16 +37059,16 @@
     </row>
     <row r="104">
       <c r="A104" s="9" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>92</v>
